--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T08:33:50-06:00</t>
+    <t>2022-12-23T15:55:29-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,7 +259,7 @@
     <t>Mapping: XDS metadata equivalent</t>
   </si>
   <si>
-    <t>Mapping: VIA/VDIF to MHV-PHR</t>
+    <t>Mapping: VDIF to MHV-PHR</t>
   </si>
   <si>
     <t/>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T15:55:29-06:00</t>
+    <t>2023-01-04T18:59:45-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,7 +85,29 @@
   </si>
   <si>
     <t>A profile on the DocumentReference resource for MHV PHR exposing Notes using FHIR API.
-- based on US-Core for Clinical Notes</t>
+- The mock example maps best to VIA_v4.0.7_uat.wsdl. 
+- based on US-Core for Clinical Notes
+TODO Questions:
+- is standardTitle or type used to differentiate between various note types?
+- type seems to hold an enum (A, PN, DS). I am not sure what these mean, or if there are other values
+  - A - LOINC#83320-2 \"Allergy and Immunology Adverse event note\"
+  - PN - LOINC#11505-5 \"Physician procedure note\"
+  - DS - LOINC#18842-5 \"Discharge summary\"
+- some schema elements found in VIA_v4.0.7_uat.wsdl are not mapped here because I can't tell what is in them. Most of them likely have a place to go in the FHIR model, but I need to know more about them.
+  - serviceCategory
+  - cosigner
+  - hasAdendum
+  - isAddendum
+  - originalNoteID
+  - hasImages
+  - itemId
+  - signatureTimestamp
+  - consultId
+  - surgicalProcId
+  - prfId
+  - parentId
+  - procTimestamp
+  - subject</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -714,7 +736,7 @@
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
-    <t>NoteTo.type{A, PN, DS, ?} or ConvertTitleToCode(NoteTO.standardTitle)</t>
+    <t>NoteTO.type{A, PN, DS, ?} or ConvertTitleToCode(NoteTO.standardTitle)</t>
   </si>
   <si>
     <t>DocumentReference.type.text</t>
@@ -2069,7 +2091,7 @@
     <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="82.05078125" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="157.95703125" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="65.37109375" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="65.66796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="537">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-beta</t>
+    <t>0.1.1-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-04T18:59:45-06:00</t>
+    <t>2023-01-05T09:18:04-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -296,7 +296,10 @@
     <t>A reference to a document</t>
   </si>
   <si>
-    <t>\-</t>
+    <t>This is a basic constraint on DocumentRefernce for use in the US Core IG.</t>
+  </si>
+  <si>
+    <t>Usually, this is used for documents other than those defined by FHIR.</t>
   </si>
   <si>
     <t>Event</t>
@@ -782,17 +785,13 @@
     <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>High-level kind of a clinical document at a macro level.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:$this}
-</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>The US Core DocumentReferences Type Value Set is a &amp;#39;starter set&amp;#39; of categories supported for fetching and storing clinical notes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-category</t>
   </si>
   <si>
     <t>Composition.class</t>
@@ -808,18 +807,6 @@
   </si>
   <si>
     <t>clinical-note</t>
-  </si>
-  <si>
-    <t>DocumentReference.category:us-core</t>
-  </si>
-  <si>
-    <t>us-core</t>
-  </si>
-  <si>
-    <t>The US Core DocumentReferences Type Value Set is a &amp;#39;starter set&amp;#39; of categories supported for fetching and storing clinical notes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-category</t>
   </si>
   <si>
     <t>DocumentReference.subject</t>
@@ -897,7 +884,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson|Device)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|RelatedPerson|Device)
 </t>
   </si>
   <si>
@@ -1127,9 +1114,6 @@
     <t>Use of the Health Care Privacy/Security Classification (HCS) system of security-tag use is recommended.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
@@ -1189,7 +1173,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-6:DocumentReference.content.attachment.url or DocumentReference.content.attachment.data or both SHALL be present. {url.exists() or data.exists()}</t>
+us-core-6:DocumentReference.content.attachment.url or  DocumentReference.content.attachment.data or both SHALL be present. {url.exists() or data.exists()}</t>
   </si>
   <si>
     <t>Composition.language, 
@@ -1510,6 +1494,9 @@
   </si>
   <si>
     <t>An event can further specialize the act inherent in the type, such as  where it is simply "Procedure Report" and the procedure was a "colonoscopy". If one or more event codes are included, they shall not conflict with the values inherent in the class or type elements as such a conflict would create an ambiguous situation.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>This list of codes represents the main clinical acts being documented.</t>
@@ -2040,7 +2027,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR65"/>
+  <dimension ref="A1:AR64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2265,7 +2252,7 @@
         <v>85</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2330,16 +2317,16 @@
         <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>81</v>
@@ -2351,15 +2338,15 @@
         <v>81</v>
       </c>
       <c r="AR2" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2370,7 +2357,7 @@
         <v>82</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>81</v>
@@ -2379,19 +2366,19 @@
         <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2441,13 +2428,13 @@
         <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>81</v>
@@ -2482,10 +2469,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2496,7 +2483,7 @@
         <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>81</v>
@@ -2505,16 +2492,16 @@
         <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2565,19 +2552,19 @@
         <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>81</v>
@@ -2606,10 +2593,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2620,28 +2607,28 @@
         <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2691,19 +2678,19 @@
         <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>81</v>
@@ -2732,10 +2719,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2746,7 +2733,7 @@
         <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>81</v>
@@ -2758,16 +2745,16 @@
         <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2793,13 +2780,13 @@
         <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>81</v>
@@ -2817,19 +2804,19 @@
         <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>81</v>
@@ -2858,21 +2845,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>81</v>
@@ -2884,16 +2871,16 @@
         <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2943,19 +2930,19 @@
         <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>81</v>
@@ -2964,7 +2951,7 @@
         <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>81</v>
@@ -2984,14 +2971,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3010,16 +2997,16 @@
         <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3069,7 +3056,7 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>82</v>
@@ -3090,7 +3077,7 @@
         <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>81</v>
@@ -3110,14 +3097,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3136,16 +3123,16 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3195,7 +3182,7 @@
         <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>82</v>
@@ -3207,7 +3194,7 @@
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>81</v>
@@ -3216,7 +3203,7 @@
         <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>81</v>
@@ -3236,14 +3223,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3256,25 +3243,25 @@
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>81</v>
@@ -3323,7 +3310,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>82</v>
@@ -3335,7 +3322,7 @@
         <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -3344,7 +3331,7 @@
         <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>81</v>
@@ -3364,10 +3351,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3378,7 +3365,7 @@
         <v>82</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>81</v>
@@ -3387,22 +3374,22 @@
         <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>81</v>
@@ -3451,40 +3438,40 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AR11" t="s" s="2">
         <v>81</v>
@@ -3492,10 +3479,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3503,28 +3490,28 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3575,7 +3562,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>82</v>
@@ -3587,39 +3574,39 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AR12" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3627,31 +3614,31 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3677,11 +3664,11 @@
         <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>81</v>
@@ -3699,51 +3686,51 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AQ13" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AR13" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3754,7 +3741,7 @@
         <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>81</v>
@@ -3763,19 +3750,19 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3801,13 +3788,13 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>81</v>
@@ -3825,37 +3812,37 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AQ14" t="s" s="2">
         <v>81</v>
@@ -3866,10 +3853,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3877,31 +3864,31 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3927,13 +3914,13 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3951,40 +3938,40 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AR15" t="s" s="2">
         <v>81</v>
@@ -3992,10 +3979,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4006,7 +3993,7 @@
         <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -4018,13 +4005,13 @@
         <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4075,13 +4062,13 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
@@ -4096,7 +4083,7 @@
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -4116,14 +4103,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4142,16 +4129,16 @@
         <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4189,19 +4176,19 @@
         <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>82</v>
@@ -4213,7 +4200,7 @@
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
@@ -4222,7 +4209,7 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -4242,10 +4229,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4265,22 +4252,22 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -4329,7 +4316,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>82</v>
@@ -4341,7 +4328,7 @@
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
@@ -4350,7 +4337,7 @@
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -4359,21 +4346,21 @@
         <v>81</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4384,7 +4371,7 @@
         <v>82</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
@@ -4393,22 +4380,22 @@
         <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -4457,19 +4444,19 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>81</v>
@@ -4478,7 +4465,7 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4487,53 +4474,53 @@
         <v>81</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4559,29 +4546,31 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AC20" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>82</v>
@@ -4593,7 +4582,7 @@
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
@@ -4608,7 +4597,7 @@
         <v>246</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>81</v>
@@ -4625,42 +4614,38 @@
         <v>249</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4685,13 +4670,13 @@
         <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>81</v>
@@ -4709,82 +4694,84 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="AR21" t="s" s="2">
-        <v>81</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4833,83 +4820,83 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="AR22" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4959,51 +4946,51 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="AR23" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5014,28 +5001,28 @@
         <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5085,51 +5072,51 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>81</v>
+        <v>292</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AR24" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5140,7 +5127,7 @@
         <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -5152,16 +5139,16 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5211,51 +5198,51 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="AR25" t="s" s="2">
-        <v>299</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5266,7 +5253,7 @@
         <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
@@ -5275,19 +5262,19 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5337,28 +5324,28 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -5370,7 +5357,7 @@
         <v>81</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="AR26" t="s" s="2">
         <v>81</v>
@@ -5378,10 +5365,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5392,7 +5379,7 @@
         <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>81</v>
@@ -5401,20 +5388,18 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>308</v>
+        <v>206</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>309</v>
+        <v>207</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -5463,28 +5448,28 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>307</v>
+        <v>209</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>313</v>
+        <v>210</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5496,7 +5481,7 @@
         <v>81</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="AR27" t="s" s="2">
         <v>81</v>
@@ -5504,21 +5489,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
@@ -5530,15 +5515,17 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -5587,19 +5574,19 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
@@ -5608,7 +5595,7 @@
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5628,14 +5615,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>137</v>
+        <v>314</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5648,24 +5635,26 @@
         <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>139</v>
+        <v>315</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5713,7 +5702,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>82</v>
@@ -5725,7 +5714,7 @@
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
@@ -5734,7 +5723,7 @@
         <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5754,33 +5743,33 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>318</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>319</v>
@@ -5789,11 +5778,9 @@
         <v>320</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5817,13 +5804,13 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>81</v>
+        <v>322</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5841,28 +5828,28 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>135</v>
+        <v>325</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5874,7 +5861,7 @@
         <v>81</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="AR30" t="s" s="2">
         <v>81</v>
@@ -5882,10 +5869,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5893,10 +5880,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5905,20 +5892,18 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>112</v>
+        <v>328</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5943,52 +5928,52 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AA31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="AG31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -6000,7 +5985,7 @@
         <v>81</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AR31" t="s" s="2">
         <v>81</v>
@@ -6008,10 +5993,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6019,10 +6004,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -6031,19 +6016,23 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>332</v>
+        <v>206</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
       </c>
@@ -6091,28 +6080,28 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -6121,10 +6110,10 @@
         <v>81</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>81</v>
+        <v>340</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AR32" t="s" s="2">
         <v>81</v>
@@ -6132,10 +6121,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6146,7 +6135,7 @@
         <v>82</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -6155,22 +6144,22 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -6195,13 +6184,13 @@
         <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>81</v>
+        <v>347</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>81</v>
@@ -6219,40 +6208,40 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="AR33" t="s" s="2">
         <v>81</v>
@@ -6260,10 +6249,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6271,35 +6260,31 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>191</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
@@ -6323,13 +6308,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>353</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -6347,10 +6332,10 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>83</v>
@@ -6359,28 +6344,28 @@
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>356</v>
+        <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>357</v>
+        <v>81</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>358</v>
+        <v>81</v>
       </c>
       <c r="AR34" t="s" s="2">
         <v>81</v>
@@ -6399,28 +6384,28 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>206</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>360</v>
+        <v>207</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>361</v>
+        <v>208</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6471,28 +6456,28 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>359</v>
+        <v>209</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>362</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>363</v>
+        <v>210</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6512,21 +6497,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -6538,15 +6523,17 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6595,19 +6582,19 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
@@ -6616,7 +6603,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6636,14 +6623,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>137</v>
+        <v>314</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6656,24 +6643,26 @@
         <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>139</v>
+        <v>315</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6721,7 +6710,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
@@ -6733,7 +6722,7 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
@@ -6742,7 +6731,7 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6762,46 +6751,42 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>318</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>138</v>
+        <v>363</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6849,40 +6834,40 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>143</v>
+        <v>366</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>81</v>
+        <v>367</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>135</v>
+        <v>358</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>81</v>
+        <v>368</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>81</v>
+        <v>369</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="AR38" t="s" s="2">
         <v>81</v>
@@ -6890,10 +6875,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6901,28 +6886,28 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>368</v>
+        <v>206</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>369</v>
+        <v>207</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>370</v>
+        <v>208</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6973,40 +6958,40 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>367</v>
+        <v>209</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>371</v>
+        <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>363</v>
+        <v>210</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>374</v>
+        <v>81</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>375</v>
+        <v>81</v>
       </c>
       <c r="AR39" t="s" s="2">
         <v>81</v>
@@ -7014,21 +6999,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>81</v>
@@ -7040,15 +7025,17 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -7085,31 +7072,31 @@
         <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
@@ -7118,7 +7105,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -7138,44 +7125,44 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>139</v>
+        <v>374</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -7187,7 +7174,7 @@
         <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>81</v>
@@ -7199,43 +7186,43 @@
         <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>215</v>
+        <v>380</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
@@ -7244,7 +7231,7 @@
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>209</v>
+        <v>381</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -7253,21 +7240,21 @@
         <v>81</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>81</v>
+        <v>382</v>
       </c>
       <c r="AQ41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR41" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7278,29 +7265,29 @@
         <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -7313,7 +7300,7 @@
         <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>81</v>
@@ -7325,13 +7312,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>383</v>
+        <v>118</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>384</v>
+        <v>119</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -7349,19 +7336,19 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
@@ -7370,7 +7357,7 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7379,21 +7366,21 @@
         <v>81</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>387</v>
+        <v>81</v>
       </c>
       <c r="AQ42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR42" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7404,29 +7391,31 @@
         <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>112</v>
+        <v>392</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7439,7 +7428,7 @@
         <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>393</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>81</v>
@@ -7451,13 +7440,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -7475,19 +7464,19 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>81</v>
+        <v>398</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
@@ -7496,7 +7485,7 @@
         <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7505,21 +7494,21 @@
         <v>81</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AQ43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR43" t="s" s="2">
-        <v>81</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7530,31 +7519,31 @@
         <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7567,7 +7556,7 @@
         <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>81</v>
+        <v>408</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>81</v>
@@ -7603,19 +7592,19 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
@@ -7624,7 +7613,7 @@
         <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7633,21 +7622,21 @@
         <v>81</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="AQ44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR44" t="s" s="2">
-        <v>406</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7658,31 +7647,31 @@
         <v>82</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7695,7 +7684,7 @@
         <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>413</v>
+        <v>81</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>81</v>
@@ -7731,19 +7720,19 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>403</v>
+        <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
@@ -7752,7 +7741,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7761,21 +7750,21 @@
         <v>81</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>416</v>
+        <v>81</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR45" t="s" s="2">
-        <v>81</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7786,7 +7775,7 @@
         <v>82</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -7795,22 +7784,22 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7859,19 +7848,19 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
@@ -7880,7 +7869,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7895,15 +7884,15 @@
         <v>81</v>
       </c>
       <c r="AR46" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7914,7 +7903,7 @@
         <v>82</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
@@ -7923,22 +7912,20 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>397</v>
+        <v>206</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7951,7 +7938,7 @@
         <v>81</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>81</v>
+        <v>432</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>81</v>
@@ -7987,19 +7974,19 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>81</v>
@@ -8008,7 +7995,7 @@
         <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -8023,15 +8010,15 @@
         <v>81</v>
       </c>
       <c r="AR47" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8042,7 +8029,7 @@
         <v>82</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
@@ -8051,20 +8038,20 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>205</v>
+        <v>437</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -8077,7 +8064,7 @@
         <v>81</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>437</v>
+        <v>81</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>81</v>
@@ -8113,19 +8100,19 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
@@ -8134,7 +8121,7 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -8149,15 +8136,15 @@
         <v>81</v>
       </c>
       <c r="AR48" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8168,30 +8155,30 @@
         <v>82</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>442</v>
+        <v>218</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
         <v>445</v>
       </c>
+      <c r="N49" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
@@ -8215,13 +8202,11 @@
         <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>81</v>
+        <v>447</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
@@ -8239,31 +8224,31 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>424</v>
+        <v>358</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
@@ -8272,18 +8257,18 @@
         <v>81</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>81</v>
+        <v>450</v>
       </c>
       <c r="AR49" t="s" s="2">
-        <v>447</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8294,28 +8279,28 @@
         <v>82</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>217</v>
+        <v>304</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8341,11 +8326,13 @@
         <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="Y50" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z50" t="s" s="2">
-        <v>452</v>
+        <v>81</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
@@ -8363,31 +8350,31 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>363</v>
+        <v>455</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>454</v>
+        <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>81</v>
@@ -8396,7 +8383,7 @@
         <v>81</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>455</v>
+        <v>81</v>
       </c>
       <c r="AR50" t="s" s="2">
         <v>81</v>
@@ -8418,29 +8405,27 @@
         <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>308</v>
+        <v>206</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>457</v>
+        <v>207</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -8489,19 +8474,19 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>456</v>
+        <v>209</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
@@ -8510,7 +8495,7 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>460</v>
+        <v>210</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8530,21 +8515,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>81</v>
@@ -8556,15 +8541,17 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8613,19 +8600,19 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
@@ -8634,7 +8621,7 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8654,14 +8641,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>137</v>
+        <v>314</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8674,24 +8661,26 @@
         <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>139</v>
+        <v>315</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8739,7 +8728,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>82</v>
@@ -8751,7 +8740,7 @@
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
@@ -8760,7 +8749,7 @@
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8780,46 +8769,42 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>318</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>138</v>
+        <v>460</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>319</v>
+        <v>461</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>81</v>
       </c>
@@ -8867,7 +8852,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>321</v>
+        <v>459</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>82</v>
@@ -8879,22 +8864,22 @@
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>81</v>
+        <v>463</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>81</v>
+        <v>464</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>135</v>
+        <v>465</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>81</v>
+        <v>466</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>81</v>
@@ -8908,10 +8893,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8922,10 +8907,10 @@
         <v>82</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>81</v>
@@ -8934,15 +8919,17 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>465</v>
+        <v>192</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8967,13 +8954,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>81</v>
+        <v>471</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>81</v>
+        <v>472</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>81</v>
+        <v>473</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8991,7 +8978,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>82</v>
@@ -9003,28 +8990,28 @@
         <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>468</v>
+        <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>471</v>
+        <v>81</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ55" t="s" s="2">
-        <v>81</v>
+        <v>476</v>
       </c>
       <c r="AR55" t="s" s="2">
         <v>81</v>
@@ -9032,10 +9019,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9046,29 +9033,27 @@
         <v>82</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>191</v>
+        <v>478</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -9093,55 +9078,55 @@
         <v>81</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>476</v>
+        <v>81</v>
       </c>
       <c r="Z56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="AA56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>472</v>
-      </c>
       <c r="AG56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>81</v>
+        <v>483</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -9150,7 +9135,7 @@
         <v>81</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="AR56" t="s" s="2">
         <v>81</v>
@@ -9158,10 +9143,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9172,25 +9157,25 @@
         <v>82</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>482</v>
+        <v>206</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>483</v>
+        <v>207</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>484</v>
+        <v>208</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9241,31 +9226,31 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>481</v>
+        <v>209</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>485</v>
+        <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>486</v>
+        <v>210</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>487</v>
+        <v>81</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>81</v>
@@ -9274,7 +9259,7 @@
         <v>81</v>
       </c>
       <c r="AQ57" t="s" s="2">
-        <v>488</v>
+        <v>81</v>
       </c>
       <c r="AR57" t="s" s="2">
         <v>81</v>
@@ -9282,21 +9267,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
@@ -9308,15 +9293,17 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -9353,31 +9340,31 @@
         <v>81</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>81</v>
@@ -9386,7 +9373,7 @@
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -9406,21 +9393,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
@@ -9429,19 +9416,19 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>138</v>
+        <v>437</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>139</v>
+        <v>488</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>211</v>
+        <v>489</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>141</v>
+        <v>490</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9479,31 +9466,31 @@
         <v>81</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>215</v>
+        <v>491</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>81</v>
+        <v>492</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>81</v>
@@ -9512,7 +9499,7 @@
         <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>209</v>
+        <v>493</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9521,21 +9508,21 @@
         <v>81</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>81</v>
+        <v>494</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR59" t="s" s="2">
-        <v>81</v>
+        <v>495</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9546,7 +9533,7 @@
         <v>82</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>81</v>
@@ -9555,25 +9542,27 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="R60" t="s" s="2">
         <v>81</v>
       </c>
@@ -9617,19 +9606,19 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>81</v>
@@ -9638,7 +9627,7 @@
         <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9647,21 +9636,21 @@
         <v>81</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR60" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9672,7 +9661,7 @@
         <v>82</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
@@ -9681,27 +9670,23 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>442</v>
+        <v>192</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q61" t="s" s="2">
-        <v>504</v>
-      </c>
+      <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9721,13 +9706,13 @@
         <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>81</v>
+        <v>471</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>81</v>
+        <v>508</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>81</v>
+        <v>509</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
@@ -9751,45 +9736,45 @@
         <v>82</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>496</v>
+        <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>81</v>
+        <v>510</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>81</v>
+        <v>512</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>507</v>
+        <v>81</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>81</v>
+        <v>513</v>
       </c>
       <c r="AR61" t="s" s="2">
-        <v>508</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9800,7 +9785,7 @@
         <v>82</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
@@ -9812,16 +9797,20 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9845,13 +9834,13 @@
         <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>240</v>
+        <v>471</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
@@ -9869,31 +9858,31 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
@@ -9902,7 +9891,7 @@
         <v>81</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="AR62" t="s" s="2">
         <v>81</v>
@@ -9910,10 +9899,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9924,7 +9913,7 @@
         <v>82</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9936,20 +9925,16 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>191</v>
+        <v>523</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9973,13 +9958,13 @@
         <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>523</v>
+        <v>81</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>524</v>
+        <v>81</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>81</v>
@@ -9997,31 +9982,31 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>514</v>
+        <v>254</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>515</v>
+        <v>255</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>514</v>
+        <v>256</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
@@ -10030,7 +10015,7 @@
         <v>81</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AR63" t="s" s="2">
         <v>81</v>
@@ -10038,10 +10023,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10052,7 +10037,7 @@
         <v>82</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
@@ -10064,15 +10049,17 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>530</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>531</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>81</v>
@@ -10121,31 +10108,31 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>258</v>
+        <v>532</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>259</v>
+        <v>533</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>260</v>
+        <v>534</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
@@ -10154,140 +10141,14 @@
         <v>81</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="AR64" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL65" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ65" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AR65" t="s" s="2">
-        <v>540</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR65">
+  <autoFilter ref="A1:AR64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10297,7 +10158,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI64">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="538">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1-beta</t>
+    <t>0.1.2-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-05T09:18:04-06:00</t>
+    <t>2023-01-10T07:11:45-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -293,6 +293,10 @@
     <t>*</t>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <t>A reference to a document</t>
   </si>
   <si>
@@ -806,7 +810,7 @@
     <t>DocumentEntry.class</t>
   </si>
   <si>
-    <t>clinical-note</t>
+    <t>`clinical-note`</t>
   </si>
   <si>
     <t>DocumentReference.subject</t>
@@ -1226,7 +1230,7 @@
     <t>ED.2+ED.3/RP.2+RP.3. Note conversion may be needed if old style values are being used</t>
   </si>
   <si>
-    <t>text</t>
+    <t>`text`</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.language</t>
@@ -2243,16 +2247,16 @@
         <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2317,16 +2321,16 @@
         <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>81</v>
@@ -2338,15 +2342,15 @@
         <v>81</v>
       </c>
       <c r="AR2" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2357,7 +2361,7 @@
         <v>82</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>81</v>
@@ -2366,19 +2370,19 @@
         <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2428,13 +2432,13 @@
         <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>81</v>
@@ -2469,10 +2473,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2483,7 +2487,7 @@
         <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>81</v>
@@ -2492,16 +2496,16 @@
         <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2552,19 +2556,19 @@
         <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>81</v>
@@ -2593,10 +2597,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2607,28 +2611,28 @@
         <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2678,19 +2682,19 @@
         <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>81</v>
@@ -2719,10 +2723,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2733,7 +2737,7 @@
         <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>81</v>
@@ -2745,16 +2749,16 @@
         <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2780,13 +2784,13 @@
         <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>81</v>
@@ -2804,19 +2808,19 @@
         <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>81</v>
@@ -2845,21 +2849,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>81</v>
@@ -2871,16 +2875,16 @@
         <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2930,19 +2934,19 @@
         <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>81</v>
@@ -2951,7 +2955,7 @@
         <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>81</v>
@@ -2971,14 +2975,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2997,16 +3001,16 @@
         <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3056,7 +3060,7 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>82</v>
@@ -3077,7 +3081,7 @@
         <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>81</v>
@@ -3097,14 +3101,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3123,16 +3127,16 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3182,7 +3186,7 @@
         <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>82</v>
@@ -3194,7 +3198,7 @@
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>81</v>
@@ -3203,7 +3207,7 @@
         <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>81</v>
@@ -3223,14 +3227,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3243,25 +3247,25 @@
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>81</v>
@@ -3310,7 +3314,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>82</v>
@@ -3322,7 +3326,7 @@
         <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -3331,7 +3335,7 @@
         <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>81</v>
@@ -3351,10 +3355,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3365,7 +3369,7 @@
         <v>82</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>81</v>
@@ -3374,22 +3378,22 @@
         <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>81</v>
@@ -3438,40 +3442,40 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AR11" t="s" s="2">
         <v>81</v>
@@ -3479,10 +3483,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3490,28 +3494,28 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3562,7 +3566,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>82</v>
@@ -3574,39 +3578,39 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AR12" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3614,31 +3618,31 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3664,11 +3668,11 @@
         <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>81</v>
@@ -3686,51 +3690,51 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AQ13" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AR13" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3741,7 +3745,7 @@
         <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>81</v>
@@ -3750,19 +3754,19 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3788,13 +3792,13 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>81</v>
@@ -3812,37 +3816,37 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AQ14" t="s" s="2">
         <v>81</v>
@@ -3853,10 +3857,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3864,31 +3868,31 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3914,13 +3918,13 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3938,40 +3942,40 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AR15" t="s" s="2">
         <v>81</v>
@@ -3979,10 +3983,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3993,7 +3997,7 @@
         <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -4005,13 +4009,13 @@
         <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4062,13 +4066,13 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
@@ -4083,7 +4087,7 @@
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -4103,14 +4107,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4129,16 +4133,16 @@
         <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4176,19 +4180,19 @@
         <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>82</v>
@@ -4200,7 +4204,7 @@
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
@@ -4209,7 +4213,7 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -4229,10 +4233,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4252,22 +4256,22 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -4316,7 +4320,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>82</v>
@@ -4328,7 +4332,7 @@
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
@@ -4337,7 +4341,7 @@
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -4346,21 +4350,21 @@
         <v>81</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4371,7 +4375,7 @@
         <v>82</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
@@ -4380,22 +4384,22 @@
         <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -4444,19 +4448,19 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>81</v>
@@ -4465,7 +4469,7 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4474,53 +4478,53 @@
         <v>81</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4546,13 +4550,13 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
@@ -4570,7 +4574,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>82</v>
@@ -4582,39 +4586,39 @@
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AR20" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4622,28 +4626,28 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4694,83 +4698,83 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AR21" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4820,34 +4824,34 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>81</v>
@@ -4856,15 +4860,15 @@
         <v>81</v>
       </c>
       <c r="AR22" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4878,25 +4882,25 @@
         <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4946,7 +4950,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>82</v>
@@ -4958,39 +4962,39 @@
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AR23" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5001,7 +5005,7 @@
         <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -5013,16 +5017,16 @@
         <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5072,51 +5076,51 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AR24" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5127,7 +5131,7 @@
         <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -5139,16 +5143,16 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5198,28 +5202,28 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -5239,10 +5243,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5262,19 +5266,19 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5324,7 +5328,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>82</v>
@@ -5336,16 +5340,16 @@
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -5357,7 +5361,7 @@
         <v>81</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AR26" t="s" s="2">
         <v>81</v>
@@ -5365,10 +5369,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5379,7 +5383,7 @@
         <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>81</v>
@@ -5391,13 +5395,13 @@
         <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5448,13 +5452,13 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
@@ -5469,7 +5473,7 @@
         <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5489,14 +5493,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5515,16 +5519,16 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5574,7 +5578,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>82</v>
@@ -5586,7 +5590,7 @@
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
@@ -5595,7 +5599,7 @@
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5615,14 +5619,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5635,25 +5639,25 @@
         <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5702,7 +5706,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>82</v>
@@ -5714,7 +5718,7 @@
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
@@ -5723,7 +5727,7 @@
         <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5743,10 +5747,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5754,10 +5758,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5766,19 +5770,19 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5804,13 +5808,13 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5828,28 +5832,28 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5861,7 +5865,7 @@
         <v>81</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AR30" t="s" s="2">
         <v>81</v>
@@ -5869,10 +5873,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5880,10 +5884,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5892,16 +5896,16 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5952,28 +5956,28 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5985,7 +5989,7 @@
         <v>81</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AR31" t="s" s="2">
         <v>81</v>
@@ -5993,10 +5997,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6007,7 +6011,7 @@
         <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -6016,22 +6020,22 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -6080,19 +6084,19 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
@@ -6101,7 +6105,7 @@
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -6110,10 +6114,10 @@
         <v>81</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AR32" t="s" s="2">
         <v>81</v>
@@ -6121,10 +6125,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6144,22 +6148,22 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -6184,13 +6188,13 @@
         <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>81</v>
@@ -6208,7 +6212,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>82</v>
@@ -6220,28 +6224,28 @@
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AR33" t="s" s="2">
         <v>81</v>
@@ -6249,10 +6253,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6260,28 +6264,28 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6332,10 +6336,10 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>83</v>
@@ -6344,16 +6348,16 @@
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -6373,10 +6377,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6387,7 +6391,7 @@
         <v>82</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
@@ -6399,13 +6403,13 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6456,13 +6460,13 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
@@ -6477,7 +6481,7 @@
         <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6497,14 +6501,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6523,16 +6527,16 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6582,7 +6586,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
@@ -6594,7 +6598,7 @@
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
@@ -6603,7 +6607,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6623,14 +6627,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6643,25 +6647,25 @@
         <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6710,7 +6714,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
@@ -6722,7 +6726,7 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
@@ -6731,7 +6735,7 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6751,10 +6755,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6762,28 +6766,28 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6834,40 +6838,40 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AR38" t="s" s="2">
         <v>81</v>
@@ -6875,10 +6879,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6889,7 +6893,7 @@
         <v>82</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6901,13 +6905,13 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6958,13 +6962,13 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
@@ -6979,7 +6983,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6999,14 +7003,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7025,16 +7029,16 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7072,19 +7076,19 @@
         <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>82</v>
@@ -7096,7 +7100,7 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
@@ -7105,7 +7109,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -7125,10 +7129,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7136,32 +7140,32 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -7174,7 +7178,7 @@
         <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>81</v>
@@ -7186,13 +7190,13 @@
         <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
@@ -7210,19 +7214,19 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
@@ -7231,7 +7235,7 @@
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -7240,21 +7244,21 @@
         <v>81</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AQ41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR41" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7265,7 +7269,7 @@
         <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -7274,20 +7278,20 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -7300,7 +7304,7 @@
         <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>81</v>
@@ -7312,13 +7316,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -7336,19 +7340,19 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
@@ -7357,7 +7361,7 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7377,10 +7381,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7391,10 +7395,10 @@
         <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>81</v>
@@ -7403,19 +7407,19 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7464,19 +7468,19 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
@@ -7485,7 +7489,7 @@
         <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7494,21 +7498,21 @@
         <v>81</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AQ43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR43" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7519,31 +7523,31 @@
         <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7556,7 +7560,7 @@
         <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>81</v>
@@ -7592,19 +7596,19 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
@@ -7613,7 +7617,7 @@
         <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7622,7 +7626,7 @@
         <v>81</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AQ44" t="s" s="2">
         <v>81</v>
@@ -7633,10 +7637,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7647,7 +7651,7 @@
         <v>82</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -7656,22 +7660,22 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7720,19 +7724,19 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
@@ -7741,7 +7745,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7756,15 +7760,15 @@
         <v>81</v>
       </c>
       <c r="AR45" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7775,7 +7779,7 @@
         <v>82</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -7784,22 +7788,22 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7848,19 +7852,19 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
@@ -7869,7 +7873,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7884,15 +7888,15 @@
         <v>81</v>
       </c>
       <c r="AR46" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7903,7 +7907,7 @@
         <v>82</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
@@ -7912,20 +7916,20 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7938,7 +7942,7 @@
         <v>81</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>81</v>
@@ -7974,19 +7978,19 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>81</v>
@@ -7995,7 +7999,7 @@
         <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -8010,15 +8014,15 @@
         <v>81</v>
       </c>
       <c r="AR47" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8029,7 +8033,7 @@
         <v>82</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
@@ -8038,20 +8042,20 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -8100,19 +8104,19 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
@@ -8121,7 +8125,7 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -8136,15 +8140,15 @@
         <v>81</v>
       </c>
       <c r="AR48" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8155,28 +8159,28 @@
         <v>82</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8202,11 +8206,11 @@
         <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
@@ -8224,31 +8228,31 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
@@ -8257,7 +8261,7 @@
         <v>81</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AR49" t="s" s="2">
         <v>81</v>
@@ -8265,10 +8269,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8279,28 +8283,28 @@
         <v>82</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8350,19 +8354,19 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
@@ -8371,7 +8375,7 @@
         <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -8391,10 +8395,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8405,7 +8409,7 @@
         <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
@@ -8417,13 +8421,13 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8474,13 +8478,13 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
@@ -8495,7 +8499,7 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8515,14 +8519,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8541,16 +8545,16 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8600,7 +8604,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
@@ -8612,7 +8616,7 @@
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
@@ -8621,7 +8625,7 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8641,14 +8645,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8661,25 +8665,25 @@
         <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -8728,7 +8732,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>82</v>
@@ -8740,7 +8744,7 @@
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
@@ -8749,7 +8753,7 @@
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8769,10 +8773,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8783,10 +8787,10 @@
         <v>82</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>81</v>
@@ -8795,13 +8799,13 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8852,7 +8856,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>82</v>
@@ -8864,22 +8868,22 @@
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>81</v>
@@ -8893,10 +8897,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8919,16 +8923,16 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8954,13 +8958,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8978,7 +8982,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>82</v>
@@ -8990,16 +8994,16 @@
         <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -9011,7 +9015,7 @@
         <v>81</v>
       </c>
       <c r="AQ55" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AR55" t="s" s="2">
         <v>81</v>
@@ -9019,10 +9023,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9033,25 +9037,25 @@
         <v>82</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9102,31 +9106,31 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -9135,7 +9139,7 @@
         <v>81</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AR56" t="s" s="2">
         <v>81</v>
@@ -9143,10 +9147,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9157,7 +9161,7 @@
         <v>82</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
@@ -9169,13 +9173,13 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9226,13 +9230,13 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
@@ -9247,7 +9251,7 @@
         <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -9267,14 +9271,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9293,16 +9297,16 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9340,19 +9344,19 @@
         <v>81</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>82</v>
@@ -9364,7 +9368,7 @@
         <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>81</v>
@@ -9373,7 +9377,7 @@
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -9393,10 +9397,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9407,7 +9411,7 @@
         <v>82</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
@@ -9416,19 +9420,19 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9478,19 +9482,19 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>81</v>
@@ -9499,7 +9503,7 @@
         <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9508,21 +9512,21 @@
         <v>81</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9533,7 +9537,7 @@
         <v>82</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>81</v>
@@ -9542,26 +9546,26 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q60" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>81</v>
@@ -9606,19 +9610,19 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>81</v>
@@ -9627,7 +9631,7 @@
         <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9636,21 +9640,21 @@
         <v>81</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR60" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9661,7 +9665,7 @@
         <v>82</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
@@ -9673,13 +9677,13 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9706,13 +9710,13 @@
         <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
@@ -9730,31 +9734,31 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>81</v>
@@ -9763,7 +9767,7 @@
         <v>81</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AR61" t="s" s="2">
         <v>81</v>
@@ -9771,10 +9775,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9785,7 +9789,7 @@
         <v>82</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
@@ -9797,19 +9801,19 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9834,13 +9838,13 @@
         <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
@@ -9858,32 +9862,32 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="AN62" t="s" s="2">
-        <v>510</v>
-      </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9891,7 +9895,7 @@
         <v>81</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AR62" t="s" s="2">
         <v>81</v>
@@ -9899,10 +9903,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9913,7 +9917,7 @@
         <v>82</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9925,13 +9929,13 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9982,31 +9986,31 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
@@ -10015,7 +10019,7 @@
         <v>81</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AR63" t="s" s="2">
         <v>81</v>
@@ -10023,10 +10027,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10049,16 +10053,16 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10108,7 +10112,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>82</v>
@@ -10120,19 +10124,19 @@
         <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
@@ -10141,10 +10145,10 @@
         <v>81</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AR64" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T07:11:45-06:00</t>
+    <t>2023-01-10T08:15:50-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$65</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="542">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2-beta</t>
+    <t>0.1.3-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T08:15:50-06:00</t>
+    <t>2023-01-11T06:10:13-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -300,10 +300,7 @@
     <t>A reference to a document</t>
   </si>
   <si>
-    <t>This is a basic constraint on DocumentRefernce for use in the US Core IG.</t>
-  </si>
-  <si>
-    <t>Usually, this is used for documents other than those defined by FHIR.</t>
+    <t>\-</t>
   </si>
   <si>
     <t>Event</t>
@@ -789,28 +786,44 @@
     <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
   </si>
   <si>
-    <t>extensible</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>High-level kind of a clinical document at a macro level.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>Composition.class</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>Derived from a mapping of /ClinicalDocument/code/@code to an Affinity Domain specified coded value to use and coding system. Affinity Domains are encouraged to use the appropriate value for Type of Service, based on the LOINC Type of Service (see Page 53 of the LOINC User's Manual). Must be consistent with /ClinicalDocument/code/@code</t>
+  </si>
+  <si>
+    <t>DocumentEntry.class</t>
+  </si>
+  <si>
+    <t>`clinical-note`</t>
+  </si>
+  <si>
+    <t>DocumentReference.category:us-core</t>
+  </si>
+  <si>
+    <t>us-core</t>
   </si>
   <si>
     <t>The US Core DocumentReferences Type Value Set is a &amp;#39;starter set&amp;#39; of categories supported for fetching and storing clinical notes.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-category</t>
-  </si>
-  <si>
-    <t>Composition.class</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>Derived from a mapping of /ClinicalDocument/code/@code to an Affinity Domain specified coded value to use and coding system. Affinity Domains are encouraged to use the appropriate value for Type of Service, based on the LOINC Type of Service (see Page 53 of the LOINC User's Manual). Must be consistent with /ClinicalDocument/code/@code</t>
-  </si>
-  <si>
-    <t>DocumentEntry.class</t>
-  </si>
-  <si>
-    <t>`clinical-note`</t>
   </si>
   <si>
     <t>DocumentReference.subject</t>
@@ -888,7 +901,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson|Device)
 </t>
   </si>
   <si>
@@ -1118,6 +1131,9 @@
     <t>Use of the Health Care Privacy/Security Classification (HCS) system of security-tag use is recommended.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
@@ -1177,7 +1193,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-6:DocumentReference.content.attachment.url or  DocumentReference.content.attachment.data or both SHALL be present. {url.exists() or data.exists()}</t>
+us-core-6:DocumentReference.content.attachment.url or DocumentReference.content.attachment.data or both SHALL be present. {url.exists() or data.exists()}</t>
   </si>
   <si>
     <t>Composition.language, 
@@ -1498,9 +1514,6 @@
   </si>
   <si>
     <t>An event can further specialize the act inherent in the type, such as  where it is simply "Procedure Report" and the procedure was a "colonoscopy". If one or more event codes are included, they shall not conflict with the values inherent in the class or type elements as such a conflict would create an ambiguous situation.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>This list of codes represents the main clinical acts being documented.</t>
@@ -2031,7 +2044,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR64"/>
+  <dimension ref="A1:AR65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2256,7 +2269,7 @@
         <v>86</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2321,36 +2334,36 @@
         <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AN2" t="s" s="2">
+      <c r="AO2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR2" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AO2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AR2" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2361,28 +2374,28 @@
         <v>82</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2432,13 +2445,13 @@
         <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>81</v>
@@ -2473,10 +2486,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2487,25 +2500,25 @@
         <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2556,19 +2569,19 @@
         <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>81</v>
@@ -2597,10 +2610,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2611,28 +2624,28 @@
         <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2682,19 +2695,19 @@
         <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>81</v>
@@ -2723,10 +2736,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2737,7 +2750,7 @@
         <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>81</v>
@@ -2749,16 +2762,16 @@
         <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2784,43 +2797,43 @@
         <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>81</v>
@@ -2849,21 +2862,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>81</v>
@@ -2875,16 +2888,16 @@
         <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2934,28 +2947,28 @@
         <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>81</v>
@@ -2975,14 +2988,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3001,16 +3014,16 @@
         <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3060,7 +3073,7 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>82</v>
@@ -3081,7 +3094,7 @@
         <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>81</v>
@@ -3101,14 +3114,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3127,16 +3140,16 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3186,7 +3199,7 @@
         <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>82</v>
@@ -3198,7 +3211,7 @@
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>81</v>
@@ -3207,7 +3220,7 @@
         <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>81</v>
@@ -3227,14 +3240,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3247,25 +3260,25 @@
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>81</v>
@@ -3314,7 +3327,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>82</v>
@@ -3326,7 +3339,7 @@
         <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -3335,7 +3348,7 @@
         <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>81</v>
@@ -3355,10 +3368,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3369,31 +3382,31 @@
         <v>82</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>81</v>
@@ -3442,40 +3455,40 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AO11" t="s" s="2">
+      <c r="AP11" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AP11" t="s" s="2">
+      <c r="AQ11" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AQ11" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AR11" t="s" s="2">
         <v>81</v>
@@ -3483,10 +3496,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3494,28 +3507,28 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3566,7 +3579,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>82</v>
@@ -3578,39 +3591,39 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AP12" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AN12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AP12" t="s" s="2">
+      <c r="AQ12" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AQ12" t="s" s="2">
+      <c r="AR12" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AR12" t="s" s="2">
-        <v>170</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3618,31 +3631,31 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="I13" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3668,73 +3681,73 @@
         <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AN13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO13" t="s" s="2">
+      <c r="AP13" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AP13" t="s" s="2">
+      <c r="AQ13" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AQ13" t="s" s="2">
+      <c r="AR13" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AR13" t="s" s="2">
-        <v>182</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3745,28 +3758,28 @@
         <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K14" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3792,61 +3805,61 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Z14" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Z14" t="s" s="2">
+      <c r="AA14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AP14" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AQ14" t="s" s="2">
         <v>81</v>
@@ -3857,10 +3870,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3868,31 +3881,31 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H15" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="I15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K15" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3918,64 +3931,64 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AO15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AP15" t="s" s="2">
+      <c r="AQ15" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AQ15" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AR15" t="s" s="2">
         <v>81</v>
@@ -3983,10 +3996,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3997,7 +4010,7 @@
         <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -4009,13 +4022,13 @@
         <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4066,28 +4079,28 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -4107,14 +4120,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4133,16 +4146,16 @@
         <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="M17" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4180,19 +4193,19 @@
         <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AC17" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AC17" t="s" s="2">
+      <c r="AD17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AD17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>82</v>
@@ -4204,7 +4217,7 @@
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
@@ -4213,7 +4226,7 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -4233,10 +4246,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4256,22 +4269,22 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -4320,7 +4333,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>82</v>
@@ -4332,7 +4345,7 @@
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
@@ -4341,30 +4354,30 @@
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP18" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AN18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP18" t="s" s="2">
+      <c r="AQ18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR18" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AQ18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AR18" t="s" s="2">
-        <v>227</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4375,31 +4388,31 @@
         <v>82</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -4448,83 +4461,83 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP19" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AN19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP19" t="s" s="2">
+      <c r="AQ19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR19" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AQ19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AR19" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4550,31 +4563,29 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="Z20" t="s" s="2">
+      <c r="AA20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB20" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AA20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>81</v>
-      </c>
+      <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>82</v>
@@ -4586,7 +4597,7 @@
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
@@ -4601,7 +4612,7 @@
         <v>247</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>81</v>
@@ -4618,38 +4629,42 @@
         <v>250</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="D21" t="s" s="2">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H21" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="I21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4674,13 +4689,13 @@
         <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>81</v>
@@ -4698,84 +4713,82 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>258</v>
+        <v>202</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AR21" t="s" s="2">
-        <v>261</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H22" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="I22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4824,83 +4837,83 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>271</v>
-      </c>
       <c r="AP22" t="s" s="2">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="AR22" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4950,51 +4963,51 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="AM23" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>283</v>
+        <v>81</v>
       </c>
       <c r="AR23" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5005,28 +5018,28 @@
         <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5076,51 +5089,51 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="AO24" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AR24" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5131,7 +5144,7 @@
         <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -5143,16 +5156,16 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5202,51 +5215,51 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AP25" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="AR25" t="s" s="2">
-        <v>81</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5257,7 +5270,7 @@
         <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
@@ -5266,19 +5279,19 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5328,28 +5341,28 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -5361,7 +5374,7 @@
         <v>81</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="AR26" t="s" s="2">
         <v>81</v>
@@ -5369,10 +5382,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5383,27 +5396,29 @@
         <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K27" t="s" s="2">
-        <v>207</v>
+        <v>309</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>208</v>
+        <v>310</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -5452,28 +5467,28 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>210</v>
+        <v>308</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>81</v>
+        <v>313</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>211</v>
+        <v>314</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5485,7 +5500,7 @@
         <v>81</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="AR27" t="s" s="2">
         <v>81</v>
@@ -5493,21 +5508,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
@@ -5519,17 +5534,15 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -5578,19 +5591,19 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
@@ -5599,7 +5612,7 @@
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5619,14 +5632,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>315</v>
+        <v>138</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5639,26 +5652,24 @@
         <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>317</v>
+        <v>212</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5706,7 +5717,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>318</v>
+        <v>216</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>82</v>
@@ -5718,7 +5729,7 @@
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
@@ -5727,7 +5738,7 @@
         <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5747,33 +5758,33 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="J30" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K30" t="s" s="2">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>320</v>
@@ -5782,9 +5793,11 @@
         <v>321</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5808,13 +5821,13 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5832,28 +5845,28 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>326</v>
+        <v>136</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5865,7 +5878,7 @@
         <v>81</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>327</v>
+        <v>81</v>
       </c>
       <c r="AR30" t="s" s="2">
         <v>81</v>
@@ -5873,10 +5886,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5884,30 +5897,32 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>329</v>
+        <v>113</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5932,13 +5947,13 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>81</v>
@@ -5956,28 +5971,28 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5989,7 +6004,7 @@
         <v>81</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AR31" t="s" s="2">
         <v>81</v>
@@ -5997,10 +6012,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6008,35 +6023,31 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K32" t="s" s="2">
-        <v>207</v>
+        <v>333</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
       </c>
@@ -6084,28 +6095,28 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>81</v>
+        <v>336</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -6114,10 +6125,10 @@
         <v>81</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>341</v>
+        <v>81</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AR32" t="s" s="2">
         <v>81</v>
@@ -6125,10 +6136,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6139,7 +6150,7 @@
         <v>82</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -6148,22 +6159,22 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -6188,13 +6199,13 @@
         <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>242</v>
+        <v>81</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>349</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>81</v>
@@ -6212,40 +6223,40 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="AR33" t="s" s="2">
         <v>81</v>
@@ -6253,10 +6264,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6264,31 +6275,35 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>305</v>
+        <v>192</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
@@ -6312,13 +6327,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>81</v>
+        <v>352</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>81</v>
+        <v>354</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -6336,10 +6351,10 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>83</v>
@@ -6348,28 +6363,28 @@
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AO34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP34" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AQ34" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ34" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR34" t="s" s="2">
         <v>81</v>
@@ -6388,28 +6403,28 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H35" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>207</v>
+        <v>309</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>208</v>
+        <v>361</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>209</v>
+        <v>362</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6460,28 +6475,28 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>81</v>
+        <v>363</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>211</v>
+        <v>364</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6501,21 +6516,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -6527,17 +6542,15 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6586,19 +6599,19 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
@@ -6607,7 +6620,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6627,14 +6640,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>315</v>
+        <v>138</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6647,26 +6660,24 @@
         <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="M37" t="s" s="2">
-        <v>317</v>
+        <v>212</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6714,7 +6725,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>216</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
@@ -6726,7 +6737,7 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
@@ -6735,7 +6746,7 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6755,42 +6766,46 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="J38" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H38" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K38" t="s" s="2">
-        <v>364</v>
+        <v>139</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6838,40 +6853,40 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>367</v>
+        <v>144</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>368</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>359</v>
+        <v>136</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>369</v>
+        <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>371</v>
+        <v>81</v>
       </c>
       <c r="AR38" t="s" s="2">
         <v>81</v>
@@ -6879,10 +6894,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6890,28 +6905,28 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H39" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>207</v>
+        <v>369</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>208</v>
+        <v>370</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>209</v>
+        <v>371</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6962,40 +6977,40 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>210</v>
+        <v>368</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>373</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>211</v>
+        <v>364</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>81</v>
+        <v>375</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="AR39" t="s" s="2">
         <v>81</v>
@@ -7003,21 +7018,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>81</v>
@@ -7029,17 +7044,15 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -7076,31 +7089,31 @@
         <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
@@ -7109,7 +7122,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -7129,44 +7142,44 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>375</v>
+        <v>140</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -7178,7 +7191,7 @@
         <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>81</v>
@@ -7190,43 +7203,43 @@
         <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>379</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>380</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>381</v>
+        <v>216</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
@@ -7235,7 +7248,7 @@
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>382</v>
+        <v>210</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -7244,21 +7257,21 @@
         <v>81</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="AQ41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR41" t="s" s="2">
-        <v>384</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7269,29 +7282,29 @@
         <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H42" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -7304,87 +7317,87 @@
         <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP42" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AQ42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR42" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AR42" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7395,31 +7408,29 @@
         <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K43" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7432,7 +7443,7 @@
         <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>81</v>
+        <v>394</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>81</v>
@@ -7444,13 +7455,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -7468,19 +7479,19 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>399</v>
+        <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
@@ -7489,7 +7500,7 @@
         <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7498,21 +7509,21 @@
         <v>81</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>401</v>
+        <v>81</v>
       </c>
       <c r="AQ43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR43" t="s" s="2">
-        <v>402</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7523,31 +7534,31 @@
         <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H44" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H44" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="I44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7560,7 +7571,7 @@
         <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>81</v>
@@ -7596,19 +7607,19 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
@@ -7617,7 +7628,7 @@
         <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7626,21 +7637,21 @@
         <v>81</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AQ44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR44" t="s" s="2">
-        <v>81</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7651,31 +7662,31 @@
         <v>82</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H45" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7688,7 +7699,7 @@
         <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>81</v>
@@ -7724,19 +7735,19 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
@@ -7745,7 +7756,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7754,21 +7765,21 @@
         <v>81</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>81</v>
+        <v>417</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR45" t="s" s="2">
-        <v>421</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7779,31 +7790,31 @@
         <v>82</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K46" t="s" s="2">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O46" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7852,19 +7863,19 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
@@ -7873,7 +7884,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7888,15 +7899,15 @@
         <v>81</v>
       </c>
       <c r="AR46" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7907,29 +7918,31 @@
         <v>82</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K47" t="s" s="2">
-        <v>207</v>
+        <v>398</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7942,65 +7955,65 @@
         <v>81</v>
       </c>
       <c r="T47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="U47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>435</v>
-      </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
       </c>
@@ -8014,15 +8027,15 @@
         <v>81</v>
       </c>
       <c r="AR47" t="s" s="2">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8033,29 +8046,29 @@
         <v>82</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K48" t="s" s="2">
-        <v>438</v>
+        <v>206</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -8068,7 +8081,7 @@
         <v>81</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>81</v>
+        <v>438</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>81</v>
@@ -8104,19 +8117,19 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
@@ -8125,7 +8138,7 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -8140,15 +8153,15 @@
         <v>81</v>
       </c>
       <c r="AR48" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8159,30 +8172,30 @@
         <v>82</v>
       </c>
       <c r="G49" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J49" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H49" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K49" t="s" s="2">
-        <v>219</v>
+        <v>443</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="N49" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
@@ -8206,73 +8219,75 @@
         <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR49" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ49" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AR49" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8283,28 +8298,28 @@
         <v>82</v>
       </c>
       <c r="G50" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H50" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H50" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="I50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>305</v>
+        <v>218</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8330,13 +8345,11 @@
         <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
@@ -8354,40 +8367,40 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>81</v>
+        <v>454</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ50" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ50" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR50" t="s" s="2">
         <v>81</v>
@@ -8409,27 +8422,29 @@
         <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H51" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H51" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>207</v>
+        <v>309</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>208</v>
+        <v>458</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -8478,19 +8493,19 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>210</v>
+        <v>457</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
@@ -8499,7 +8514,7 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>211</v>
+        <v>461</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8519,21 +8534,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>81</v>
@@ -8545,17 +8560,15 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8604,19 +8617,19 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
@@ -8625,7 +8638,7 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8645,14 +8658,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>315</v>
+        <v>138</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8665,26 +8678,24 @@
         <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="M53" t="s" s="2">
-        <v>317</v>
+        <v>212</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8732,7 +8743,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>318</v>
+        <v>216</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>82</v>
@@ -8744,7 +8755,7 @@
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
@@ -8753,7 +8764,7 @@
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8773,42 +8784,46 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H54" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>461</v>
+        <v>139</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>462</v>
+        <v>320</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
       </c>
@@ -8856,7 +8871,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>460</v>
+        <v>322</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>82</v>
@@ -8868,22 +8883,22 @@
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>464</v>
+        <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>465</v>
+        <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>466</v>
+        <v>136</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>467</v>
+        <v>81</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>81</v>
@@ -8897,10 +8912,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8911,10 +8926,10 @@
         <v>82</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>81</v>
@@ -8923,17 +8938,15 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>193</v>
+        <v>466</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8958,13 +8971,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>472</v>
+        <v>81</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>473</v>
+        <v>81</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>474</v>
+        <v>81</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8982,7 +8995,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>82</v>
@@ -8994,28 +9007,28 @@
         <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>81</v>
+        <v>469</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>81</v>
+        <v>472</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ55" t="s" s="2">
-        <v>477</v>
+        <v>81</v>
       </c>
       <c r="AR55" t="s" s="2">
         <v>81</v>
@@ -9023,10 +9036,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9037,27 +9050,29 @@
         <v>82</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>479</v>
+        <v>192</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -9082,13 +9097,13 @@
         <v>81</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>81</v>
+        <v>477</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>81</v>
+        <v>478</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>81</v>
@@ -9106,31 +9121,31 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>484</v>
+        <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -9139,7 +9154,7 @@
         <v>81</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AR56" t="s" s="2">
         <v>81</v>
@@ -9147,10 +9162,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9161,25 +9176,25 @@
         <v>82</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H57" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H57" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>207</v>
+        <v>483</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>208</v>
+        <v>484</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>209</v>
+        <v>485</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9230,31 +9245,31 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>210</v>
+        <v>482</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>81</v>
+        <v>486</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>211</v>
+        <v>487</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>81</v>
+        <v>488</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>81</v>
@@ -9263,7 +9278,7 @@
         <v>81</v>
       </c>
       <c r="AQ57" t="s" s="2">
-        <v>81</v>
+        <v>489</v>
       </c>
       <c r="AR57" t="s" s="2">
         <v>81</v>
@@ -9271,21 +9286,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
@@ -9297,17 +9312,15 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -9344,31 +9357,31 @@
         <v>81</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>81</v>
@@ -9377,7 +9390,7 @@
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -9397,21 +9410,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
@@ -9420,19 +9433,19 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>438</v>
+        <v>139</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>489</v>
+        <v>140</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>490</v>
+        <v>212</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>491</v>
+        <v>142</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9470,31 +9483,31 @@
         <v>81</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>492</v>
+        <v>216</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>493</v>
+        <v>81</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>81</v>
@@ -9503,7 +9516,7 @@
         <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>494</v>
+        <v>210</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9512,21 +9525,21 @@
         <v>81</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>495</v>
+        <v>81</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR59" t="s" s="2">
-        <v>496</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9537,36 +9550,34 @@
         <v>82</v>
       </c>
       <c r="G60" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J60" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K60" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q60" t="s" s="2">
-        <v>501</v>
-      </c>
+      <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
         <v>81</v>
       </c>
@@ -9610,19 +9621,19 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>81</v>
@@ -9631,7 +9642,7 @@
         <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9640,21 +9651,21 @@
         <v>81</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR60" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9665,32 +9676,36 @@
         <v>82</v>
       </c>
       <c r="G61" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J61" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K61" t="s" s="2">
-        <v>193</v>
+        <v>443</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="R61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9710,13 +9725,13 @@
         <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>472</v>
+        <v>81</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>509</v>
+        <v>81</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>510</v>
+        <v>81</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>81</v>
@@ -9740,45 +9755,45 @@
         <v>82</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>81</v>
+        <v>497</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>511</v>
+        <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>513</v>
+        <v>81</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>81</v>
+        <v>508</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>514</v>
+        <v>81</v>
       </c>
       <c r="AR61" t="s" s="2">
-        <v>81</v>
+        <v>509</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9789,7 +9804,7 @@
         <v>82</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
@@ -9801,20 +9816,16 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9838,13 +9849,13 @@
         <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>472</v>
+        <v>241</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
@@ -9862,31 +9873,31 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>511</v>
-      </c>
       <c r="AM62" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
@@ -9895,7 +9906,7 @@
         <v>81</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="AR62" t="s" s="2">
         <v>81</v>
@@ -9903,10 +9914,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9917,7 +9928,7 @@
         <v>82</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9929,16 +9940,20 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>524</v>
+        <v>192</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9962,13 +9977,13 @@
         <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>81</v>
+        <v>524</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>81</v>
+        <v>525</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>81</v>
@@ -9986,31 +10001,31 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>255</v>
+        <v>515</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>256</v>
+        <v>516</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>257</v>
+        <v>515</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
@@ -10019,7 +10034,7 @@
         <v>81</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AR63" t="s" s="2">
         <v>81</v>
@@ -10027,10 +10042,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10041,7 +10056,7 @@
         <v>82</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
@@ -10053,17 +10068,15 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>532</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>81</v>
@@ -10112,47 +10125,173 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH64" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ64" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AR64" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G65" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AI64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL64" t="s" s="2">
+      <c r="H65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AO64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ64" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AR64" t="s" s="2">
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>537</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ65" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AR65" t="s" s="2">
+        <v>541</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR64">
+  <autoFilter ref="A1:AR65">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10162,7 +10301,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI64">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T06:10:13-06:00</t>
+    <t>2023-02-02T16:50:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the DocumentReference resource for MHV PHR exposing Notes using FHIR API.
+    <t>A profile on the DocumentReference resource for MHV PHR exposing Notes (NoteTO) using FHIR API.
 - The mock example maps best to VIA_v4.0.7_uat.wsdl. 
 - based on US-Core for Clinical Notes
 TODO Questions:

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3-beta</t>
+    <t>0.1.4-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T16:50:30-06:00</t>
+    <t>2023-02-03T09:54:41-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T09:54:41-06:00</t>
+    <t>2023-02-21T15:24:44-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4-beta</t>
+    <t>0.1.5-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T15:24:44-06:00</t>
+    <t>2023-02-23T08:24:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:24:10-06:00</t>
+    <t>2023-02-23T08:47:22-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:47:22-06:00</t>
+    <t>2023-03-05T12:38:40-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="604">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5-beta</t>
+    <t>0.1.6-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T12:38:40-06:00</t>
+    <t>2023-03-23T11:34:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -554,6 +554,13 @@
     <t>Other identifiers associated with the document, including version independent identifiers.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:use}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>.id / .setId</t>
   </si>
   <si>
@@ -564,6 +571,236 @@
   </si>
   <si>
     <t>NoteTO.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:TOid</t>
+  </si>
+  <si>
+    <t>TOid</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:TOid.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:TOid.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:TOid.use</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>usual</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:TOid.type</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:TOid.system</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier.system</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.840.1.113883.4.349.4.{stationNbr}</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:TOid.value</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier.value</t>
+  </si>
+  <si>
+    <t>`NoteTO` | `.` | {NoteTO.id}</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:TOid.period</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:TOid.assigner</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
     <t>DocumentReference.status</t>
@@ -579,9 +816,6 @@
 This element is labeled as a modifier because the status contains the codes that mark the document or reference as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/document-reference-status</t>
   </si>
   <si>
@@ -631,10 +865,6 @@
   </si>
   <si>
     <t>DocumentReference.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Kind of document (LOINC if possible)</t>
@@ -677,39 +907,7 @@
     <t>DocumentReference.type.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DocumentReference.type.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>DocumentReference.type.coding</t>
@@ -975,10 +1173,6 @@
     <t>DocumentReference.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
     <t>Organization which maintains the document</t>
   </si>
   <si>
@@ -1129,9 +1323,6 @@
   </si>
   <si>
     <t>Use of the Health Care Privacy/Security Classification (HCS) system of security-tag use is recommended.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
@@ -1532,10 +1723,6 @@
   </si>
   <si>
     <t>DocumentReference.context.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>Time of service that is being documented</t>
@@ -2044,7 +2231,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR65"/>
+  <dimension ref="A1:AR74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2072,7 +2259,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="35.59375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
@@ -3567,16 +3754,14 @@
         <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>163</v>
@@ -3600,7 +3785,7 @@
         <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>81</v>
@@ -3609,23 +3794,25 @@
         <v>160</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AR12" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>81</v>
       </c>
@@ -3640,23 +3827,21 @@
         <v>94</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>81</v>
@@ -3681,11 +3866,13 @@
         <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>81</v>
@@ -3703,13 +3890,13 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>81</v>
@@ -3718,36 +3905,36 @@
         <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="AQ13" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AR13" t="s" s="2">
-        <v>181</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3767,20 +3954,18 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3805,13 +3990,13 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>81</v>
@@ -3829,7 +4014,7 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>82</v>
@@ -3841,25 +4026,25 @@
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>190</v>
+        <v>81</v>
       </c>
       <c r="AQ14" t="s" s="2">
         <v>81</v>
@@ -3870,42 +4055,42 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3931,64 +4116,64 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>196</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="AR15" t="s" s="2">
         <v>81</v>
@@ -3996,10 +4181,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4007,7 +4192,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>93</v>
@@ -4016,22 +4201,26 @@
         <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
       </c>
@@ -4040,7 +4229,7 @@
         <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>81</v>
@@ -4055,13 +4244,13 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -4079,7 +4268,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>82</v>
@@ -4091,7 +4280,7 @@
         <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>81</v>
@@ -4100,7 +4289,7 @@
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -4109,7 +4298,7 @@
         <v>81</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AQ16" t="s" s="2">
         <v>81</v>
@@ -4120,21 +4309,21 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>81</v>
@@ -4143,21 +4332,23 @@
         <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
       </c>
@@ -4181,43 +4372,43 @@
         <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
@@ -4226,16 +4417,16 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP17" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ17" t="s" s="2">
         <v>81</v>
@@ -4246,10 +4437,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4260,7 +4451,7 @@
         <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>81</v>
@@ -4272,19 +4463,19 @@
         <v>94</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -4297,7 +4488,7 @@
         <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>81</v>
@@ -4333,13 +4524,13 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
@@ -4354,7 +4545,7 @@
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -4363,21 +4554,21 @@
         <v>81</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR18" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4400,20 +4591,18 @@
         <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
       </c>
@@ -4425,7 +4614,7 @@
         <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>81</v>
@@ -4461,7 +4650,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>82</v>
@@ -4482,7 +4671,7 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4491,35 +4680,35 @@
         <v>81</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR19" t="s" s="2">
-        <v>235</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="H20" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>81</v>
@@ -4528,17 +4717,15 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>81</v>
@@ -4563,35 +4750,37 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>242</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AC20" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
@@ -4603,49 +4792,47 @@
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>245</v>
+        <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="AR20" t="s" s="2">
-        <v>249</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>81</v>
@@ -4654,16 +4841,16 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4689,13 +4876,13 @@
         <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>81</v>
@@ -4713,13 +4900,13 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
@@ -4731,22 +4918,22 @@
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP21" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AN21" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AQ21" t="s" s="2">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="AR21" t="s" s="2">
         <v>81</v>
@@ -4754,10 +4941,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4774,21 +4961,23 @@
         <v>94</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4813,13 +5002,11 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -4837,10 +5024,10 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>93</v>
@@ -4852,40 +5039,40 @@
         <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>261</v>
+        <v>81</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AR22" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4895,7 +5082,7 @@
         <v>93</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>81</v>
@@ -4904,16 +5091,16 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>268</v>
+        <v>113</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4939,13 +5126,13 @@
         <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>81</v>
@@ -4963,7 +5150,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>82</v>
@@ -4978,36 +5165,36 @@
         <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="AQ23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR23" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5015,10 +5202,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>94</v>
@@ -5030,16 +5217,16 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>278</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5065,13 +5252,13 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
@@ -5089,13 +5276,13 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
@@ -5104,36 +5291,36 @@
         <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="AR24" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5156,17 +5343,15 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>290</v>
+        <v>176</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>291</v>
+        <v>177</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -5215,7 +5400,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>289</v>
+        <v>179</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>82</v>
@@ -5227,50 +5412,50 @@
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>299</v>
+        <v>81</v>
       </c>
       <c r="AR25" t="s" s="2">
-        <v>300</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
@@ -5282,16 +5467,16 @@
         <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>302</v>
+        <v>139</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>303</v>
+        <v>140</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>304</v>
+        <v>183</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>305</v>
+        <v>142</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5329,40 +5514,40 @@
         <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>306</v>
+        <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>307</v>
+        <v>180</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -5382,10 +5567,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5408,18 +5593,20 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5467,7 +5654,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>82</v>
@@ -5485,10 +5672,10 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>313</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5497,21 +5684,21 @@
         <v>81</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="AR27" t="s" s="2">
-        <v>81</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5531,19 +5718,23 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5591,7 +5782,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>209</v>
+        <v>297</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>82</v>
@@ -5603,7 +5794,7 @@
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
@@ -5612,7 +5803,7 @@
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5621,53 +5812,53 @@
         <v>81</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR28" t="s" s="2">
-        <v>81</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>138</v>
+        <v>302</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>140</v>
+        <v>303</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>142</v>
+        <v>305</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5693,31 +5884,29 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>216</v>
+        <v>301</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>82</v>
@@ -5729,43 +5918,45 @@
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>210</v>
+        <v>311</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>81</v>
+        <v>313</v>
       </c>
       <c r="AR29" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="D30" t="s" s="2">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5775,29 +5966,27 @@
         <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5821,13 +6010,13 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>81</v>
+        <v>317</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5845,7 +6034,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>82</v>
@@ -5857,28 +6046,28 @@
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>136</v>
+        <v>311</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>81</v>
+        <v>313</v>
       </c>
       <c r="AR30" t="s" s="2">
         <v>81</v>
@@ -5886,10 +6075,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5903,7 +6092,7 @@
         <v>93</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>81</v>
@@ -5912,17 +6101,15 @@
         <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>113</v>
+        <v>320</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5947,13 +6134,13 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>327</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>328</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>81</v>
@@ -5971,10 +6158,10 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>93</v>
@@ -5986,50 +6173,50 @@
         <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AP31" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AQ31" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AR31" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ31" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AR31" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>81</v>
@@ -6046,7 +6233,9 @@
       <c r="M32" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -6095,10 +6284,10 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>93</v>
@@ -6110,36 +6299,36 @@
         <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>337</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>81</v>
+        <v>340</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>338</v>
+        <v>81</v>
       </c>
       <c r="AR32" t="s" s="2">
-        <v>81</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6150,10 +6339,10 @@
         <v>82</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>81</v>
@@ -6162,20 +6351,18 @@
         <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>206</v>
+        <v>343</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
       </c>
@@ -6223,13 +6410,13 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
@@ -6238,36 +6425,36 @@
         <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>81</v>
+        <v>347</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AR33" t="s" s="2">
-        <v>81</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6278,7 +6465,7 @@
         <v>82</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -6287,23 +6474,21 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>192</v>
+        <v>355</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
@@ -6327,37 +6512,37 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>353</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AA34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>347</v>
-      </c>
       <c r="AG34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
@@ -6366,36 +6551,36 @@
         <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>347</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="AR34" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6403,30 +6588,32 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="H35" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>309</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -6475,13 +6662,13 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AG35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH35" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
@@ -6490,13 +6677,13 @@
         <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>81</v>
+        <v>347</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6516,10 +6703,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6530,7 +6717,7 @@
         <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -6539,18 +6726,20 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>206</v>
+        <v>373</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>207</v>
+        <v>374</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6599,28 +6788,28 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>209</v>
+        <v>372</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>210</v>
+        <v>378</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6632,7 +6821,7 @@
         <v>81</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="AR36" t="s" s="2">
         <v>81</v>
@@ -6640,21 +6829,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -6666,17 +6855,15 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6725,19 +6912,19 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
@@ -6746,7 +6933,7 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6766,14 +6953,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>319</v>
+        <v>138</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6786,26 +6973,24 @@
         <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>320</v>
+        <v>140</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>321</v>
+        <v>183</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="O38" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6853,7 +7038,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>322</v>
+        <v>186</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>82</v>
@@ -6874,7 +7059,7 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6894,42 +7079,46 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>369</v>
+        <v>139</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6977,40 +7166,40 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>372</v>
+        <v>144</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>364</v>
+        <v>136</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>374</v>
+        <v>81</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>375</v>
+        <v>81</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>376</v>
+        <v>81</v>
       </c>
       <c r="AR39" t="s" s="2">
         <v>81</v>
@@ -7018,10 +7207,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7029,7 +7218,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>93</v>
@@ -7041,18 +7230,20 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>207</v>
+        <v>388</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -7077,13 +7268,13 @@
         <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>391</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>392</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -7101,10 +7292,10 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>209</v>
+        <v>387</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>93</v>
@@ -7113,16 +7304,16 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>81</v>
+        <v>393</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>210</v>
+        <v>394</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -7134,7 +7325,7 @@
         <v>81</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="AR40" t="s" s="2">
         <v>81</v>
@@ -7142,21 +7333,21 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -7165,20 +7356,18 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>139</v>
+        <v>397</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>140</v>
+        <v>398</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -7215,40 +7404,40 @@
         <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>216</v>
+        <v>396</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>210</v>
+        <v>401</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -7260,7 +7449,7 @@
         <v>81</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="AR41" t="s" s="2">
         <v>81</v>
@@ -7268,10 +7457,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7285,7 +7474,7 @@
         <v>93</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>81</v>
@@ -7294,17 +7483,19 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -7317,7 +7508,7 @@
         <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>81</v>
@@ -7329,13 +7520,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>385</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -7353,7 +7544,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
@@ -7374,7 +7565,7 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7383,21 +7574,21 @@
         <v>81</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>81</v>
+        <v>410</v>
       </c>
       <c r="AR42" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7408,7 +7599,7 @@
         <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -7420,17 +7611,19 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7443,7 +7636,7 @@
         <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>394</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>81</v>
@@ -7455,13 +7648,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>118</v>
+        <v>416</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>119</v>
+        <v>417</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -7479,13 +7672,13 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
@@ -7497,22 +7690,22 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>81</v>
+        <v>418</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>81</v>
+        <v>420</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>81</v>
+        <v>421</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
       <c r="AR43" t="s" s="2">
         <v>81</v>
@@ -7520,10 +7713,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7531,10 +7724,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>94</v>
@@ -7543,23 +7736,19 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7607,16 +7796,16 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>404</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>105</v>
@@ -7625,10 +7814,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7637,21 +7826,21 @@
         <v>81</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>406</v>
+        <v>81</v>
       </c>
       <c r="AQ44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR44" t="s" s="2">
-        <v>407</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7665,29 +7854,25 @@
         <v>93</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>409</v>
+        <v>176</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>410</v>
+        <v>177</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7699,7 +7884,7 @@
         <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>414</v>
+        <v>81</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>81</v>
@@ -7735,7 +7920,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>415</v>
+        <v>179</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>82</v>
@@ -7744,10 +7929,10 @@
         <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>404</v>
+        <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
@@ -7756,7 +7941,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>416</v>
+        <v>180</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7765,7 +7950,7 @@
         <v>81</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>417</v>
+        <v>81</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>81</v>
@@ -7776,21 +7961,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -7799,23 +7984,21 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>419</v>
+        <v>139</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>420</v>
+        <v>140</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>421</v>
+        <v>183</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7863,19 +8046,19 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>424</v>
+        <v>186</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
@@ -7884,7 +8067,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>425</v>
+        <v>180</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7899,50 +8082,50 @@
         <v>81</v>
       </c>
       <c r="AR46" t="s" s="2">
-        <v>426</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>398</v>
+        <v>139</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>428</v>
+        <v>384</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>429</v>
+        <v>385</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>430</v>
+        <v>142</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>431</v>
+        <v>148</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7991,19 +8174,19 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>81</v>
@@ -8012,7 +8195,7 @@
         <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>433</v>
+        <v>136</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -8027,15 +8210,15 @@
         <v>81</v>
       </c>
       <c r="AR47" t="s" s="2">
-        <v>426</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8043,13 +8226,13 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>81</v>
@@ -8058,18 +8241,16 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>437</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
       </c>
@@ -8081,7 +8262,7 @@
         <v>81</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>438</v>
+        <v>81</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>81</v>
@@ -8117,10 +8298,10 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>93</v>
@@ -8129,39 +8310,39 @@
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>105</v>
+        <v>435</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>81</v>
+        <v>438</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>81</v>
+        <v>439</v>
       </c>
       <c r="AR48" t="s" s="2">
-        <v>441</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8181,21 +8362,19 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>443</v>
+        <v>176</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>444</v>
+        <v>177</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>445</v>
+        <v>178</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>446</v>
-      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
@@ -8243,7 +8422,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>447</v>
+        <v>179</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
@@ -8255,7 +8434,7 @@
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>81</v>
@@ -8264,7 +8443,7 @@
         <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>425</v>
+        <v>180</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -8279,47 +8458,47 @@
         <v>81</v>
       </c>
       <c r="AR49" t="s" s="2">
-        <v>448</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>451</v>
+        <v>183</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>452</v>
+        <v>142</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8345,53 +8524,55 @@
         <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="Y50" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z50" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>449</v>
+        <v>186</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>454</v>
+        <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>364</v>
+        <v>180</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>455</v>
+        <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>81</v>
@@ -8400,7 +8581,7 @@
         <v>81</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>456</v>
+        <v>81</v>
       </c>
       <c r="AR50" t="s" s="2">
         <v>81</v>
@@ -8408,10 +8589,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8434,18 +8615,18 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>309</v>
+        <v>113</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
       </c>
@@ -8457,7 +8638,7 @@
         <v>81</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>81</v>
+        <v>446</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>81</v>
@@ -8469,13 +8650,13 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>447</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -8493,7 +8674,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
@@ -8514,7 +8695,7 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8523,21 +8704,21 @@
         <v>81</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="AQ51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR51" t="s" s="2">
-        <v>81</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8557,19 +8738,21 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>207</v>
+        <v>454</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>208</v>
+        <v>455</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
       </c>
@@ -8581,7 +8764,7 @@
         <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>81</v>
+        <v>457</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>81</v>
@@ -8593,13 +8776,13 @@
         <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>81</v>
@@ -8617,7 +8800,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>209</v>
+        <v>458</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
@@ -8629,7 +8812,7 @@
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
@@ -8638,7 +8821,7 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>210</v>
+        <v>459</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8658,24 +8841,24 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>81</v>
@@ -8684,18 +8867,20 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>139</v>
+        <v>461</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>140</v>
+        <v>462</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>212</v>
+        <v>463</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8743,19 +8928,19 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>216</v>
+        <v>466</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>81</v>
+        <v>467</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
@@ -8764,7 +8949,7 @@
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>210</v>
+        <v>468</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8773,56 +8958,56 @@
         <v>81</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>81</v>
+        <v>469</v>
       </c>
       <c r="AQ53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR53" t="s" s="2">
-        <v>81</v>
+        <v>470</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>139</v>
+        <v>472</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>320</v>
+        <v>473</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>321</v>
+        <v>474</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>142</v>
+        <v>475</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>148</v>
+        <v>476</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8835,7 +9020,7 @@
         <v>81</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>81</v>
+        <v>477</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>81</v>
@@ -8871,19 +9056,19 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>322</v>
+        <v>478</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>81</v>
+        <v>467</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
@@ -8892,7 +9077,7 @@
         <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>136</v>
+        <v>479</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8901,7 +9086,7 @@
         <v>81</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>81</v>
+        <v>480</v>
       </c>
       <c r="AQ54" t="s" s="2">
         <v>81</v>
@@ -8912,10 +9097,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8929,25 +9114,29 @@
         <v>93</v>
       </c>
       <c r="H55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J55" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="I55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K55" t="s" s="2">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
       </c>
@@ -8995,13 +9184,13 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
@@ -9010,19 +9199,19 @@
         <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>469</v>
+        <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>470</v>
+        <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>472</v>
+        <v>81</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>81</v>
@@ -9031,15 +9220,15 @@
         <v>81</v>
       </c>
       <c r="AR55" t="s" s="2">
-        <v>81</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9050,7 +9239,7 @@
         <v>82</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -9059,21 +9248,23 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>192</v>
+        <v>461</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
       </c>
@@ -9097,13 +9288,13 @@
         <v>81</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>477</v>
+        <v>81</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>478</v>
+        <v>81</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>81</v>
@@ -9121,13 +9312,13 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>81</v>
@@ -9139,10 +9330,10 @@
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>479</v>
+        <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -9154,18 +9345,18 @@
         <v>81</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>481</v>
+        <v>81</v>
       </c>
       <c r="AR56" t="s" s="2">
-        <v>81</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9179,7 +9370,7 @@
         <v>93</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>81</v>
@@ -9188,16 +9379,18 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>483</v>
+        <v>176</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>81</v>
       </c>
@@ -9209,7 +9402,7 @@
         <v>81</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>81</v>
@@ -9245,7 +9438,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>82</v>
@@ -9263,13 +9456,13 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>486</v>
+        <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>488</v>
+        <v>81</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>81</v>
@@ -9278,18 +9471,18 @@
         <v>81</v>
       </c>
       <c r="AQ57" t="s" s="2">
-        <v>489</v>
+        <v>81</v>
       </c>
       <c r="AR57" t="s" s="2">
-        <v>81</v>
+        <v>504</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9309,19 +9502,21 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>206</v>
+        <v>506</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>207</v>
+        <v>507</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>208</v>
+        <v>508</v>
       </c>
       <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
@@ -9369,7 +9564,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>209</v>
+        <v>510</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>82</v>
@@ -9381,7 +9576,7 @@
         <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>81</v>
@@ -9390,7 +9585,7 @@
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>210</v>
+        <v>488</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -9405,47 +9600,47 @@
         <v>81</v>
       </c>
       <c r="AR58" t="s" s="2">
-        <v>81</v>
+        <v>511</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>139</v>
+        <v>283</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>140</v>
+        <v>513</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>212</v>
+        <v>514</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>142</v>
+        <v>515</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9471,55 +9666,53 @@
         <v>81</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>81</v>
+        <v>516</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>216</v>
+        <v>512</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>81</v>
+        <v>517</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>210</v>
+        <v>427</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>81</v>
+        <v>518</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>81</v>
@@ -9528,7 +9721,7 @@
         <v>81</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>81</v>
+        <v>519</v>
       </c>
       <c r="AR59" t="s" s="2">
         <v>81</v>
@@ -9536,10 +9729,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9553,7 +9746,7 @@
         <v>93</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>81</v>
@@ -9562,16 +9755,16 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>443</v>
+        <v>373</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9621,7 +9814,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>82</v>
@@ -9630,7 +9823,7 @@
         <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>497</v>
+        <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>105</v>
@@ -9642,7 +9835,7 @@
         <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9651,21 +9844,21 @@
         <v>81</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>499</v>
+        <v>81</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR60" t="s" s="2">
-        <v>500</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9685,27 +9878,23 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>443</v>
+        <v>176</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>502</v>
+        <v>177</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q61" t="s" s="2">
-        <v>505</v>
-      </c>
+      <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9749,7 +9938,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>506</v>
+        <v>179</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>82</v>
@@ -9758,10 +9947,10 @@
         <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>497</v>
+        <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
@@ -9770,7 +9959,7 @@
         <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>507</v>
+        <v>180</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9779,32 +9968,32 @@
         <v>81</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>508</v>
+        <v>81</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR61" t="s" s="2">
-        <v>509</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
@@ -9816,15 +10005,17 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>511</v>
+        <v>140</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9849,13 +10040,13 @@
         <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>513</v>
+        <v>81</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>514</v>
+        <v>81</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
@@ -9873,31 +10064,31 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>510</v>
+        <v>186</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>515</v>
+        <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>516</v>
+        <v>180</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>517</v>
+        <v>81</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
@@ -9906,7 +10097,7 @@
         <v>81</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>518</v>
+        <v>81</v>
       </c>
       <c r="AR62" t="s" s="2">
         <v>81</v>
@@ -9914,45 +10105,45 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>520</v>
+        <v>384</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>521</v>
+        <v>385</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>522</v>
+        <v>142</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>523</v>
+        <v>148</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9977,13 +10168,13 @@
         <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>524</v>
+        <v>81</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>525</v>
+        <v>81</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>81</v>
@@ -10001,31 +10192,31 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>519</v>
+        <v>386</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>515</v>
+        <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>516</v>
+        <v>136</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>515</v>
+        <v>81</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
@@ -10034,7 +10225,7 @@
         <v>81</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>526</v>
+        <v>81</v>
       </c>
       <c r="AR63" t="s" s="2">
         <v>81</v>
@@ -10042,10 +10233,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10059,7 +10250,7 @@
         <v>93</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>81</v>
@@ -10068,13 +10259,13 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10125,13 +10316,13 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>81</v>
@@ -10140,25 +10331,25 @@
         <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>81</v>
+        <v>532</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>259</v>
+        <v>533</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>260</v>
+        <v>534</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>261</v>
+        <v>81</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>81</v>
+        <v>535</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>531</v>
+        <v>81</v>
       </c>
       <c r="AR64" t="s" s="2">
         <v>81</v>
@@ -10166,10 +10357,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10192,16 +10383,16 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>533</v>
+        <v>201</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10227,13 +10418,13 @@
         <v>81</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>81</v>
+        <v>540</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>81</v>
+        <v>541</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>81</v>
@@ -10251,7 +10442,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>82</v>
@@ -10269,13 +10460,13 @@
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>539</v>
+        <v>81</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
@@ -10284,14 +10475,1144 @@
         <v>81</v>
       </c>
       <c r="AQ65" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="AR65" t="s" s="2">
-        <v>541</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ66" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AR66" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR67" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR68" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AQ69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR69" t="s" s="2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q70" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP70" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AQ70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR70" t="s" s="2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ71" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AR71" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ72" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AR72" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ73" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AR73" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ74" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AR74" t="s" s="2">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR65">
+  <autoFilter ref="A1:AR74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10301,7 +11622,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI64">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6-beta</t>
+    <t>0.1.7-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:34:13-05:00</t>
+    <t>2023-03-29T16:54:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="605">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T16:54:48-05:00</t>
+    <t>2023-03-30T12:22:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -715,6 +715,10 @@
   </si>
   <si>
     <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+TOid-startswithoid:ID system must start with urn:oid:2.16.840.1.113883.4.349.4. The next would be the {stationNbr} {value.startsWith('urn:oid:2.16.840.1.113883.4.349.4.')}</t>
   </si>
   <si>
     <t>II.root or Role.id.root</t>
@@ -4536,7 +4540,7 @@
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
@@ -4545,7 +4549,7 @@
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -4554,7 +4558,7 @@
         <v>81</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>81</v>
@@ -4565,10 +4569,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4594,13 +4598,13 @@
         <v>176</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4614,7 +4618,7 @@
         <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>81</v>
@@ -4650,7 +4654,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>82</v>
@@ -4671,7 +4675,7 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4680,7 +4684,7 @@
         <v>81</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>81</v>
@@ -4691,10 +4695,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4717,13 +4721,13 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4774,7 +4778,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>82</v>
@@ -4795,7 +4799,7 @@
         <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -4804,7 +4808,7 @@
         <v>81</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AQ20" t="s" s="2">
         <v>81</v>
@@ -4815,10 +4819,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4841,16 +4845,16 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4900,7 +4904,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>82</v>
@@ -4921,7 +4925,7 @@
         <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4930,7 +4934,7 @@
         <v>81</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>81</v>
@@ -4941,10 +4945,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4970,13 +4974,13 @@
         <v>113</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -5006,7 +5010,7 @@
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -5024,7 +5028,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>93</v>
@@ -5039,36 +5043,36 @@
         <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AR22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5094,13 +5098,13 @@
         <v>113</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5129,10 +5133,10 @@
         <v>194</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>81</v>
@@ -5150,7 +5154,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>82</v>
@@ -5168,19 +5172,19 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AQ23" t="s" s="2">
         <v>81</v>
@@ -5191,10 +5195,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5220,13 +5224,13 @@
         <v>201</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5255,10 +5259,10 @@
         <v>194</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
@@ -5276,7 +5280,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>82</v>
@@ -5291,25 +5295,25 @@
         <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AR24" t="s" s="2">
         <v>81</v>
@@ -5317,10 +5321,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5441,10 +5445,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5567,10 +5571,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5593,19 +5597,19 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -5654,7 +5658,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>82</v>
@@ -5675,7 +5679,7 @@
         <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5684,21 +5688,21 @@
         <v>81</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5724,16 +5728,16 @@
         <v>176</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -5782,7 +5786,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>82</v>
@@ -5803,7 +5807,7 @@
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5812,25 +5816,25 @@
         <v>81</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5852,13 +5856,13 @@
         <v>201</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5884,19 +5888,19 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
@@ -5906,7 +5910,7 @@
         <v>167</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>82</v>
@@ -5924,39 +5928,39 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AR29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5978,13 +5982,13 @@
         <v>201</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6013,10 +6017,10 @@
         <v>194</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -6034,7 +6038,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>82</v>
@@ -6052,22 +6056,22 @@
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AR30" t="s" s="2">
         <v>81</v>
@@ -6075,10 +6079,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6101,13 +6105,13 @@
         <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6158,7 +6162,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>82</v>
@@ -6173,40 +6177,40 @@
         <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AR31" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -6225,16 +6229,16 @@
         <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6284,7 +6288,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>82</v>
@@ -6299,19 +6303,19 @@
         <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>81</v>
@@ -6320,15 +6324,15 @@
         <v>81</v>
       </c>
       <c r="AR32" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6351,16 +6355,16 @@
         <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6410,7 +6414,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>82</v>
@@ -6425,36 +6429,36 @@
         <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AR33" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6477,16 +6481,16 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6536,7 +6540,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>82</v>
@@ -6551,36 +6555,36 @@
         <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AR34" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6603,16 +6607,16 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6662,7 +6666,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>82</v>
@@ -6677,13 +6681,13 @@
         <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6703,10 +6707,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6729,16 +6733,16 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6788,7 +6792,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
@@ -6806,10 +6810,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6821,7 +6825,7 @@
         <v>81</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AR36" t="s" s="2">
         <v>81</v>
@@ -6829,10 +6833,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6953,10 +6957,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7079,14 +7083,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -7108,10 +7112,10 @@
         <v>139</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>142</v>
@@ -7166,7 +7170,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>82</v>
@@ -7207,10 +7211,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7236,13 +7240,13 @@
         <v>113</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7271,10 +7275,10 @@
         <v>194</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -7292,7 +7296,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>93</v>
@@ -7310,10 +7314,10 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -7325,7 +7329,7 @@
         <v>81</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AR40" t="s" s="2">
         <v>81</v>
@@ -7333,10 +7337,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7359,13 +7363,13 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7416,7 +7420,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>93</v>
@@ -7434,10 +7438,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -7449,7 +7453,7 @@
         <v>81</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AR41" t="s" s="2">
         <v>81</v>
@@ -7457,10 +7461,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7486,16 +7490,16 @@
         <v>176</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -7544,7 +7548,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
@@ -7565,7 +7569,7 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7574,10 +7578,10 @@
         <v>81</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AR42" t="s" s="2">
         <v>81</v>
@@ -7585,10 +7589,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7614,16 +7618,16 @@
         <v>201</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7651,10 +7655,10 @@
         <v>206</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -7672,7 +7676,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
@@ -7690,22 +7694,22 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AR43" t="s" s="2">
         <v>81</v>
@@ -7713,10 +7717,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7739,13 +7743,13 @@
         <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7796,7 +7800,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>93</v>
@@ -7814,10 +7818,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7837,10 +7841,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7961,10 +7965,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8087,14 +8091,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -8116,10 +8120,10 @@
         <v>139</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>142</v>
@@ -8174,7 +8178,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
@@ -8215,10 +8219,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8241,13 +8245,13 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8298,7 +8302,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>93</v>
@@ -8310,28 +8314,28 @@
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AR48" t="s" s="2">
         <v>81</v>
@@ -8339,10 +8343,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8463,10 +8467,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8589,10 +8593,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8618,14 +8622,14 @@
         <v>113</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -8638,7 +8642,7 @@
         <v>81</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>81</v>
@@ -8653,10 +8657,10 @@
         <v>194</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -8674,7 +8678,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
@@ -8695,7 +8699,7 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8704,21 +8708,21 @@
         <v>81</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AQ51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8744,14 +8748,14 @@
         <v>113</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8764,7 +8768,7 @@
         <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>81</v>
@@ -8800,7 +8804,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
@@ -8821,7 +8825,7 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8841,10 +8845,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8867,19 +8871,19 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -8928,7 +8932,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>82</v>
@@ -8937,7 +8941,7 @@
         <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>105</v>
@@ -8949,7 +8953,7 @@
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8958,21 +8962,21 @@
         <v>81</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AQ53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR53" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8995,19 +8999,19 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -9020,7 +9024,7 @@
         <v>81</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>81</v>
@@ -9056,7 +9060,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>82</v>
@@ -9065,7 +9069,7 @@
         <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>105</v>
@@ -9077,7 +9081,7 @@
         <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -9086,7 +9090,7 @@
         <v>81</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AQ54" t="s" s="2">
         <v>81</v>
@@ -9097,10 +9101,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9123,19 +9127,19 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -9184,7 +9188,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>82</v>
@@ -9205,7 +9209,7 @@
         <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -9220,15 +9224,15 @@
         <v>81</v>
       </c>
       <c r="AR55" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9251,19 +9255,19 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -9312,7 +9316,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>82</v>
@@ -9333,7 +9337,7 @@
         <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -9348,15 +9352,15 @@
         <v>81</v>
       </c>
       <c r="AR56" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9382,14 +9386,14 @@
         <v>176</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -9402,7 +9406,7 @@
         <v>81</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>81</v>
@@ -9438,7 +9442,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>82</v>
@@ -9459,7 +9463,7 @@
         <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -9474,15 +9478,15 @@
         <v>81</v>
       </c>
       <c r="AR57" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9505,17 +9509,17 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -9564,7 +9568,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>82</v>
@@ -9585,7 +9589,7 @@
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -9600,15 +9604,15 @@
         <v>81</v>
       </c>
       <c r="AR58" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9631,16 +9635,16 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9670,7 +9674,7 @@
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>81</v>
@@ -9688,7 +9692,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
@@ -9706,13 +9710,13 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>81</v>
@@ -9721,7 +9725,7 @@
         <v>81</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AR59" t="s" s="2">
         <v>81</v>
@@ -9729,10 +9733,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9755,16 +9759,16 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9814,7 +9818,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>82</v>
@@ -9835,7 +9839,7 @@
         <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9855,10 +9859,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9979,10 +9983,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10105,14 +10109,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -10134,10 +10138,10 @@
         <v>139</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>142</v>
@@ -10192,7 +10196,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
@@ -10233,10 +10237,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10259,13 +10263,13 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10316,7 +10320,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>82</v>
@@ -10331,19 +10335,19 @@
         <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>81</v>
@@ -10357,10 +10361,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10386,13 +10390,13 @@
         <v>201</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10418,13 +10422,13 @@
         <v>81</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>81</v>
@@ -10442,7 +10446,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>82</v>
@@ -10460,10 +10464,10 @@
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -10475,7 +10479,7 @@
         <v>81</v>
       </c>
       <c r="AQ65" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AR65" t="s" s="2">
         <v>81</v>
@@ -10483,10 +10487,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10509,13 +10513,13 @@
         <v>94</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10566,7 +10570,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>82</v>
@@ -10584,13 +10588,13 @@
         <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>81</v>
@@ -10599,7 +10603,7 @@
         <v>81</v>
       </c>
       <c r="AQ66" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AR66" t="s" s="2">
         <v>81</v>
@@ -10607,10 +10611,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10731,10 +10735,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10857,10 +10861,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10883,16 +10887,16 @@
         <v>94</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10942,7 +10946,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>82</v>
@@ -10951,7 +10955,7 @@
         <v>93</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>105</v>
@@ -10963,7 +10967,7 @@
         <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10972,21 +10976,21 @@
         <v>81</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AQ69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR69" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11009,23 +11013,23 @@
         <v>94</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q70" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>81</v>
@@ -11070,7 +11074,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>82</v>
@@ -11079,7 +11083,7 @@
         <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>105</v>
@@ -11091,7 +11095,7 @@
         <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -11100,21 +11104,21 @@
         <v>81</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AQ70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR70" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11140,10 +11144,10 @@
         <v>201</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -11170,13 +11174,13 @@
         <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>81</v>
@@ -11194,7 +11198,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>82</v>
@@ -11212,13 +11216,13 @@
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>81</v>
@@ -11227,7 +11231,7 @@
         <v>81</v>
       </c>
       <c r="AQ71" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AR71" t="s" s="2">
         <v>81</v>
@@ -11235,10 +11239,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11264,16 +11268,16 @@
         <v>201</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>81</v>
@@ -11298,13 +11302,13 @@
         <v>81</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>81</v>
@@ -11322,7 +11326,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>82</v>
@@ -11340,14 +11344,14 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="AN72" t="s" s="2">
-        <v>577</v>
-      </c>
       <c r="AO72" t="s" s="2">
         <v>81</v>
       </c>
@@ -11355,7 +11359,7 @@
         <v>81</v>
       </c>
       <c r="AQ72" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AR72" t="s" s="2">
         <v>81</v>
@@ -11363,10 +11367,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11389,13 +11393,13 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11446,7 +11450,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>82</v>
@@ -11464,13 +11468,13 @@
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>81</v>
@@ -11479,7 +11483,7 @@
         <v>81</v>
       </c>
       <c r="AQ73" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AR73" t="s" s="2">
         <v>81</v>
@@ -11487,10 +11491,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11513,16 +11517,16 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11572,7 +11576,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>82</v>
@@ -11590,13 +11594,13 @@
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>81</v>
@@ -11605,10 +11609,10 @@
         <v>81</v>
       </c>
       <c r="AQ74" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AR74" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T12:22:18-05:00</t>
+    <t>2023-03-31T07:50:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="604">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T07:50:38-05:00</t>
+    <t>2023-04-11T08:45:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,12 +87,27 @@
     <t>A profile on the DocumentReference resource for MHV PHR exposing Notes (NoteTO) using FHIR API.
 - The mock example maps best to VIA_v4.0.7_uat.wsdl. 
 - based on US-Core for Clinical Notes
+- `type` seems to hold an enum (A, PN, DS). 
+  - `A` - LOINC#83320-2 \"Allergy and Immunology Adverse event note\"
+  - `PN` - LOINC#11505-5 \"Physician procedure note\"
+  - `DS` - LOINC#18842-5 \"Discharge summary\"
+  - anything else should be logged as not yet understood
+- not used in DocumentReference
+  - masterIdentifier 0..0
+  - docStatus 0..0
+  - relatesTo 0..0
+  - description 0..0
+  - securityLabel 0..0
+  - content.format 0..0
+  - context.encounter 0..0
+  - context.event 0..0
+  - context.facilityType 0..0
+  - context.practiceSetting 0..0
+  - context.sourcePatientInfo 0..0
 TODO Questions:
-- is standardTitle or type used to differentiate between various note types?
-- type seems to hold an enum (A, PN, DS). I am not sure what these mean, or if there are other values
-  - A - LOINC#83320-2 \"Allergy and Immunology Adverse event note\"
-  - PN - LOINC#11505-5 \"Physician procedure note\"
-  - DS - LOINC#18842-5 \"Discharge summary\"
+- is `standardTitle` or `type` used to differentiate between various note types?
+- `status` might be derived from `NoteTO.status`, but at this point I presume we are only told about current notes and don't know what other `NoteTO.status` values might happen
+- what other `type` values might we see?
 - some schema elements found in VIA_v4.0.7_uat.wsdl are not mapped here because I can't tell what is in them. Most of them likely have a place to go in the FHIR model, but I need to know more about them.
   - serviceCategory
   - cosigner
@@ -820,6 +835,9 @@
 This element is labeled as a modifier because the status contains the codes that mark the document or reference as not currently valid.</t>
   </si>
   <si>
+    <t>current</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/document-reference-status</t>
   </si>
   <si>
@@ -838,7 +856,7 @@
     <t>DocumentEntry.availabilityStatus</t>
   </si>
   <si>
-    <t>current or derived from NoteTo.status</t>
+    <t>`current`</t>
   </si>
   <si>
     <t>DocumentReference.docStatus</t>
@@ -880,10 +898,7 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>All LOINC  values whose SCALE is DOC in the LOINC database and the HL7 v3 Code System NullFlavor concept 'unknown'</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-type</t>
+    <t>https://johnmoehrke.github.io/MHV-PHR/ValueSet/NoteTypeVS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -942,7 +957,7 @@
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
-    <t>NoteTO.type{A, PN, DS, ?} or ConvertTitleToCode(NoteTO.standardTitle)</t>
+    <t>NoteTO.type{A, PN, DS, ?}</t>
   </si>
   <si>
     <t>DocumentReference.type.text</t>
@@ -986,6 +1001,14 @@
   </si>
   <si>
     <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/us/core/CodeSystem/us-core-documentreference-category"/&gt;
+    &lt;code value="clinical-note"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>example</t>
@@ -1441,7 +1464,7 @@
     <t>ED.2+ED.3/RP.2+RP.3. Note conversion may be needed if old style values are being used</t>
   </si>
   <si>
-    <t>`text`</t>
+    <t>`text/plain`</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.language</t>
@@ -1497,7 +1520,7 @@
     <t>ED.5</t>
   </si>
   <si>
-    <t>NoteTO.text</t>
+    <t>base64(NoteTO.text)</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.url</t>
@@ -1556,9 +1579,6 @@
     <t>N/A (needs data type R3 proposal)</t>
   </si>
   <si>
-    <t>calculate</t>
-  </si>
-  <si>
     <t>DocumentReference.content.attachment.hash</t>
   </si>
   <si>
@@ -1621,9 +1641,6 @@
   </si>
   <si>
     <t>Attachment.creation</t>
-  </si>
-  <si>
-    <t>unknown</t>
   </si>
   <si>
     <t>DocumentReference.content.format</t>
@@ -2286,7 +2303,7 @@
     <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="82.05078125" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="157.95703125" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="65.66796875" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="47.328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3573,7 +3590,7 @@
         <v>82</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>81</v>
@@ -4991,7 +5008,7 @@
         <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>81</v>
@@ -5010,7 +5027,7 @@
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -5043,36 +5060,36 @@
         <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AR22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5083,7 +5100,7 @@
         <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
@@ -5098,13 +5115,13 @@
         <v>113</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5133,10 +5150,10 @@
         <v>194</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>81</v>
@@ -5154,7 +5171,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>82</v>
@@ -5172,19 +5189,19 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AQ23" t="s" s="2">
         <v>81</v>
@@ -5195,10 +5212,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5224,13 +5241,13 @@
         <v>201</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5258,9 +5275,7 @@
       <c r="X24" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>272</v>
-      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
         <v>273</v>
       </c>
@@ -5280,7 +5295,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>82</v>
@@ -5873,7 +5888,7 @@
         <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>81</v>
@@ -5888,19 +5903,19 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
@@ -5928,13 +5943,13 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>278</v>
@@ -5943,21 +5958,21 @@
         <v>81</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AR29" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>302</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>303</v>
@@ -6017,10 +6032,10 @@
         <v>194</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -6056,13 +6071,13 @@
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>278</v>
@@ -6071,7 +6086,7 @@
         <v>81</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AR30" t="s" s="2">
         <v>81</v>
@@ -6079,10 +6094,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6105,13 +6120,13 @@
         <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6162,7 +6177,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>82</v>
@@ -6177,40 +6192,40 @@
         <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AR31" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -6229,16 +6244,16 @@
         <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6288,7 +6303,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>82</v>
@@ -6303,19 +6318,19 @@
         <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>81</v>
@@ -6324,15 +6339,15 @@
         <v>81</v>
       </c>
       <c r="AR32" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6355,16 +6370,16 @@
         <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6414,7 +6429,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>82</v>
@@ -6429,36 +6444,36 @@
         <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AR33" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6472,7 +6487,7 @@
         <v>93</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>81</v>
@@ -6481,16 +6496,16 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6540,7 +6555,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>82</v>
@@ -6555,36 +6570,36 @@
         <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AR34" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6610,13 +6625,13 @@
         <v>241</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6666,7 +6681,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>82</v>
@@ -6681,13 +6696,13 @@
         <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6707,10 +6722,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6721,7 +6736,7 @@
         <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -6733,16 +6748,16 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6792,7 +6807,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
@@ -6810,10 +6825,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6825,7 +6840,7 @@
         <v>81</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AR36" t="s" s="2">
         <v>81</v>
@@ -6833,10 +6848,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6957,10 +6972,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7083,14 +7098,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -7112,10 +7127,10 @@
         <v>139</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>142</v>
@@ -7170,7 +7185,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>82</v>
@@ -7211,10 +7226,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7240,13 +7255,13 @@
         <v>113</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7275,10 +7290,10 @@
         <v>194</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -7296,7 +7311,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>93</v>
@@ -7314,10 +7329,10 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -7329,7 +7344,7 @@
         <v>81</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AR40" t="s" s="2">
         <v>81</v>
@@ -7337,10 +7352,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7363,13 +7378,13 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7420,7 +7435,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>93</v>
@@ -7438,10 +7453,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -7453,7 +7468,7 @@
         <v>81</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AR41" t="s" s="2">
         <v>81</v>
@@ -7461,10 +7476,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7475,7 +7490,7 @@
         <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -7490,16 +7505,16 @@
         <v>176</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -7548,7 +7563,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
@@ -7569,7 +7584,7 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7578,10 +7593,10 @@
         <v>81</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AR42" t="s" s="2">
         <v>81</v>
@@ -7589,10 +7604,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7603,7 +7618,7 @@
         <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -7618,16 +7633,16 @@
         <v>201</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7655,10 +7670,10 @@
         <v>206</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -7676,7 +7691,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
@@ -7694,22 +7709,22 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AR43" t="s" s="2">
         <v>81</v>
@@ -7717,10 +7732,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7731,7 +7746,7 @@
         <v>93</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>94</v>
@@ -7743,13 +7758,13 @@
         <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7800,7 +7815,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>93</v>
@@ -7818,10 +7833,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7841,10 +7856,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7965,10 +7980,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8091,14 +8106,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -8120,10 +8135,10 @@
         <v>139</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>142</v>
@@ -8178,7 +8193,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
@@ -8219,10 +8234,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8245,13 +8260,13 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8302,7 +8317,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>93</v>
@@ -8314,28 +8329,28 @@
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AR48" t="s" s="2">
         <v>81</v>
@@ -8343,10 +8358,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8467,10 +8482,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8593,10 +8608,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8622,14 +8637,14 @@
         <v>113</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -8642,7 +8657,7 @@
         <v>81</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>81</v>
@@ -8657,10 +8672,10 @@
         <v>194</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -8678,7 +8693,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
@@ -8699,7 +8714,7 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8708,21 +8723,21 @@
         <v>81</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AQ51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8748,14 +8763,14 @@
         <v>113</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8768,7 +8783,7 @@
         <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>81</v>
@@ -8804,7 +8819,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
@@ -8825,7 +8840,7 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8845,10 +8860,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8871,19 +8886,19 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -8932,7 +8947,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>82</v>
@@ -8941,7 +8956,7 @@
         <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>105</v>
@@ -8953,7 +8968,7 @@
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8962,21 +8977,21 @@
         <v>81</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AQ53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AR53" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8999,19 +9014,19 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -9024,7 +9039,7 @@
         <v>81</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>81</v>
@@ -9060,7 +9075,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>82</v>
@@ -9069,7 +9084,7 @@
         <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>105</v>
@@ -9081,7 +9096,7 @@
         <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -9090,7 +9105,7 @@
         <v>81</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AQ54" t="s" s="2">
         <v>81</v>
@@ -9101,10 +9116,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9127,19 +9142,19 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -9188,7 +9203,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>82</v>
@@ -9209,7 +9224,7 @@
         <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -9224,7 +9239,7 @@
         <v>81</v>
       </c>
       <c r="AR55" t="s" s="2">
-        <v>490</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" hidden="true">
@@ -9255,7 +9270,7 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>492</v>
@@ -9352,7 +9367,7 @@
         <v>81</v>
       </c>
       <c r="AR56" t="s" s="2">
-        <v>490</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" hidden="true">
@@ -9589,7 +9604,7 @@
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -9604,15 +9619,15 @@
         <v>81</v>
       </c>
       <c r="AR58" t="s" s="2">
-        <v>512</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9623,7 +9638,7 @@
         <v>82</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>94</v>
@@ -9638,13 +9653,13 @@
         <v>284</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9674,7 +9689,7 @@
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>81</v>
@@ -9692,7 +9707,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
@@ -9710,22 +9725,22 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AM59" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ59" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AR59" t="s" s="2">
         <v>81</v>
@@ -9733,10 +9748,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9759,16 +9774,16 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9818,7 +9833,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>82</v>
@@ -9839,7 +9854,7 @@
         <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9859,10 +9874,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9983,10 +9998,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10109,14 +10124,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -10138,10 +10153,10 @@
         <v>139</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>142</v>
@@ -10196,7 +10211,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
@@ -10237,10 +10252,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10251,7 +10266,7 @@
         <v>82</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>94</v>
@@ -10263,13 +10278,13 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10320,7 +10335,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>82</v>
@@ -10335,19 +10350,19 @@
         <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>81</v>
@@ -10361,10 +10376,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10375,7 +10390,7 @@
         <v>82</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>81</v>
@@ -10390,13 +10405,13 @@
         <v>201</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10422,14 +10437,14 @@
         <v>81</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y65" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="Z65" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="Z65" t="s" s="2">
-        <v>542</v>
-      </c>
       <c r="AA65" t="s" s="2">
         <v>81</v>
       </c>
@@ -10446,7 +10461,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>82</v>
@@ -10464,22 +10479,22 @@
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ65" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ65" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="AR65" t="s" s="2">
         <v>81</v>
@@ -10487,10 +10502,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10516,10 +10531,10 @@
         <v>233</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10570,7 +10585,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>82</v>
@@ -10588,22 +10603,22 @@
         <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AN66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ66" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ66" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="AR66" t="s" s="2">
         <v>81</v>
@@ -10611,10 +10626,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10735,10 +10750,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10861,10 +10876,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10890,13 +10905,13 @@
         <v>507</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10946,7 +10961,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>82</v>
@@ -10955,7 +10970,7 @@
         <v>93</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>105</v>
@@ -10967,30 +10982,30 @@
         <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP69" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="AN69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP69" t="s" s="2">
+      <c r="AQ69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR69" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="AQ69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AR69" t="s" s="2">
-        <v>563</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11016,65 +11031,65 @@
         <v>507</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q70" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF70" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>82</v>
@@ -11083,7 +11098,7 @@
         <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>105</v>
@@ -11095,30 +11110,30 @@
         <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP70" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="AN70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP70" t="s" s="2">
+      <c r="AQ70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR70" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="AQ70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AR70" t="s" s="2">
-        <v>572</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11129,7 +11144,7 @@
         <v>82</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>81</v>
@@ -11144,10 +11159,10 @@
         <v>201</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -11174,14 +11189,14 @@
         <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="Z71" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>577</v>
-      </c>
       <c r="AA71" t="s" s="2">
         <v>81</v>
       </c>
@@ -11198,7 +11213,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>82</v>
@@ -11216,22 +11231,22 @@
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="AN71" t="s" s="2">
+      <c r="AO71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ71" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ71" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="AR71" t="s" s="2">
         <v>81</v>
@@ -11239,10 +11254,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11253,7 +11268,7 @@
         <v>82</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>81</v>
@@ -11268,16 +11283,16 @@
         <v>201</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>81</v>
@@ -11302,14 +11317,14 @@
         <v>81</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="Z72" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>588</v>
-      </c>
       <c r="AA72" t="s" s="2">
         <v>81</v>
       </c>
@@ -11326,7 +11341,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>82</v>
@@ -11344,13 +11359,13 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="AM72" t="s" s="2">
-        <v>579</v>
-      </c>
       <c r="AN72" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>81</v>
@@ -11359,7 +11374,7 @@
         <v>81</v>
       </c>
       <c r="AQ72" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AR72" t="s" s="2">
         <v>81</v>
@@ -11367,10 +11382,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11381,7 +11396,7 @@
         <v>82</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>81</v>
@@ -11393,13 +11408,13 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11450,7 +11465,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>82</v>
@@ -11468,13 +11483,13 @@
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>81</v>
@@ -11483,7 +11498,7 @@
         <v>81</v>
       </c>
       <c r="AQ73" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AR73" t="s" s="2">
         <v>81</v>
@@ -11491,10 +11506,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11508,7 +11523,7 @@
         <v>83</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>81</v>
@@ -11517,16 +11532,16 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11576,7 +11591,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>82</v>
@@ -11594,25 +11609,25 @@
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AN74" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="AN74" t="s" s="2">
+      <c r="AO74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ74" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="AO74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ74" t="s" s="2">
+      <c r="AR74" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="AR74" t="s" s="2">
-        <v>604</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7-beta</t>
+    <t>0.1.8-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:45:33-05:00</t>
+    <t>2023-04-12T10:49:54-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8-beta</t>
+    <t>0.1.9-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T10:49:54-05:00</t>
+    <t>2023-04-14T09:56:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9-beta</t>
+    <t>0.1.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:56:36-05:00</t>
+    <t>2023-04-17T18:54:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T18:54:15-05:00</t>
+    <t>2023-04-17T19:11:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.10-beta</t>
+    <t>0.1.11-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T19:11:15-05:00</t>
+    <t>2023-04-24T08:03:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.11-beta</t>
+    <t>0.1.12-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-24T08:03:17-05:00</t>
+    <t>2023-05-01T08:16:19-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.12-beta</t>
+    <t>0.1.13-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T08:16:19-05:00</t>
+    <t>2023-05-02T08:13:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.13-beta</t>
+    <t>0.1.14-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T08:13:48-05:00</t>
+    <t>2023-05-04T14:24:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.14-beta</t>
+    <t>0.1.15-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T14:24:58-05:00</t>
+    <t>2023-06-07T11:47:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,14 +84,14 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the DocumentReference resource for MHV PHR exposing Notes (NoteTO) using FHIR API.
+    <t>A profile on the DocumentReference resource for MHV PHR exposing Notes (NoteTO) using FHIR API. 
 - The mock example maps best to VIA_v4.0.7_uat.wsdl. 
 - based on US-Core for Clinical Notes
-- `type` seems to hold an enum (A, PN, DS). 
-  - `A` - LOINC#83320-2 \"Allergy and Immunology Adverse event note\"
+- `type` seems to hold an enum (PN, DS). 
   - `PN` - LOINC#11505-5 \"Physician procedure note\"
   - `DS` - LOINC#18842-5 \"Discharge summary\"
   - anything else should be logged as not yet understood
+- This also includes the (NoteTO) received on the 'Admission and Discharge' feed which holds a Discharge Summary without an id.
 - not used in DocumentReference
   - masterIdentifier 0..0
   - docStatus 0..0
@@ -104,9 +104,11 @@
   - context.facilityType 0..0
   - context.practiceSetting 0..0
   - context.sourcePatientInfo 0..0
+- **Business Rule**: do not convert any NoteTO.status that is not `completed` or `COMPLETED`.
+- **Business Rule**: do not convet any NoteTO.type of `A`
 TODO Questions:
 - is `standardTitle` or `type` used to differentiate between various note types?
-- `status` might be derived from `NoteTO.status`, but at this point I presume we are only told about current notes and don't know what other `NoteTO.status` values might happen
+- `status` might be derived from `NoteTO.status`, but at this point I presume we are only told about completed notes, we have a business rule to ignore all others, and I don't know what other `NoteTO.status` values might happen
 - what other `type` values might we see?
 - some schema elements found in VIA_v4.0.7_uat.wsdl are not mapped here because I can't tell what is in them. Most of them likely have a place to go in the FHIR model, but I need to know more about them.
   - serviceCategory
@@ -957,7 +959,7 @@
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
-    <t>NoteTO.type{A, PN, DS, ?}</t>
+    <t>NoteTO.type{PN, DS, ?}</t>
   </si>
   <si>
     <t>DocumentReference.type.text</t>
@@ -3715,7 +3717,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>83</v>
@@ -3839,7 +3841,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>93</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T11:38:47-05:00</t>
+    <t>2023-06-13T14:37:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T14:37:26-05:00</t>
+    <t>2023-06-13T16:30:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="559">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T16:30:05-05:00</t>
+    <t>2023-06-16T14:48:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,47 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the DocumentReference resource for MHV PHR exposing Notes (NoteTO) using FHIR API. 
-- The mock example maps best to VIA_v4.0.7_uat.wsdl. 
-- based on US-Core for Clinical Notes
-- `type` seems to hold an enum (PN, DS). 
-  - `PN` - LOINC#11505-5 \"Physician procedure note\"
-  - `DS` - LOINC#18842-5 \"Discharge summary\"
-  - anything else should be logged as not yet understood
-- This also includes the (NoteTO) received on the 'Admission and Discharge' feed which holds a Discharge Summary without an id.
-- not used in DocumentReference
-  - masterIdentifier 0..0
-  - docStatus 0..0
-  - relatesTo 0..0
-  - description 0..0
-  - securityLabel 0..0
-  - content.format 0..0
-  - context.encounter 0..0
-  - context.event 0..0
-  - context.facilityType 0..0
-  - context.practiceSetting 0..0
-  - context.sourcePatientInfo 0..0
-- **Business Rule**: do not convert any NoteTO.status that is not `completed` or `COMPLETED`.
-- **Business Rule**: do not convet any NoteTO.type of `A`
-TODO Questions:
-- is `standardTitle` or `type` used to differentiate between various note types?
-- `status` might be derived from `NoteTO.status`, but at this point I presume we are only told about completed notes, we have a business rule to ignore all others, and I don't know what other `NoteTO.status` values might happen
-- what other `type` values might we see?
-- some schema elements found in VIA_v4.0.7_uat.wsdl are not mapped here because I can't tell what is in them. Most of them likely have a place to go in the FHIR model, but I need to know more about them.
-  - serviceCategory
-  - cosigner
-  - hasAdendum
-  - isAddendum
-  - originalNoteID
-  - hasImages
-  - itemId
-  - signatureTimestamp
-  - consultId
-  - surgicalProcId
-  - prfId
-  - parentId
-  - procTimestamp
-  - subject</t>
+    <t>A profile on the DocumentReference resource for MHV PHR exposing Notes (NoteTO) using FHIR API.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -154,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</t>
+    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.documentReference</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -871,14 +831,6 @@
   </si>
   <si>
     <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/core/CodeSystem/us-core-documentreference-category"/&gt;
-    &lt;code value="clinical-note"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>example</t>
@@ -5623,34 +5575,34 @@
         <v>37</v>
       </c>
       <c r="S28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X28" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="T28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X28" t="s" s="2">
+      <c r="Y28" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AA28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB28" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
@@ -5678,13 +5630,13 @@
         <v>37</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>234</v>
@@ -5693,21 +5645,21 @@
         <v>37</v>
       </c>
       <c r="AQ28" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AR28" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AR28" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>258</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>259</v>
@@ -5767,10 +5719,10 @@
         <v>150</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>37</v>
@@ -5806,13 +5758,13 @@
         <v>37</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>234</v>
@@ -5821,7 +5773,7 @@
         <v>37</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AR29" t="s" s="2">
         <v>37</v>
@@ -5829,10 +5781,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5855,13 +5807,13 @@
         <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5912,7 +5864,7 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
@@ -5927,40 +5879,40 @@
         <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AO30" t="s" s="2">
+      <c r="AP30" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AP30" t="s" s="2">
+      <c r="AQ30" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AQ30" t="s" s="2">
+      <c r="AR30" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AR30" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5979,16 +5931,16 @@
         <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6038,7 +5990,7 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
@@ -6053,36 +6005,36 @@
         <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AN31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO31" t="s" s="2">
+      <c r="AP31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AR31" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AR31" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6105,16 +6057,16 @@
         <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6164,7 +6116,7 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
@@ -6179,36 +6131,36 @@
         <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AO32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP32" t="s" s="2">
+      <c r="AQ32" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AQ32" t="s" s="2">
+      <c r="AR32" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AR32" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6231,16 +6183,16 @@
         <v>37</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6290,7 +6242,7 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
@@ -6305,36 +6257,36 @@
         <v>61</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AO33" t="s" s="2">
+      <c r="AP33" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AP33" t="s" s="2">
+      <c r="AQ33" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AQ33" t="s" s="2">
+      <c r="AR33" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AR33" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6345,10 +6297,10 @@
         <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>37</v>
@@ -6360,13 +6312,13 @@
         <v>197</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6416,7 +6368,7 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
@@ -6431,13 +6383,13 @@
         <v>61</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>37</v>
@@ -6457,10 +6409,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6483,16 +6435,16 @@
         <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6542,7 +6494,7 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
@@ -6560,22 +6512,22 @@
         <v>37</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ35" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ35" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AR35" t="s" s="2">
         <v>37</v>
@@ -6583,10 +6535,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6707,10 +6659,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6833,14 +6785,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6862,10 +6814,10 @@
         <v>95</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>98</v>
@@ -6920,7 +6872,7 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
@@ -6961,10 +6913,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6990,13 +6942,13 @@
         <v>69</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -7025,11 +6977,11 @@
         <v>150</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
       </c>
@@ -7046,7 +6998,7 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>49</v>
@@ -7064,22 +7016,22 @@
         <v>37</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ39" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ39" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AR39" t="s" s="2">
         <v>37</v>
@@ -7087,10 +7039,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7113,13 +7065,13 @@
         <v>50</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7170,7 +7122,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>49</v>
@@ -7188,22 +7140,22 @@
         <v>37</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ40" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ40" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AR40" t="s" s="2">
         <v>37</v>
@@ -7211,10 +7163,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7228,7 +7180,7 @@
         <v>38</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>37</v>
@@ -7240,16 +7192,16 @@
         <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>37</v>
@@ -7298,7 +7250,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
@@ -7319,19 +7271,19 @@
         <v>37</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP41" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AN41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP41" t="s" s="2">
+      <c r="AQ41" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AQ41" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="AR41" t="s" s="2">
         <v>37</v>
@@ -7339,10 +7291,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7368,16 +7320,16 @@
         <v>157</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>37</v>
@@ -7405,11 +7357,11 @@
         <v>162</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>37</v>
       </c>
@@ -7426,7 +7378,7 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -7444,22 +7396,22 @@
         <v>37</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP42" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AO42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP42" t="s" s="2">
+      <c r="AQ42" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AQ42" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AR42" t="s" s="2">
         <v>37</v>
@@ -7467,10 +7419,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7493,13 +7445,13 @@
         <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7550,7 +7502,7 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>49</v>
@@ -7568,10 +7520,10 @@
         <v>37</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>37</v>
@@ -7591,10 +7543,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7715,10 +7667,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7841,14 +7793,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7870,10 +7822,10 @@
         <v>95</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>98</v>
@@ -7928,7 +7880,7 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
@@ -7969,10 +7921,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7995,13 +7947,13 @@
         <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -8052,7 +8004,7 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>49</v>
@@ -8064,28 +8016,28 @@
         <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AK47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AM47" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP47" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AO47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP47" t="s" s="2">
+      <c r="AQ47" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AQ47" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AR47" t="s" s="2">
         <v>37</v>
@@ -8093,10 +8045,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8217,10 +8169,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8343,10 +8295,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8372,14 +8324,14 @@
         <v>69</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>37</v>
@@ -8392,7 +8344,7 @@
         <v>37</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>37</v>
@@ -8407,28 +8359,28 @@
         <v>150</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="Z50" t="s" s="2">
+      <c r="AA50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF50" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -8449,30 +8401,30 @@
         <v>37</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP50" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AN50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP50" t="s" s="2">
+      <c r="AQ50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AR50" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AQ50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AR50" t="s" s="2">
-        <v>410</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8483,7 +8435,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
@@ -8498,14 +8450,14 @@
         <v>69</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>37</v>
@@ -8518,7 +8470,7 @@
         <v>37</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>37</v>
@@ -8554,7 +8506,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
@@ -8575,7 +8527,7 @@
         <v>37</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>37</v>
@@ -8595,10 +8547,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8621,19 +8573,19 @@
         <v>37</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>37</v>
@@ -8682,7 +8634,7 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
@@ -8691,7 +8643,7 @@
         <v>49</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>61</v>
@@ -8703,30 +8655,30 @@
         <v>37</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP52" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AN52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP52" t="s" s="2">
+      <c r="AQ52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AR52" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AQ52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AR52" t="s" s="2">
-        <v>428</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8737,7 +8689,7 @@
         <v>38</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>50</v>
@@ -8749,19 +8701,19 @@
         <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>37</v>
@@ -8774,43 +8726,43 @@
         <v>37</v>
       </c>
       <c r="T53" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF53" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -8819,7 +8771,7 @@
         <v>49</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>61</v>
@@ -8831,16 +8783,16 @@
         <v>37</v>
       </c>
       <c r="AM53" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP53" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AQ53" t="s" s="2">
         <v>37</v>
@@ -8851,10 +8803,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8865,7 +8817,7 @@
         <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>37</v>
@@ -8877,19 +8829,19 @@
         <v>50</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>37</v>
@@ -8938,7 +8890,7 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
@@ -8959,7 +8911,7 @@
         <v>37</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>37</v>
@@ -8979,10 +8931,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8993,7 +8945,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>37</v>
@@ -9005,19 +8957,19 @@
         <v>50</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>37</v>
@@ -9066,7 +9018,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -9087,7 +9039,7 @@
         <v>37</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>37</v>
@@ -9107,10 +9059,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9124,7 +9076,7 @@
         <v>49</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>37</v>
@@ -9136,14 +9088,14 @@
         <v>132</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>37</v>
@@ -9156,43 +9108,43 @@
         <v>37</v>
       </c>
       <c r="T56" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -9213,30 +9165,30 @@
         <v>37</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AR56" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AR56" t="s" s="2">
-        <v>461</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9247,10 +9199,10 @@
         <v>38</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>37</v>
@@ -9259,17 +9211,17 @@
         <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>37</v>
@@ -9318,7 +9270,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -9339,7 +9291,7 @@
         <v>37</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>37</v>
@@ -9359,10 +9311,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9388,13 +9340,13 @@
         <v>240</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9424,7 +9376,7 @@
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>37</v>
@@ -9442,7 +9394,7 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
@@ -9460,22 +9412,22 @@
         <v>37</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AM58" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ58" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ58" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AR58" t="s" s="2">
         <v>37</v>
@@ -9483,10 +9435,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9509,16 +9461,16 @@
         <v>50</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9568,7 +9520,7 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
@@ -9589,7 +9541,7 @@
         <v>37</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>37</v>
@@ -9609,10 +9561,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9733,10 +9685,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9859,14 +9811,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9888,10 +9840,10 @@
         <v>95</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>98</v>
@@ -9946,7 +9898,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
@@ -9987,10 +9939,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10013,13 +9965,13 @@
         <v>37</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -10070,7 +10022,7 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
@@ -10085,19 +10037,19 @@
         <v>61</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>37</v>
@@ -10111,10 +10063,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10140,13 +10092,13 @@
         <v>157</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10172,14 +10124,14 @@
         <v>37</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>497</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>37</v>
       </c>
@@ -10196,7 +10148,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
@@ -10214,22 +10166,22 @@
         <v>37</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ64" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ64" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="AR64" t="s" s="2">
         <v>37</v>
@@ -10237,10 +10189,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10266,10 +10218,10 @@
         <v>189</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10320,7 +10272,7 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
@@ -10338,22 +10290,22 @@
         <v>37</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AN65" t="s" s="2">
+      <c r="AO65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ65" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ65" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="AR65" t="s" s="2">
         <v>37</v>
@@ -10361,10 +10313,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10485,10 +10437,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10611,10 +10563,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10637,16 +10589,16 @@
         <v>50</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10696,7 +10648,7 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
@@ -10705,7 +10657,7 @@
         <v>49</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>61</v>
@@ -10717,30 +10669,30 @@
         <v>37</v>
       </c>
       <c r="AM68" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP68" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AN68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP68" t="s" s="2">
+      <c r="AQ68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AR68" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AQ68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AR68" t="s" s="2">
-        <v>518</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10763,68 +10715,68 @@
         <v>50</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="Q69" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF69" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
@@ -10833,7 +10785,7 @@
         <v>49</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>61</v>
@@ -10845,30 +10797,30 @@
         <v>37</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP69" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AN69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP69" t="s" s="2">
+      <c r="AQ69" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AR69" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AQ69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AR69" t="s" s="2">
-        <v>527</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10894,10 +10846,10 @@
         <v>157</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10924,14 +10876,14 @@
         <v>37</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="Z70" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="AA70" t="s" s="2">
         <v>37</v>
       </c>
@@ -10948,7 +10900,7 @@
         <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
@@ -10966,22 +10918,22 @@
         <v>37</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AN70" t="s" s="2">
+      <c r="AO70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ70" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ70" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="AR70" t="s" s="2">
         <v>37</v>
@@ -10989,10 +10941,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11018,16 +10970,16 @@
         <v>157</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>37</v>
@@ -11052,14 +11004,14 @@
         <v>37</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="Z71" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>543</v>
-      </c>
       <c r="AA71" t="s" s="2">
         <v>37</v>
       </c>
@@ -11076,7 +11028,7 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
@@ -11094,13 +11046,13 @@
         <v>37</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AM71" t="s" s="2">
-        <v>534</v>
-      </c>
       <c r="AN71" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>37</v>
@@ -11109,7 +11061,7 @@
         <v>37</v>
       </c>
       <c r="AQ71" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AR71" t="s" s="2">
         <v>37</v>
@@ -11117,10 +11069,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11143,13 +11095,13 @@
         <v>37</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -11200,7 +11152,7 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
@@ -11218,14 +11170,14 @@
         <v>37</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AM72" t="s" s="2">
+      <c r="AN72" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AN72" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="AO72" t="s" s="2">
         <v>37</v>
       </c>
@@ -11233,7 +11185,7 @@
         <v>37</v>
       </c>
       <c r="AQ72" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AR72" t="s" s="2">
         <v>37</v>
@@ -11241,10 +11193,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11267,16 +11219,16 @@
         <v>37</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11326,7 +11278,7 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
@@ -11344,25 +11296,25 @@
         <v>37</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="AN73" t="s" s="2">
+      <c r="AO73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ73" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="AO73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ73" t="s" s="2">
+      <c r="AR73" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="AR73" t="s" s="2">
-        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.16-beta</t>
+    <t>0.1.17-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T14:48:21-05:00</t>
+    <t>2023-07-13T09:22:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.17-beta</t>
+    <t>0.1.18-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T09:22:36-05:00</t>
+    <t>2023-07-19T13:17:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T13:17:04-05:00</t>
+    <t>2023-07-21T16:23:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T16:23:00-05:00</t>
+    <t>2023-08-03T12:49:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T12:49:33-05:00</t>
+    <t>2023-08-17T15:11:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.18-beta</t>
+    <t>0.1.19-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T15:11:45-05:00</t>
+    <t>2023-08-18T06:56:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T06:56:10-05:00</t>
+    <t>2023-08-18T07:55:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.19-beta</t>
+    <t>0.1.20-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T07:55:35-05:00</t>
+    <t>2023-08-22T11:16:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T11:16:10-05:00</t>
+    <t>2023-08-22T12:58:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.note</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.note</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.20-beta</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T12:58:52-05:00</t>
+    <t>2023-08-22T16:36:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>John Moehrke (himself)</t>
+    <t>VA Digital Services</t>
   </si>
   <si>
     <t>Contact</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.documentReference</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.documentReference</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -728,7 +728,7 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/ValueSet/NoteTypeVS</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/ValueSet/NoteTypeVS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -2107,7 +2107,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="125.34375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.19921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="85.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="13.390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="560">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T16:36:15-05:00</t>
+    <t>2023-08-24T09:48:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>\-</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2226,19 +2230,19 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>37</v>
@@ -2250,15 +2254,15 @@
         <v>37</v>
       </c>
       <c r="AR1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2269,7 +2273,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>37</v>
@@ -2278,19 +2282,19 @@
         <v>37</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2340,13 +2344,13 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>37</v>
@@ -2381,10 +2385,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2395,7 +2399,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>37</v>
@@ -2404,16 +2408,16 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2464,19 +2468,19 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -2505,10 +2509,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2519,28 +2523,28 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2590,19 +2594,19 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>37</v>
@@ -2631,10 +2635,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2645,7 +2649,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>37</v>
@@ -2657,16 +2661,16 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2692,13 +2696,13 @@
         <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>37</v>
@@ -2716,19 +2720,19 @@
         <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>37</v>
@@ -2757,21 +2761,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>37</v>
@@ -2783,16 +2787,16 @@
         <v>37</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2842,19 +2846,19 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>37</v>
@@ -2863,7 +2867,7 @@
         <v>37</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>37</v>
@@ -2883,14 +2887,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2909,16 +2913,16 @@
         <v>37</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2968,7 +2972,7 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
@@ -2989,7 +2993,7 @@
         <v>37</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>37</v>
@@ -3009,14 +3013,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3035,16 +3039,16 @@
         <v>37</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3094,7 +3098,7 @@
         <v>37</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
@@ -3106,7 +3110,7 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>37</v>
@@ -3115,7 +3119,7 @@
         <v>37</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>37</v>
@@ -3135,14 +3139,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3155,25 +3159,25 @@
         <v>37</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>37</v>
@@ -3222,7 +3226,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -3234,7 +3238,7 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
@@ -3243,7 +3247,7 @@
         <v>37</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>37</v>
@@ -3263,10 +3267,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3286,22 +3290,22 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>37</v>
@@ -3350,40 +3354,40 @@
         <v>37</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AQ10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AR10" t="s" s="2">
         <v>37</v>
@@ -3391,10 +3395,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3408,22 +3412,22 @@
         <v>39</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3462,17 +3466,17 @@
         <v>37</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3484,42 +3488,42 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AR11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>37</v>
@@ -3529,25 +3533,25 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3598,7 +3602,7 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
@@ -3610,28 +3614,28 @@
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AR12" t="s" s="2">
         <v>37</v>
@@ -3639,10 +3643,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3653,7 +3657,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>37</v>
@@ -3665,13 +3669,13 @@
         <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3722,13 +3726,13 @@
         <v>37</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>37</v>
@@ -3743,7 +3747,7 @@
         <v>37</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>37</v>
@@ -3763,14 +3767,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3789,16 +3793,16 @@
         <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3836,19 +3840,19 @@
         <v>37</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
@@ -3860,7 +3864,7 @@
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>37</v>
@@ -3869,7 +3873,7 @@
         <v>37</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>37</v>
@@ -3889,10 +3893,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3900,34 +3904,34 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>37</v>
@@ -3937,7 +3941,7 @@
         <v>37</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>37</v>
@@ -3952,13 +3956,13 @@
         <v>37</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>37</v>
@@ -3976,19 +3980,19 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>37</v>
@@ -3997,7 +4001,7 @@
         <v>37</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>37</v>
@@ -4006,7 +4010,7 @@
         <v>37</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AQ15" t="s" s="2">
         <v>37</v>
@@ -4017,10 +4021,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4031,7 +4035,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>37</v>
@@ -4040,22 +4044,22 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>37</v>
@@ -4080,13 +4084,13 @@
         <v>37</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>37</v>
@@ -4104,19 +4108,19 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>37</v>
@@ -4125,7 +4129,7 @@
         <v>37</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>37</v>
@@ -4134,7 +4138,7 @@
         <v>37</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AQ16" t="s" s="2">
         <v>37</v>
@@ -4145,10 +4149,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4159,7 +4163,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>37</v>
@@ -4168,22 +4172,22 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>37</v>
@@ -4196,7 +4200,7 @@
         <v>37</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>37</v>
@@ -4232,19 +4236,19 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>37</v>
@@ -4253,7 +4257,7 @@
         <v>37</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>37</v>
@@ -4262,7 +4266,7 @@
         <v>37</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AQ17" t="s" s="2">
         <v>37</v>
@@ -4273,10 +4277,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4287,7 +4291,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>37</v>
@@ -4296,19 +4300,19 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4322,7 +4326,7 @@
         <v>37</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>37</v>
@@ -4358,19 +4362,19 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>37</v>
@@ -4379,7 +4383,7 @@
         <v>37</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>37</v>
@@ -4388,7 +4392,7 @@
         <v>37</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>37</v>
@@ -4399,10 +4403,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4413,7 +4417,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>37</v>
@@ -4422,16 +4426,16 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4482,19 +4486,19 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>37</v>
@@ -4503,7 +4507,7 @@
         <v>37</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>37</v>
@@ -4512,7 +4516,7 @@
         <v>37</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>37</v>
@@ -4523,10 +4527,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4537,7 +4541,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>37</v>
@@ -4546,19 +4550,19 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4608,19 +4612,19 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>37</v>
@@ -4629,7 +4633,7 @@
         <v>37</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>37</v>
@@ -4638,7 +4642,7 @@
         <v>37</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AQ20" t="s" s="2">
         <v>37</v>
@@ -4649,10 +4653,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4660,31 +4664,31 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4695,7 +4699,7 @@
         <v>37</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>37</v>
@@ -4710,11 +4714,11 @@
         <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>37</v>
@@ -4732,51 +4736,51 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AR21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4796,19 +4800,19 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4834,13 +4838,13 @@
         <v>37</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>37</v>
@@ -4858,37 +4862,37 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AQ22" t="s" s="2">
         <v>37</v>
@@ -4899,10 +4903,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4910,31 +4914,31 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4960,11 +4964,11 @@
         <v>37</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>37</v>
@@ -4982,40 +4986,40 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AR23" t="s" s="2">
         <v>37</v>
@@ -5023,10 +5027,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5037,7 +5041,7 @@
         <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>37</v>
@@ -5049,13 +5053,13 @@
         <v>37</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5106,13 +5110,13 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>37</v>
@@ -5127,7 +5131,7 @@
         <v>37</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>37</v>
@@ -5147,14 +5151,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5173,16 +5177,16 @@
         <v>37</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5220,19 +5224,19 @@
         <v>37</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
@@ -5244,7 +5248,7 @@
         <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>37</v>
@@ -5253,7 +5257,7 @@
         <v>37</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>37</v>
@@ -5273,10 +5277,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5296,22 +5300,22 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>37</v>
@@ -5360,7 +5364,7 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
@@ -5372,7 +5376,7 @@
         <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>37</v>
@@ -5381,7 +5385,7 @@
         <v>37</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>37</v>
@@ -5390,21 +5394,21 @@
         <v>37</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AR26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5415,7 +5419,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>37</v>
@@ -5424,22 +5428,22 @@
         <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>37</v>
@@ -5488,19 +5492,19 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>37</v>
@@ -5509,7 +5513,7 @@
         <v>37</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>37</v>
@@ -5518,53 +5522,53 @@
         <v>37</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AR27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5590,29 +5594,29 @@
         <v>37</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
@@ -5624,45 +5628,45 @@
         <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AR28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5672,25 +5676,25 @@
         <v>39</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5716,13 +5720,13 @@
         <v>37</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>37</v>
@@ -5740,7 +5744,7 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
@@ -5752,28 +5756,28 @@
         <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AR29" t="s" s="2">
         <v>37</v>
@@ -5781,10 +5785,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5792,28 +5796,28 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5864,83 +5868,83 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AR30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5990,34 +5994,34 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>37</v>
@@ -6026,15 +6030,15 @@
         <v>37</v>
       </c>
       <c r="AR31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6048,25 +6052,25 @@
         <v>39</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6116,7 +6120,7 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
@@ -6128,39 +6132,39 @@
         <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AR32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6171,10 +6175,10 @@
         <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>37</v>
@@ -6183,16 +6187,16 @@
         <v>37</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6242,51 +6246,51 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AR33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6300,7 +6304,7 @@
         <v>38</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>37</v>
@@ -6309,16 +6313,16 @@
         <v>37</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6368,28 +6372,28 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>37</v>
@@ -6409,10 +6413,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6432,19 +6436,19 @@
         <v>37</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6494,7 +6498,7 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
@@ -6506,16 +6510,16 @@
         <v>37</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>37</v>
@@ -6527,7 +6531,7 @@
         <v>37</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AR35" t="s" s="2">
         <v>37</v>
@@ -6535,10 +6539,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6549,7 +6553,7 @@
         <v>38</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>37</v>
@@ -6561,13 +6565,13 @@
         <v>37</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6618,13 +6622,13 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>37</v>
@@ -6639,7 +6643,7 @@
         <v>37</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>37</v>
@@ -6659,14 +6663,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6685,16 +6689,16 @@
         <v>37</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6744,7 +6748,7 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
@@ -6756,7 +6760,7 @@
         <v>37</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>37</v>
@@ -6765,7 +6769,7 @@
         <v>37</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>37</v>
@@ -6785,14 +6789,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6805,25 +6809,25 @@
         <v>37</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>37</v>
@@ -6872,7 +6876,7 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
@@ -6884,7 +6888,7 @@
         <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>37</v>
@@ -6893,7 +6897,7 @@
         <v>37</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>37</v>
@@ -6913,10 +6917,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6924,10 +6928,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>37</v>
@@ -6936,19 +6940,19 @@
         <v>37</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6974,13 +6978,13 @@
         <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
@@ -6998,28 +7002,28 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>37</v>
@@ -7031,7 +7035,7 @@
         <v>37</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AR39" t="s" s="2">
         <v>37</v>
@@ -7039,10 +7043,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7050,10 +7054,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>37</v>
@@ -7062,16 +7066,16 @@
         <v>37</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7122,28 +7126,28 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>37</v>
@@ -7155,7 +7159,7 @@
         <v>37</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AR40" t="s" s="2">
         <v>37</v>
@@ -7163,10 +7167,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7180,28 +7184,28 @@
         <v>38</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>37</v>
@@ -7250,19 +7254,19 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>37</v>
@@ -7271,7 +7275,7 @@
         <v>37</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>37</v>
@@ -7280,10 +7284,10 @@
         <v>37</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AR41" t="s" s="2">
         <v>37</v>
@@ -7291,10 +7295,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7314,22 +7318,22 @@
         <v>37</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>37</v>
@@ -7354,13 +7358,13 @@
         <v>37</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>37</v>
@@ -7378,7 +7382,7 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -7390,28 +7394,28 @@
         <v>37</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AR42" t="s" s="2">
         <v>37</v>
@@ -7419,10 +7423,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7430,28 +7434,28 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7502,10 +7506,10 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>39</v>
@@ -7514,16 +7518,16 @@
         <v>37</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>37</v>
@@ -7543,10 +7547,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7557,7 +7561,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>37</v>
@@ -7569,13 +7573,13 @@
         <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7626,13 +7630,13 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>37</v>
@@ -7647,7 +7651,7 @@
         <v>37</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>37</v>
@@ -7667,14 +7671,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7693,16 +7697,16 @@
         <v>37</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7752,7 +7756,7 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -7764,7 +7768,7 @@
         <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>37</v>
@@ -7773,7 +7777,7 @@
         <v>37</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>37</v>
@@ -7793,14 +7797,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7813,25 +7817,25 @@
         <v>37</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>37</v>
@@ -7880,7 +7884,7 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
@@ -7892,7 +7896,7 @@
         <v>37</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>37</v>
@@ -7901,7 +7905,7 @@
         <v>37</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>37</v>
@@ -7921,10 +7925,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7932,28 +7936,28 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -8004,40 +8008,40 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AR47" t="s" s="2">
         <v>37</v>
@@ -8045,10 +8049,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8059,7 +8063,7 @@
         <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>37</v>
@@ -8071,13 +8075,13 @@
         <v>37</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8128,13 +8132,13 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>37</v>
@@ -8149,7 +8153,7 @@
         <v>37</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>37</v>
@@ -8169,14 +8173,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -8195,16 +8199,16 @@
         <v>37</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8242,19 +8246,19 @@
         <v>37</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
@@ -8266,7 +8270,7 @@
         <v>37</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>37</v>
@@ -8275,7 +8279,7 @@
         <v>37</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
@@ -8295,10 +8299,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8309,29 +8313,29 @@
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>37</v>
@@ -8344,7 +8348,7 @@
         <v>37</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>37</v>
@@ -8356,13 +8360,13 @@
         <v>37</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>37</v>
@@ -8380,19 +8384,19 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>37</v>
@@ -8401,7 +8405,7 @@
         <v>37</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>37</v>
@@ -8410,21 +8414,21 @@
         <v>37</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AR50" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8444,20 +8448,20 @@
         <v>37</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>37</v>
@@ -8470,7 +8474,7 @@
         <v>37</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>37</v>
@@ -8482,13 +8486,13 @@
         <v>37</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>37</v>
@@ -8506,19 +8510,19 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>37</v>
@@ -8527,7 +8531,7 @@
         <v>37</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>37</v>
@@ -8547,10 +8551,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8561,10 +8565,10 @@
         <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>37</v>
@@ -8573,19 +8577,19 @@
         <v>37</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>37</v>
@@ -8634,19 +8638,19 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>37</v>
@@ -8655,7 +8659,7 @@
         <v>37</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>37</v>
@@ -8664,21 +8668,21 @@
         <v>37</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AQ52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AR52" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8692,28 +8696,28 @@
         <v>38</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>37</v>
@@ -8726,7 +8730,7 @@
         <v>37</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>37</v>
@@ -8762,19 +8766,19 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>37</v>
@@ -8783,7 +8787,7 @@
         <v>37</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>37</v>
@@ -8792,7 +8796,7 @@
         <v>37</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AQ53" t="s" s="2">
         <v>37</v>
@@ -8803,10 +8807,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8826,22 +8830,22 @@
         <v>37</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>37</v>
@@ -8890,19 +8894,19 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>37</v>
@@ -8911,7 +8915,7 @@
         <v>37</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>37</v>
@@ -8931,10 +8935,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8954,22 +8958,22 @@
         <v>37</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>37</v>
@@ -9018,19 +9022,19 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>37</v>
@@ -9039,7 +9043,7 @@
         <v>37</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>37</v>
@@ -9059,10 +9063,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9073,29 +9077,29 @@
         <v>38</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>37</v>
@@ -9108,7 +9112,7 @@
         <v>37</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>37</v>
@@ -9144,19 +9148,19 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>37</v>
@@ -9165,7 +9169,7 @@
         <v>37</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>37</v>
@@ -9180,15 +9184,15 @@
         <v>37</v>
       </c>
       <c r="AR56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9202,26 +9206,26 @@
         <v>38</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>37</v>
@@ -9270,19 +9274,19 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>37</v>
@@ -9291,7 +9295,7 @@
         <v>37</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>37</v>
@@ -9311,10 +9315,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9328,25 +9332,25 @@
         <v>38</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9372,11 +9376,11 @@
         <v>37</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>37</v>
@@ -9394,31 +9398,31 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>37</v>
@@ -9427,7 +9431,7 @@
         <v>37</v>
       </c>
       <c r="AQ58" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AR58" t="s" s="2">
         <v>37</v>
@@ -9435,10 +9439,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9449,28 +9453,28 @@
         <v>38</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9520,19 +9524,19 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>37</v>
@@ -9541,7 +9545,7 @@
         <v>37</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>37</v>
@@ -9561,10 +9565,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9575,7 +9579,7 @@
         <v>38</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>37</v>
@@ -9587,13 +9591,13 @@
         <v>37</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9644,13 +9648,13 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>37</v>
@@ -9665,7 +9669,7 @@
         <v>37</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>37</v>
@@ -9685,14 +9689,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9711,16 +9715,16 @@
         <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9770,7 +9774,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -9782,7 +9786,7 @@
         <v>37</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>37</v>
@@ -9791,7 +9795,7 @@
         <v>37</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>37</v>
@@ -9811,14 +9815,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9831,25 +9835,25 @@
         <v>37</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>37</v>
@@ -9898,7 +9902,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
@@ -9910,7 +9914,7 @@
         <v>37</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>37</v>
@@ -9919,7 +9923,7 @@
         <v>37</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>37</v>
@@ -9939,10 +9943,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9956,7 +9960,7 @@
         <v>38</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>37</v>
@@ -9965,13 +9969,13 @@
         <v>37</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -10022,7 +10026,7 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
@@ -10034,22 +10038,22 @@
         <v>37</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>37</v>
@@ -10063,10 +10067,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10089,16 +10093,16 @@
         <v>37</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10124,13 +10128,13 @@
         <v>37</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>37</v>
@@ -10148,7 +10152,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
@@ -10160,16 +10164,16 @@
         <v>37</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>37</v>
@@ -10181,7 +10185,7 @@
         <v>37</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AR64" t="s" s="2">
         <v>37</v>
@@ -10189,10 +10193,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10203,25 +10207,25 @@
         <v>38</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10272,31 +10276,31 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>37</v>
@@ -10305,7 +10309,7 @@
         <v>37</v>
       </c>
       <c r="AQ65" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AR65" t="s" s="2">
         <v>37</v>
@@ -10313,10 +10317,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10327,7 +10331,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>37</v>
@@ -10339,13 +10343,13 @@
         <v>37</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10396,13 +10400,13 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>37</v>
@@ -10417,7 +10421,7 @@
         <v>37</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>37</v>
@@ -10437,14 +10441,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10463,16 +10467,16 @@
         <v>37</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10510,19 +10514,19 @@
         <v>37</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
@@ -10534,7 +10538,7 @@
         <v>37</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>37</v>
@@ -10543,7 +10547,7 @@
         <v>37</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>37</v>
@@ -10563,10 +10567,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10577,7 +10581,7 @@
         <v>38</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>37</v>
@@ -10586,19 +10590,19 @@
         <v>37</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10648,19 +10652,19 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>37</v>
@@ -10669,7 +10673,7 @@
         <v>37</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>37</v>
@@ -10678,21 +10682,21 @@
         <v>37</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AQ68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AR68" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10703,7 +10707,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>37</v>
@@ -10712,26 +10716,26 @@
         <v>37</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="Q69" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R69" t="s" s="2">
         <v>37</v>
@@ -10776,19 +10780,19 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>37</v>
@@ -10797,7 +10801,7 @@
         <v>37</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>37</v>
@@ -10806,21 +10810,21 @@
         <v>37</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AQ69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AR69" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10843,13 +10847,13 @@
         <v>37</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10876,13 +10880,13 @@
         <v>37</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>37</v>
@@ -10900,31 +10904,31 @@
         <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>37</v>
@@ -10933,7 +10937,7 @@
         <v>37</v>
       </c>
       <c r="AQ70" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AR70" t="s" s="2">
         <v>37</v>
@@ -10941,10 +10945,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10967,19 +10971,19 @@
         <v>37</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>37</v>
@@ -11004,13 +11008,13 @@
         <v>37</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>37</v>
@@ -11028,32 +11032,32 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AN71" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="AO71" t="s" s="2">
         <v>37</v>
       </c>
@@ -11061,7 +11065,7 @@
         <v>37</v>
       </c>
       <c r="AQ71" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AR71" t="s" s="2">
         <v>37</v>
@@ -11069,10 +11073,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11095,13 +11099,13 @@
         <v>37</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -11152,31 +11156,31 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>37</v>
@@ -11185,7 +11189,7 @@
         <v>37</v>
       </c>
       <c r="AQ72" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AR72" t="s" s="2">
         <v>37</v>
@@ -11193,10 +11197,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11210,7 +11214,7 @@
         <v>39</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>37</v>
@@ -11219,16 +11223,16 @@
         <v>37</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11278,7 +11282,7 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
@@ -11290,19 +11294,19 @@
         <v>37</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>37</v>
@@ -11311,10 +11315,10 @@
         <v>37</v>
       </c>
       <c r="AQ73" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AR73" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T09:48:15-05:00</t>
+    <t>2023-08-25T12:12:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T12:12:31-05:00</t>
+    <t>2023-08-25T14:41:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T14:41:58-05:00</t>
+    <t>2023-08-31T15:33:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.2.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:33:32-05:00</t>
+    <t>2023-09-22T11:03:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.4</t>
+    <t>0.2.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T11:03:56-05:00</t>
+    <t>2023-10-06T11:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.5</t>
+    <t>0.2.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T11:35:14-05:00</t>
+    <t>2023-10-20T10:16:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AS$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AS$81</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3359" uniqueCount="637">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7</t>
+    <t>0.2.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T14:14:41-06:00</t>
+    <t>2023-11-30T14:00:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -926,7 +926,7 @@
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
-    <t>NoteTO.type{PN, DS, ?}</t>
+    <t>NoteTO.type{PN, DS, CR, ?}</t>
   </si>
   <si>
     <t>DocumentReference.type.text</t>
@@ -1156,6 +1156,108 @@
   </si>
   <si>
     <t>GetPractitioner(NoteTO.approvedBy.[AuthorTO])</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator.extension:when</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/noteAuthenticatedWhen}
+</t>
+  </si>
+  <si>
+    <t>When the authentication happened</t>
+  </si>
+  <si>
+    <t>DateTime of when the authentication happened</t>
+  </si>
+  <si>
+    <t>ConvertDate(NoteTO.procTimestamp)</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>DocumentReference.custodian</t>
@@ -2213,7 +2315,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AS74"/>
+  <dimension ref="A1:AS81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6674,10 +6776,10 @@
         <v>83</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>82</v>
@@ -6686,17 +6788,15 @@
         <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>243</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>370</v>
+        <v>179</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6745,7 +6845,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>369</v>
+        <v>181</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>83</v>
@@ -6757,16 +6857,16 @@
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>350</v>
+        <v>82</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>374</v>
+        <v>182</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
@@ -6789,21 +6889,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
@@ -6812,19 +6912,19 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>376</v>
+        <v>141</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>377</v>
+        <v>142</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>378</v>
+        <v>185</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>379</v>
+        <v>144</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6862,19 +6962,19 @@
         <v>82</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>375</v>
+        <v>188</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>83</v>
@@ -6886,16 +6986,16 @@
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>381</v>
+        <v>182</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>82</v>
@@ -6907,7 +7007,7 @@
         <v>82</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>382</v>
+        <v>82</v>
       </c>
       <c r="AR36" t="s" s="2">
         <v>82</v>
@@ -6918,12 +7018,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6935,7 +7037,7 @@
         <v>95</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>82</v>
@@ -6944,13 +7046,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>178</v>
+        <v>373</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>179</v>
+        <v>374</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>180</v>
+        <v>375</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -7001,19 +7103,19 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>82</v>
@@ -7022,7 +7124,7 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>82</v>
@@ -7037,29 +7139,29 @@
         <v>82</v>
       </c>
       <c r="AR37" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="AS37" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -7068,19 +7170,19 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>142</v>
+        <v>378</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>185</v>
+        <v>379</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>144</v>
+        <v>380</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -7130,19 +7232,19 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>188</v>
+        <v>381</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>82</v>
+        <v>382</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
@@ -7151,7 +7253,7 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>82</v>
@@ -7174,46 +7276,44 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>386</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
       </c>
@@ -7237,13 +7337,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>82</v>
+        <v>388</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -7267,13 +7367,13 @@
         <v>83</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>82</v>
@@ -7316,7 +7416,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>95</v>
@@ -7331,7 +7431,7 @@
         <v>96</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>391</v>
@@ -7366,34 +7466,34 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="AG40" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>95</v>
@@ -7408,10 +7508,10 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>396</v>
+        <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>82</v>
@@ -7423,7 +7523,7 @@
         <v>82</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="AR40" t="s" s="2">
         <v>82</v>
@@ -7434,10 +7534,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7445,7 +7545,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>95</v>
@@ -7460,15 +7560,17 @@
         <v>96</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>400</v>
+        <v>178</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7517,10 +7619,10 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>95</v>
@@ -7535,10 +7637,10 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>403</v>
+        <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>404</v>
+        <v>138</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>82</v>
@@ -7550,7 +7652,7 @@
         <v>82</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="AR41" t="s" s="2">
         <v>82</v>
@@ -7561,10 +7663,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7584,23 +7686,21 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>178</v>
+        <v>243</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7648,7 +7748,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>83</v>
@@ -7663,13 +7763,13 @@
         <v>107</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>82</v>
+        <v>405</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>82</v>
@@ -7678,10 +7778,10 @@
         <v>82</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>412</v>
+        <v>82</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>413</v>
+        <v>82</v>
       </c>
       <c r="AR42" t="s" s="2">
         <v>82</v>
@@ -7692,10 +7792,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7718,20 +7818,18 @@
         <v>96</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>203</v>
+        <v>408</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7755,13 +7853,13 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>419</v>
+        <v>82</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>420</v>
+        <v>82</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -7779,7 +7877,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>83</v>
@@ -7797,22 +7895,22 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>423</v>
+        <v>82</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>424</v>
+        <v>82</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="AR43" t="s" s="2">
         <v>82</v>
@@ -7823,10 +7921,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7834,28 +7932,28 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>376</v>
+        <v>178</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>427</v>
+        <v>179</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>428</v>
+        <v>180</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7906,28 +8004,28 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>426</v>
+        <v>181</v>
       </c>
       <c r="AG44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH44" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AH44" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>430</v>
+        <v>182</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>82</v>
@@ -7950,21 +8048,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7976,15 +8074,17 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -8033,19 +8133,19 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -8077,14 +8177,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>140</v>
+        <v>418</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -8097,24 +8197,26 @@
         <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>141</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>142</v>
+        <v>419</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>185</v>
+        <v>420</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="O46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -8162,7 +8264,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>188</v>
+        <v>421</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>83</v>
@@ -8183,7 +8285,7 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>82</v>
@@ -8206,46 +8308,44 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>386</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
@@ -8269,13 +8369,13 @@
         <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
@@ -8293,28 +8393,28 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>82</v>
+        <v>428</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>138</v>
+        <v>429</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>82</v>
@@ -8326,7 +8426,7 @@
         <v>82</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>82</v>
+        <v>430</v>
       </c>
       <c r="AR47" t="s" s="2">
         <v>82</v>
@@ -8337,10 +8437,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8354,7 +8454,7 @@
         <v>95</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -8363,13 +8463,13 @@
         <v>96</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8420,7 +8520,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>95</v>
@@ -8432,28 +8532,28 @@
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>438</v>
+        <v>107</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>441</v>
+        <v>82</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="AR48" t="s" s="2">
         <v>82</v>
@@ -8464,10 +8564,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8478,28 +8578,32 @@
         <v>83</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>178</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>179</v>
+        <v>439</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
@@ -8547,7 +8651,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>181</v>
+        <v>438</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>83</v>
@@ -8559,7 +8663,7 @@
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -8568,7 +8672,7 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>182</v>
+        <v>443</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>82</v>
@@ -8577,10 +8681,10 @@
         <v>82</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>82</v>
+        <v>444</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>82</v>
+        <v>445</v>
       </c>
       <c r="AR49" t="s" s="2">
         <v>82</v>
@@ -8591,21 +8695,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8614,21 +8718,23 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>142</v>
+        <v>447</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>185</v>
+        <v>448</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
       </c>
@@ -8652,31 +8758,31 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>82</v>
+        <v>451</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>82</v>
+        <v>452</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>188</v>
+        <v>446</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>83</v>
@@ -8688,28 +8794,28 @@
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>182</v>
+        <v>454</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>82</v>
+        <v>456</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>82</v>
+        <v>457</v>
       </c>
       <c r="AR50" t="s" s="2">
         <v>82</v>
@@ -8720,10 +8826,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8731,7 +8837,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>95</v>
@@ -8746,18 +8852,16 @@
         <v>96</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>115</v>
+        <v>408</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>448</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8769,7 +8873,7 @@
         <v>82</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>449</v>
+        <v>82</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>82</v>
@@ -8781,13 +8885,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>450</v>
+        <v>82</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>451</v>
+        <v>82</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8805,13 +8909,13 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>82</v>
@@ -8823,10 +8927,10 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>82</v>
+        <v>461</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>82</v>
@@ -8835,24 +8939,24 @@
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>454</v>
+        <v>82</v>
       </c>
       <c r="AQ51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR51" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="AS51" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8863,7 +8967,7 @@
         <v>83</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -8872,21 +8976,19 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>457</v>
+        <v>179</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>458</v>
+        <v>180</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>459</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>82</v>
       </c>
@@ -8898,7 +9000,7 @@
         <v>82</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>460</v>
+        <v>82</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>82</v>
@@ -8910,13 +9012,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8934,7 +9036,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>461</v>
+        <v>181</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>83</v>
@@ -8946,7 +9048,7 @@
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
@@ -8955,7 +9057,7 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>462</v>
+        <v>182</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>82</v>
@@ -8978,24 +9080,24 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>82</v>
@@ -9004,20 +9106,18 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>464</v>
+        <v>141</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>465</v>
+        <v>142</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>466</v>
+        <v>185</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>82</v>
       </c>
@@ -9065,19 +9165,19 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>469</v>
+        <v>188</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>470</v>
+        <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
@@ -9086,7 +9186,7 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>471</v>
+        <v>182</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>82</v>
@@ -9095,59 +9195,59 @@
         <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="AQ53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR53" t="s" s="2">
-        <v>473</v>
+        <v>82</v>
       </c>
       <c r="AS53" t="s" s="2">
-        <v>473</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>82</v>
+        <v>418</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>475</v>
+        <v>141</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>476</v>
+        <v>419</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>477</v>
+        <v>420</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>478</v>
+        <v>144</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>479</v>
+        <v>150</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -9160,7 +9260,7 @@
         <v>82</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>480</v>
+        <v>82</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>82</v>
@@ -9196,19 +9296,19 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>481</v>
+        <v>421</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>470</v>
+        <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
@@ -9217,7 +9317,7 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>482</v>
+        <v>138</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>82</v>
@@ -9226,7 +9326,7 @@
         <v>82</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>483</v>
+        <v>82</v>
       </c>
       <c r="AQ54" t="s" s="2">
         <v>82</v>
@@ -9240,10 +9340,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9251,13 +9351,13 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9266,20 +9366,16 @@
         <v>96</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>489</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>82</v>
       </c>
@@ -9327,10 +9423,10 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>95</v>
@@ -9339,28 +9435,28 @@
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>107</v>
+        <v>470</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>82</v>
+        <v>473</v>
       </c>
       <c r="AQ55" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
       <c r="AR55" t="s" s="2">
         <v>82</v>
@@ -9371,10 +9467,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9385,7 +9481,7 @@
         <v>83</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -9394,23 +9490,19 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>464</v>
+        <v>178</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>493</v>
+        <v>179</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>82</v>
       </c>
@@ -9458,7 +9550,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>497</v>
+        <v>181</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>83</v>
@@ -9470,7 +9562,7 @@
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
@@ -9479,7 +9571,7 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>498</v>
+        <v>182</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>82</v>
@@ -9502,44 +9594,44 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>500</v>
+        <v>142</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>82</v>
       </c>
@@ -9551,7 +9643,7 @@
         <v>82</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>503</v>
+        <v>82</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>82</v>
@@ -9575,31 +9667,31 @@
         <v>82</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>504</v>
+        <v>188</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -9608,7 +9700,7 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>505</v>
+        <v>182</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>82</v>
@@ -9623,18 +9715,18 @@
         <v>82</v>
       </c>
       <c r="AR57" t="s" s="2">
-        <v>506</v>
+        <v>82</v>
       </c>
       <c r="AS57" t="s" s="2">
-        <v>506</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9645,7 +9737,7 @@
         <v>83</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>96</v>
@@ -9657,17 +9749,17 @@
         <v>96</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>508</v>
+        <v>115</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>509</v>
+        <v>478</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9680,7 +9772,7 @@
         <v>82</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>82</v>
+        <v>481</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>82</v>
@@ -9692,13 +9784,13 @@
         <v>82</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>82</v>
+        <v>483</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
@@ -9716,7 +9808,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>83</v>
@@ -9737,7 +9829,7 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>82</v>
@@ -9746,24 +9838,24 @@
         <v>82</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>82</v>
+        <v>486</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR58" t="s" s="2">
-        <v>82</v>
+        <v>487</v>
       </c>
       <c r="AS58" t="s" s="2">
-        <v>82</v>
+        <v>487</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9777,7 +9869,7 @@
         <v>83</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>82</v>
@@ -9786,18 +9878,18 @@
         <v>96</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>286</v>
+        <v>115</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9809,7 +9901,7 @@
         <v>82</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>82</v>
@@ -9821,11 +9913,13 @@
         <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y59" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="Z59" t="s" s="2">
-        <v>517</v>
+        <v>121</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -9843,7 +9937,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>83</v>
@@ -9861,13 +9955,13 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>518</v>
+        <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>430</v>
+        <v>494</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>519</v>
+        <v>82</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9876,7 +9970,7 @@
         <v>82</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>520</v>
+        <v>82</v>
       </c>
       <c r="AR59" t="s" s="2">
         <v>82</v>
@@ -9887,10 +9981,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9910,21 +10004,23 @@
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>376</v>
+        <v>496</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9972,7 +10068,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>83</v>
@@ -9981,7 +10077,7 @@
         <v>95</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>82</v>
+        <v>502</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>107</v>
@@ -9993,7 +10089,7 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>82</v>
@@ -10002,24 +10098,24 @@
         <v>82</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR60" t="s" s="2">
-        <v>82</v>
+        <v>505</v>
       </c>
       <c r="AS60" t="s" s="2">
-        <v>82</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10030,28 +10126,32 @@
         <v>83</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>178</v>
+        <v>507</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>179</v>
+        <v>508</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
       </c>
@@ -10063,7 +10163,7 @@
         <v>82</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>82</v>
+        <v>512</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>82</v>
@@ -10099,7 +10199,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>181</v>
+        <v>513</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
@@ -10108,10 +10208,10 @@
         <v>95</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>82</v>
+        <v>502</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
@@ -10120,7 +10220,7 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>182</v>
+        <v>514</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>82</v>
@@ -10129,7 +10229,7 @@
         <v>82</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>82</v>
+        <v>515</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>82</v>
@@ -10143,21 +10243,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
@@ -10166,21 +10266,23 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>141</v>
+        <v>517</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>142</v>
+        <v>518</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>185</v>
+        <v>519</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>520</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
@@ -10228,19 +10330,19 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>188</v>
+        <v>522</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
@@ -10249,7 +10351,7 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>182</v>
+        <v>523</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>82</v>
@@ -10272,45 +10374,45 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>386</v>
+        <v>82</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>141</v>
+        <v>496</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>387</v>
+        <v>525</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>388</v>
+        <v>526</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>144</v>
+        <v>527</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>150</v>
+        <v>528</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -10359,19 +10461,19 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>389</v>
+        <v>529</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
@@ -10380,7 +10482,7 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>138</v>
+        <v>530</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>82</v>
@@ -10403,10 +10505,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10417,7 +10519,7 @@
         <v>83</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>96</v>
@@ -10426,19 +10528,21 @@
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>530</v>
+        <v>178</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
@@ -10450,7 +10554,7 @@
         <v>82</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>82</v>
+        <v>535</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>82</v>
@@ -10486,13 +10590,13 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
@@ -10501,19 +10605,19 @@
         <v>107</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>533</v>
+        <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>536</v>
+        <v>82</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>82</v>
@@ -10522,18 +10626,18 @@
         <v>82</v>
       </c>
       <c r="AR64" t="s" s="2">
-        <v>82</v>
+        <v>538</v>
       </c>
       <c r="AS64" t="s" s="2">
-        <v>82</v>
+        <v>538</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10547,27 +10651,27 @@
         <v>83</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>203</v>
+        <v>540</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
       </c>
@@ -10591,13 +10695,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>309</v>
+        <v>82</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>541</v>
+        <v>82</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>542</v>
+        <v>82</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -10615,13 +10719,13 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>82</v>
@@ -10633,10 +10737,10 @@
         <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>543</v>
+        <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>82</v>
@@ -10648,7 +10752,7 @@
         <v>82</v>
       </c>
       <c r="AQ65" t="s" s="2">
-        <v>545</v>
+        <v>82</v>
       </c>
       <c r="AR65" t="s" s="2">
         <v>82</v>
@@ -10659,10 +10763,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10673,7 +10777,7 @@
         <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>96</v>
@@ -10685,15 +10789,17 @@
         <v>96</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10718,13 +10824,11 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>82</v>
+        <v>549</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10742,7 +10846,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>83</v>
@@ -10760,10 +10864,10 @@
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>550</v>
+        <v>462</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>551</v>
@@ -10803,24 +10907,26 @@
         <v>95</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>178</v>
+        <v>408</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>179</v>
+        <v>554</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>555</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>556</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10869,7 +10975,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>181</v>
+        <v>553</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>83</v>
@@ -10881,7 +10987,7 @@
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
@@ -10890,7 +10996,7 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>182</v>
+        <v>557</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>82</v>
@@ -10913,21 +11019,21 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10939,17 +11045,15 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10986,31 +11090,31 @@
         <v>82</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
@@ -11042,21 +11146,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -11065,19 +11169,19 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>508</v>
+        <v>141</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>556</v>
+        <v>142</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>557</v>
+        <v>185</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>558</v>
+        <v>144</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -11127,19 +11231,19 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>559</v>
+        <v>188</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>560</v>
+        <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -11148,7 +11252,7 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>561</v>
+        <v>182</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>82</v>
@@ -11157,64 +11261,64 @@
         <v>82</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>562</v>
+        <v>82</v>
       </c>
       <c r="AQ69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR69" t="s" s="2">
-        <v>563</v>
+        <v>82</v>
       </c>
       <c r="AS69" t="s" s="2">
-        <v>563</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>82</v>
+        <v>418</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>508</v>
+        <v>141</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>565</v>
+        <v>419</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>566</v>
+        <v>420</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q70" t="s" s="2">
-        <v>568</v>
-      </c>
+      <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
         <v>82</v>
       </c>
@@ -11258,19 +11362,19 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>569</v>
+        <v>421</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>560</v>
+        <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
@@ -11279,7 +11383,7 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>570</v>
+        <v>138</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>82</v>
@@ -11288,24 +11392,24 @@
         <v>82</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>571</v>
+        <v>82</v>
       </c>
       <c r="AQ70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR70" t="s" s="2">
-        <v>572</v>
+        <v>82</v>
       </c>
       <c r="AS70" t="s" s="2">
-        <v>572</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11319,7 +11423,7 @@
         <v>83</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>82</v>
@@ -11328,13 +11432,13 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>203</v>
+        <v>562</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -11361,13 +11465,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>309</v>
+        <v>82</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>576</v>
+        <v>82</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>577</v>
+        <v>82</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -11385,13 +11489,13 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
@@ -11400,25 +11504,25 @@
         <v>107</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>82</v>
+        <v>565</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>580</v>
+        <v>82</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>82</v>
+        <v>568</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AQ71" t="s" s="2">
-        <v>581</v>
+        <v>82</v>
       </c>
       <c r="AR71" t="s" s="2">
         <v>82</v>
@@ -11429,10 +11533,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11458,17 +11562,15 @@
         <v>203</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>586</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
@@ -11495,10 +11597,10 @@
         <v>309</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -11516,13 +11618,13 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
@@ -11534,13 +11636,13 @@
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>578</v>
+        <v>82</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11549,7 +11651,7 @@
         <v>82</v>
       </c>
       <c r="AQ72" t="s" s="2">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="AR72" t="s" s="2">
         <v>82</v>
@@ -11560,10 +11662,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11574,25 +11676,25 @@
         <v>83</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>591</v>
+        <v>235</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11643,7 +11745,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>83</v>
@@ -11661,13 +11763,13 @@
         <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>327</v>
+        <v>581</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>328</v>
+        <v>582</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>329</v>
+        <v>583</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11676,7 +11778,7 @@
         <v>82</v>
       </c>
       <c r="AQ73" t="s" s="2">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="AR73" t="s" s="2">
         <v>82</v>
@@ -11687,10 +11789,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11701,10 +11803,10 @@
         <v>83</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>82</v>
@@ -11713,17 +11815,15 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>596</v>
+        <v>178</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>597</v>
+        <v>179</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>599</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11772,50 +11872,953 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AR74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AS74" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AR75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AS75" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP76" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AQ76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AR76" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="AG74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH74" t="s" s="2">
+      <c r="AS76" t="s" s="2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q77" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP77" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AQ77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AR77" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AS77" t="s" s="2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ78" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AR78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AS78" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ79" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AR79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AS79" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ80" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AR80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AS80" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G81" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AI74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
+      <c r="H81" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AK74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ74" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AR74" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AS74" t="s" s="2">
-        <v>604</v>
+      <c r="AK81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ81" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AR81" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AS81" t="s" s="2">
+        <v>636</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS74">
+  <autoFilter ref="A1:AS81">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11825,7 +12828,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI73">
+  <conditionalFormatting sqref="A2:AI80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8</t>
+    <t>0.2.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-30T14:00:30-06:00</t>
+    <t>2023-12-15T17:23:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -10648,7 +10648,7 @@
         <v>83</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>96</v>
@@ -10755,7 +10755,7 @@
         <v>82</v>
       </c>
       <c r="AR65" t="s" s="2">
-        <v>82</v>
+        <v>344</v>
       </c>
       <c r="AS65" t="s" s="2">
         <v>82</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T17:23:12-06:00</t>
+    <t>2023-12-22T09:54:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AS$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AS$89</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3359" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3688" uniqueCount="689">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T09:54:24-06:00</t>
+    <t>2024-01-19T11:04:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -794,7 +794,7 @@
     <t>DocumentReference.status</t>
   </si>
   <si>
-    <t>current | superseded | entered-in-error</t>
+    <t>May indicate entered-in-error</t>
   </si>
   <si>
     <t>The status of this document reference.</t>
@@ -804,9 +804,6 @@
 This element is labeled as a modifier because the status contains the codes that mark the document or reference as not currently valid.</t>
   </si>
   <si>
-    <t>current</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/document-reference-status</t>
   </si>
   <si>
@@ -823,6 +820,9 @@
   </si>
   <si>
     <t>DocumentEntry.availabilityStatus</t>
+  </si>
+  <si>
+    <t>`current` if not `entered-in-error`</t>
   </si>
   <si>
     <t>`current`</t>
@@ -917,6 +917,10 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -927,6 +931,157 @@
   </si>
   <si>
     <t>NoteTO.type{PN, DS, CR, ?}</t>
+  </si>
+  <si>
+    <t>DocumentReference.type.coding:LO</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/ValueSet/DocumentReferenceTypeVS</t>
+  </si>
+  <si>
+    <t>DocumentReference.type.coding:LO.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.type.coding.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.type.coding:LO.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.type.coding.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.type.coding:LO.system</t>
+  </si>
+  <si>
+    <t>DocumentReference.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>DocumentReference.type.coding:LO.version</t>
+  </si>
+  <si>
+    <t>DocumentReference.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>DocumentReference.type.coding:LO.code</t>
+  </si>
+  <si>
+    <t>DocumentReference.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>DocumentReference.type.coding:LO.display</t>
+  </si>
+  <si>
+    <t>DocumentReference.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>DocumentReference.type.coding:LO.userSelected</t>
+  </si>
+  <si>
+    <t>DocumentReference.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
   </si>
   <si>
     <t>DocumentReference.type.text</t>
@@ -1081,13 +1236,13 @@
     <t>FiveWs.recorded</t>
   </si>
   <si>
-    <t>ConvertDate(NoteTO.timestamp)</t>
+    <t>if timestamp is missing time, then use procTimestamp</t>
   </si>
   <si>
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson|Device)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson|Device) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1124,7 +1279,7 @@
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.practitioner|Practitioner) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1704,6 +1859,9 @@
   </si>
   <si>
     <t>Attachment.creation</t>
+  </si>
+  <si>
+    <t>ConvertDate(NoteTO.timestamp)</t>
   </si>
   <si>
     <t>DocumentReference.content.format</t>
@@ -1962,7 +2120,7 @@
     <t>DocumentReference.context.related</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.location|Location) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -2315,7 +2473,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AS81"/>
+  <dimension ref="A1:AS89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2349,7 +2507,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="125.34375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="85.75390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="99.78515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -2366,8 +2524,8 @@
     <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="82.05078125" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="157.95703125" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="47.328125" customWidth="true" bestFit="true"/>
-    <col min="45" max="45" width="47.328125" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="49.30078125" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" width="49.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5135,7 +5293,7 @@
         <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>82</v>
@@ -5154,7 +5312,7 @@
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>82</v>
@@ -5187,28 +5345,28 @@
         <v>107</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AN22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO22" t="s" s="2">
+      <c r="AP22" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AP22" t="s" s="2">
+      <c r="AQ22" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AQ22" t="s" s="2">
+      <c r="AR22" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AR22" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AS22" t="s" s="2">
         <v>261</v>
@@ -5328,7 +5486,7 @@
         <v>82</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>270</v>
@@ -5739,7 +5897,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>84</v>
@@ -5803,19 +5961,17 @@
         <v>82</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>83</v>
@@ -5836,7 +5992,7 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>82</v>
@@ -5845,32 +6001,34 @@
         <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AS27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>95</v>
@@ -5885,19 +6043,19 @@
         <v>96</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>178</v>
+        <v>286</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5922,13 +6080,11 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>82</v>
+        <v>298</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5946,13 +6102,13 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
@@ -5967,7 +6123,7 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>82</v>
@@ -5976,57 +6132,55 @@
         <v>82</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR28" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="AS28" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="H29" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>306</v>
+        <v>179</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -6051,82 +6205,82 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>309</v>
+        <v>82</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>310</v>
+        <v>82</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>311</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AC29" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>304</v>
+        <v>181</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>313</v>
+        <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>280</v>
+        <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>316</v>
+        <v>82</v>
       </c>
       <c r="AR29" t="s" s="2">
-        <v>317</v>
+        <v>82</v>
       </c>
       <c r="AS29" t="s" s="2">
-        <v>317</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>305</v>
+        <v>140</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -6136,25 +6290,25 @@
         <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>306</v>
+        <v>142</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>307</v>
+        <v>185</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6180,31 +6334,31 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>304</v>
+        <v>188</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>83</v>
@@ -6216,28 +6370,28 @@
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>313</v>
+        <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>280</v>
+        <v>82</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>316</v>
+        <v>82</v>
       </c>
       <c r="AR30" t="s" s="2">
         <v>82</v>
@@ -6248,10 +6402,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6265,7 +6419,7 @@
         <v>95</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6274,16 +6428,20 @@
         <v>96</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>323</v>
+        <v>109</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
       </c>
@@ -6292,7 +6450,7 @@
         <v>82</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>82</v>
+        <v>309</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>82</v>
@@ -6331,7 +6489,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>83</v>
@@ -6346,43 +6504,43 @@
         <v>107</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>327</v>
+        <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>332</v>
+        <v>82</v>
       </c>
       <c r="AR31" t="s" s="2">
-        <v>333</v>
+        <v>82</v>
       </c>
       <c r="AS31" t="s" s="2">
-        <v>333</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -6392,7 +6550,7 @@
         <v>95</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>82</v>
@@ -6401,16 +6559,16 @@
         <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>336</v>
+        <v>178</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6460,7 +6618,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>83</v>
@@ -6475,39 +6633,39 @@
         <v>107</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>340</v>
+        <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR32" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="AS32" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6518,10 +6676,10 @@
         <v>83</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>82</v>
@@ -6530,18 +6688,18 @@
         <v>96</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>346</v>
+        <v>115</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -6589,13 +6747,13 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
@@ -6604,39 +6762,39 @@
         <v>107</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>350</v>
+        <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>351</v>
+        <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>352</v>
+        <v>278</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>353</v>
+        <v>82</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="AR33" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="AS33" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6650,27 +6808,27 @@
         <v>95</v>
       </c>
       <c r="H34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="I34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K34" t="s" s="2">
-        <v>358</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
@@ -6718,7 +6876,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>83</v>
@@ -6733,39 +6891,39 @@
         <v>107</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>350</v>
+        <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>362</v>
+        <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>364</v>
+        <v>82</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>365</v>
+        <v>82</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="AR34" t="s" s="2">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="AS34" t="s" s="2">
-        <v>368</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6785,19 +6943,23 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>178</v>
+        <v>338</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>179</v>
+        <v>339</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6845,7 +7007,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>181</v>
+        <v>343</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>83</v>
@@ -6857,7 +7019,7 @@
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6866,7 +7028,7 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>182</v>
+        <v>344</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
@@ -6875,7 +7037,7 @@
         <v>82</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="AQ35" t="s" s="2">
         <v>82</v>
@@ -6889,21 +7051,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
@@ -6912,21 +7074,23 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>142</v>
+        <v>347</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>185</v>
+        <v>348</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
@@ -6962,31 +7126,31 @@
         <v>82</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>188</v>
+        <v>351</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
@@ -6995,7 +7159,7 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>182</v>
+        <v>352</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>82</v>
@@ -7004,37 +7168,35 @@
         <v>82</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>82</v>
+        <v>353</v>
       </c>
       <c r="AQ36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR36" t="s" s="2">
-        <v>82</v>
+        <v>354</v>
       </c>
       <c r="AS36" t="s" s="2">
-        <v>82</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>96</v>
@@ -7043,18 +7205,20 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>373</v>
+        <v>203</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -7079,31 +7243,29 @@
         <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>82</v>
+        <v>360</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>82</v>
+        <v>361</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>82</v>
+        <v>362</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>188</v>
+        <v>355</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>83</v>
@@ -7115,56 +7277,58 @@
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>82</v>
+        <v>364</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>82</v>
+        <v>365</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>82</v>
+        <v>366</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>82</v>
+        <v>280</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="AR37" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AS37" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="D38" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>82</v>
@@ -7173,16 +7337,16 @@
         <v>96</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -7208,13 +7372,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>82</v>
+        <v>372</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -7232,16 +7396,16 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>382</v>
+        <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>107</v>
@@ -7250,22 +7414,22 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>82</v>
+        <v>364</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>138</v>
+        <v>365</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>82</v>
+        <v>366</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>82</v>
+        <v>280</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="AR38" t="s" s="2">
         <v>82</v>
@@ -7276,10 +7440,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7287,13 +7451,13 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>82</v>
@@ -7302,17 +7466,15 @@
         <v>96</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>109</v>
+        <v>374</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7337,13 +7499,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>387</v>
+        <v>82</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>388</v>
+        <v>82</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -7361,7 +7523,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>83</v>
@@ -7376,43 +7538,43 @@
         <v>107</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>82</v>
+        <v>377</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>82</v>
+        <v>378</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>138</v>
+        <v>379</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>82</v>
+        <v>380</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>82</v>
+        <v>381</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>82</v>
+        <v>382</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="AR39" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="AS39" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7422,7 +7584,7 @@
         <v>95</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>82</v>
@@ -7431,16 +7593,16 @@
         <v>96</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>153</v>
+        <v>387</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7490,7 +7652,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>83</v>
@@ -7505,31 +7667,31 @@
         <v>107</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AP40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AR40" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AN40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AR40" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AS40" t="s" s="2">
-        <v>82</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" hidden="true">
@@ -7548,10 +7710,10 @@
         <v>83</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>82</v>
@@ -7560,16 +7722,16 @@
         <v>96</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>178</v>
+        <v>397</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7619,13 +7781,13 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
@@ -7634,39 +7796,39 @@
         <v>107</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>138</v>
+        <v>403</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>82</v>
+        <v>404</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>82</v>
+        <v>405</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>82</v>
+        <v>406</v>
       </c>
       <c r="AR41" t="s" s="2">
-        <v>82</v>
+        <v>407</v>
       </c>
       <c r="AS41" t="s" s="2">
-        <v>82</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7677,7 +7839,7 @@
         <v>83</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>96</v>
@@ -7689,16 +7851,16 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>243</v>
+        <v>409</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7748,7 +7910,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>83</v>
@@ -7763,39 +7925,39 @@
         <v>107</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>82</v>
+        <v>416</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>82</v>
+        <v>417</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>82</v>
+        <v>418</v>
       </c>
       <c r="AR42" t="s" s="2">
-        <v>82</v>
+        <v>419</v>
       </c>
       <c r="AS42" t="s" s="2">
-        <v>82</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7806,7 +7968,7 @@
         <v>83</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -7815,20 +7977,18 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>408</v>
+        <v>178</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>409</v>
+        <v>179</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7877,28 +8037,28 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>407</v>
+        <v>181</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>412</v>
+        <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>413</v>
+        <v>182</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>82</v>
@@ -7910,7 +8070,7 @@
         <v>82</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>414</v>
+        <v>82</v>
       </c>
       <c r="AR43" t="s" s="2">
         <v>82</v>
@@ -7921,21 +8081,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -7947,15 +8107,17 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7992,31 +8154,31 @@
         <v>82</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
@@ -8048,24 +8210,26 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="D45" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>82</v>
@@ -8074,17 +8238,15 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>141</v>
+        <v>424</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>142</v>
+        <v>425</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -8154,7 +8316,7 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>82</v>
@@ -8169,54 +8331,52 @@
         <v>82</v>
       </c>
       <c r="AR45" t="s" s="2">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="AS45" t="s" s="2">
-        <v>82</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>418</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -8264,19 +8424,19 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>82</v>
+        <v>433</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -8308,10 +8468,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8319,7 +8479,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>95</v>
@@ -8334,16 +8494,16 @@
         <v>96</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8369,13 +8529,13 @@
         <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
@@ -8393,10 +8553,10 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>95</v>
@@ -8411,10 +8571,10 @@
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>428</v>
+        <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>429</v>
+        <v>138</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>82</v>
@@ -8426,7 +8586,7 @@
         <v>82</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>430</v>
+        <v>82</v>
       </c>
       <c r="AR47" t="s" s="2">
         <v>82</v>
@@ -8437,10 +8597,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8448,7 +8608,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>95</v>
@@ -8463,15 +8623,17 @@
         <v>96</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>432</v>
+        <v>153</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -8520,10 +8682,10 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>95</v>
@@ -8538,10 +8700,10 @@
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>435</v>
+        <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>82</v>
@@ -8553,7 +8715,7 @@
         <v>82</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>437</v>
+        <v>82</v>
       </c>
       <c r="AR48" t="s" s="2">
         <v>82</v>
@@ -8564,10 +8726,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8578,10 +8740,10 @@
         <v>83</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>82</v>
@@ -8593,17 +8755,15 @@
         <v>178</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
@@ -8651,7 +8811,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>83</v>
@@ -8672,7 +8832,7 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>443</v>
+        <v>138</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>82</v>
@@ -8681,10 +8841,10 @@
         <v>82</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>444</v>
+        <v>82</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>445</v>
+        <v>82</v>
       </c>
       <c r="AR49" t="s" s="2">
         <v>82</v>
@@ -8695,10 +8855,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8712,29 +8872,27 @@
         <v>83</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>82</v>
       </c>
@@ -8758,37 +8916,37 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>451</v>
+        <v>82</v>
       </c>
       <c r="Z50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF50" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AA50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="AG50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
@@ -8797,25 +8955,25 @@
         <v>107</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>456</v>
+        <v>82</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>457</v>
+        <v>82</v>
       </c>
       <c r="AR50" t="s" s="2">
         <v>82</v>
@@ -8837,13 +8995,13 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>82</v>
@@ -8852,15 +9010,17 @@
         <v>96</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8912,7 +9072,7 @@
         <v>458</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>84</v>
@@ -8927,10 +9087,10 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>82</v>
@@ -8942,7 +9102,7 @@
         <v>82</v>
       </c>
       <c r="AQ51" t="s" s="2">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="AR51" t="s" s="2">
         <v>82</v>
@@ -8953,10 +9113,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -9080,10 +9240,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9209,14 +9369,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -9238,10 +9398,10 @@
         <v>141</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>144</v>
@@ -9296,7 +9456,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>83</v>
@@ -9340,10 +9500,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9357,7 +9517,7 @@
         <v>95</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9366,15 +9526,17 @@
         <v>96</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>467</v>
+        <v>115</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9399,13 +9561,13 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>82</v>
+        <v>477</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>82</v>
+        <v>478</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
@@ -9423,7 +9585,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>95</v>
@@ -9435,28 +9597,28 @@
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>470</v>
+        <v>107</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>473</v>
+        <v>82</v>
       </c>
       <c r="AQ55" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="AR55" t="s" s="2">
         <v>82</v>
@@ -9467,10 +9629,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9478,7 +9640,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>95</v>
@@ -9490,16 +9652,16 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>178</v>
+        <v>483</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>179</v>
+        <v>484</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>180</v>
+        <v>485</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9550,10 +9712,10 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>181</v>
+        <v>482</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>95</v>
@@ -9562,16 +9724,16 @@
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>82</v>
+        <v>486</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>182</v>
+        <v>487</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>82</v>
@@ -9583,7 +9745,7 @@
         <v>82</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>82</v>
+        <v>488</v>
       </c>
       <c r="AR56" t="s" s="2">
         <v>82</v>
@@ -9594,44 +9756,46 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>142</v>
+        <v>490</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>185</v>
+        <v>491</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
       </c>
@@ -9667,31 +9831,31 @@
         <v>82</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>188</v>
+        <v>489</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -9700,7 +9864,7 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>182</v>
+        <v>494</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>82</v>
@@ -9709,10 +9873,10 @@
         <v>82</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>82</v>
+        <v>495</v>
       </c>
       <c r="AQ57" t="s" s="2">
-        <v>82</v>
+        <v>496</v>
       </c>
       <c r="AR57" t="s" s="2">
         <v>82</v>
@@ -9723,10 +9887,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9737,10 +9901,10 @@
         <v>83</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9749,17 +9913,19 @@
         <v>96</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>115</v>
+        <v>203</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="O58" t="s" s="2">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9772,7 +9938,7 @@
         <v>82</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>481</v>
+        <v>82</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>82</v>
@@ -9784,13 +9950,13 @@
         <v>82</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
@@ -9808,13 +9974,13 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>82</v>
@@ -9826,36 +9992,36 @@
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="AQ58" t="s" s="2">
-        <v>82</v>
+        <v>508</v>
       </c>
       <c r="AR58" t="s" s="2">
-        <v>487</v>
+        <v>82</v>
       </c>
       <c r="AS58" t="s" s="2">
-        <v>487</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9863,13 +10029,13 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>82</v>
@@ -9878,18 +10044,16 @@
         <v>96</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>115</v>
+        <v>459</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>491</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9901,7 +10065,7 @@
         <v>82</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>492</v>
+        <v>82</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>82</v>
@@ -9913,13 +10077,13 @@
         <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -9937,13 +10101,13 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
@@ -9955,10 +10119,10 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>82</v>
+        <v>512</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>82</v>
@@ -9981,10 +10145,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9998,7 +10162,7 @@
         <v>95</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
@@ -10007,20 +10171,16 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>496</v>
+        <v>178</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>497</v>
+        <v>179</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
@@ -10068,7 +10228,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>501</v>
+        <v>181</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>83</v>
@@ -10077,10 +10237,10 @@
         <v>95</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>502</v>
+        <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
@@ -10089,7 +10249,7 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>503</v>
+        <v>182</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>82</v>
@@ -10098,60 +10258,58 @@
         <v>82</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>504</v>
+        <v>82</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR60" t="s" s="2">
-        <v>505</v>
+        <v>82</v>
       </c>
       <c r="AS60" t="s" s="2">
-        <v>505</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>507</v>
+        <v>141</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>508</v>
+        <v>142</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>509</v>
+        <v>185</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>82</v>
       </c>
@@ -10163,7 +10321,7 @@
         <v>82</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>512</v>
+        <v>82</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>82</v>
@@ -10199,19 +10357,19 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>513</v>
+        <v>188</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>502</v>
+        <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
@@ -10220,7 +10378,7 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>514</v>
+        <v>182</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>82</v>
@@ -10229,7 +10387,7 @@
         <v>82</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>515</v>
+        <v>82</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>82</v>
@@ -10250,38 +10408,38 @@
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>82</v>
+        <v>469</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>517</v>
+        <v>141</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>518</v>
+        <v>470</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>519</v>
+        <v>471</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>520</v>
+        <v>144</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>521</v>
+        <v>150</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -10330,19 +10488,19 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>522</v>
+        <v>472</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
@@ -10351,7 +10509,7 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>523</v>
+        <v>138</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>82</v>
@@ -10374,10 +10532,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10385,13 +10543,13 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>82</v>
@@ -10400,20 +10558,16 @@
         <v>96</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>82</v>
       </c>
@@ -10461,10 +10615,10 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>95</v>
@@ -10473,28 +10627,28 @@
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>107</v>
+        <v>521</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>82</v>
+        <v>522</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>82</v>
+        <v>523</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>82</v>
+        <v>524</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>82</v>
+        <v>525</v>
       </c>
       <c r="AR63" t="s" s="2">
         <v>82</v>
@@ -10505,10 +10659,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10522,27 +10676,25 @@
         <v>95</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>178</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>532</v>
+        <v>179</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>533</v>
+        <v>180</v>
       </c>
       <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>534</v>
-      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
@@ -10554,7 +10706,7 @@
         <v>82</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>535</v>
+        <v>82</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>82</v>
@@ -10590,7 +10742,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>536</v>
+        <v>181</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>83</v>
@@ -10602,7 +10754,7 @@
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
@@ -10611,7 +10763,7 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>537</v>
+        <v>182</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>82</v>
@@ -10626,52 +10778,52 @@
         <v>82</v>
       </c>
       <c r="AR64" t="s" s="2">
-        <v>538</v>
+        <v>82</v>
       </c>
       <c r="AS64" t="s" s="2">
-        <v>538</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>540</v>
+        <v>141</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>541</v>
+        <v>142</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>82</v>
       </c>
@@ -10707,31 +10859,31 @@
         <v>82</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>544</v>
+        <v>188</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
@@ -10740,7 +10892,7 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>523</v>
+        <v>182</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>82</v>
@@ -10755,7 +10907,7 @@
         <v>82</v>
       </c>
       <c r="AR65" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="AS65" t="s" s="2">
         <v>82</v>
@@ -10763,10 +10915,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10777,7 +10929,7 @@
         <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>96</v>
@@ -10789,18 +10941,18 @@
         <v>96</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>286</v>
+        <v>115</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>530</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>531</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
       </c>
@@ -10812,7 +10964,7 @@
         <v>82</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>82</v>
+        <v>532</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>82</v>
@@ -10824,11 +10976,13 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y66" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="Z66" t="s" s="2">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10846,7 +11000,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>83</v>
@@ -10864,36 +11018,36 @@
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>550</v>
+        <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>462</v>
+        <v>536</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>551</v>
+        <v>82</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>82</v>
+        <v>537</v>
       </c>
       <c r="AQ66" t="s" s="2">
-        <v>552</v>
+        <v>82</v>
       </c>
       <c r="AR66" t="s" s="2">
-        <v>82</v>
+        <v>538</v>
       </c>
       <c r="AS66" t="s" s="2">
-        <v>82</v>
+        <v>538</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10904,10 +11058,10 @@
         <v>83</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -10916,18 +11070,18 @@
         <v>96</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>408</v>
+        <v>115</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
       </c>
@@ -10939,7 +11093,7 @@
         <v>82</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>82</v>
+        <v>543</v>
       </c>
       <c r="U67" t="s" s="2">
         <v>82</v>
@@ -10951,13 +11105,13 @@
         <v>82</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
@@ -10975,7 +11129,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>83</v>
@@ -10996,7 +11150,7 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>82</v>
@@ -11019,10 +11173,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -11036,7 +11190,7 @@
         <v>95</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>82</v>
@@ -11045,16 +11199,20 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>178</v>
+        <v>547</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>179</v>
+        <v>548</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -11102,7 +11260,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>181</v>
+        <v>552</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>83</v>
@@ -11111,10 +11269,10 @@
         <v>95</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>82</v>
+        <v>553</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
@@ -11123,7 +11281,7 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>182</v>
+        <v>554</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>82</v>
@@ -11132,58 +11290,60 @@
         <v>82</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>82</v>
+        <v>555</v>
       </c>
       <c r="AQ68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR68" t="s" s="2">
-        <v>82</v>
+        <v>556</v>
       </c>
       <c r="AS68" t="s" s="2">
-        <v>82</v>
+        <v>556</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>141</v>
+        <v>558</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>142</v>
+        <v>559</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>185</v>
+        <v>560</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
       </c>
@@ -11195,7 +11355,7 @@
         <v>82</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>82</v>
+        <v>563</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>82</v>
@@ -11231,19 +11391,19 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>188</v>
+        <v>564</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>82</v>
+        <v>553</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -11252,7 +11412,7 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>182</v>
+        <v>565</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>82</v>
@@ -11261,7 +11421,7 @@
         <v>82</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>82</v>
+        <v>566</v>
       </c>
       <c r="AQ69" t="s" s="2">
         <v>82</v>
@@ -11275,45 +11435,45 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>418</v>
+        <v>82</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>141</v>
+        <v>568</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>419</v>
+        <v>569</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>420</v>
+        <v>570</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>144</v>
+        <v>571</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>150</v>
+        <v>572</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -11362,19 +11522,19 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>421</v>
+        <v>573</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
@@ -11383,7 +11543,7 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>138</v>
+        <v>574</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>82</v>
@@ -11406,10 +11566,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11423,25 +11583,29 @@
         <v>83</v>
       </c>
       <c r="H71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J71" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="I71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K71" t="s" s="2">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -11489,13 +11653,13 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
@@ -11504,19 +11668,19 @@
         <v>107</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>565</v>
+        <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>566</v>
+        <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>568</v>
+        <v>82</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>82</v>
@@ -11533,10 +11697,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11547,30 +11711,30 @@
         <v>83</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>584</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>585</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
@@ -11582,7 +11746,7 @@
         <v>82</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>82</v>
+        <v>586</v>
       </c>
       <c r="U72" t="s" s="2">
         <v>82</v>
@@ -11594,13 +11758,13 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>309</v>
+        <v>82</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>573</v>
+        <v>82</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>574</v>
+        <v>82</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -11618,13 +11782,13 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
@@ -11636,10 +11800,10 @@
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>575</v>
+        <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
@@ -11651,21 +11815,21 @@
         <v>82</v>
       </c>
       <c r="AQ72" t="s" s="2">
-        <v>577</v>
+        <v>82</v>
       </c>
       <c r="AR72" t="s" s="2">
-        <v>82</v>
+        <v>589</v>
       </c>
       <c r="AS72" t="s" s="2">
-        <v>82</v>
+        <v>589</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11688,16 +11852,18 @@
         <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>235</v>
+        <v>591</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>594</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
       </c>
@@ -11745,7 +11911,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>83</v>
@@ -11763,13 +11929,13 @@
         <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>581</v>
+        <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>583</v>
+        <v>82</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11778,21 +11944,21 @@
         <v>82</v>
       </c>
       <c r="AQ73" t="s" s="2">
-        <v>584</v>
+        <v>82</v>
       </c>
       <c r="AR73" t="s" s="2">
-        <v>82</v>
+        <v>596</v>
       </c>
       <c r="AS73" t="s" s="2">
-        <v>82</v>
+        <v>596</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11803,27 +11969,29 @@
         <v>83</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>178</v>
+        <v>286</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>179</v>
+        <v>598</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>600</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11848,13 +12016,11 @@
         <v>82</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>82</v>
+        <v>601</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>82</v>
@@ -11872,7 +12038,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>181</v>
+        <v>597</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>83</v>
@@ -11884,19 +12050,19 @@
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>82</v>
+        <v>602</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>182</v>
+        <v>513</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>82</v>
+        <v>603</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11905,7 +12071,7 @@
         <v>82</v>
       </c>
       <c r="AQ74" t="s" s="2">
-        <v>82</v>
+        <v>604</v>
       </c>
       <c r="AR74" t="s" s="2">
         <v>82</v>
@@ -11916,42 +12082,42 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>141</v>
+        <v>459</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>142</v>
+        <v>606</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>185</v>
+        <v>607</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>144</v>
+        <v>608</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11989,31 +12155,31 @@
         <v>82</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>188</v>
+        <v>605</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -12022,7 +12188,7 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>182</v>
+        <v>609</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
@@ -12045,10 +12211,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -12068,20 +12234,18 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>540</v>
+        <v>178</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>588</v>
+        <v>179</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>590</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -12130,7 +12294,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>591</v>
+        <v>181</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>83</v>
@@ -12139,10 +12303,10 @@
         <v>95</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>592</v>
+        <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
@@ -12151,7 +12315,7 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>593</v>
+        <v>182</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>82</v>
@@ -12160,35 +12324,35 @@
         <v>82</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>594</v>
+        <v>82</v>
       </c>
       <c r="AQ76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR76" t="s" s="2">
-        <v>595</v>
+        <v>82</v>
       </c>
       <c r="AS76" t="s" s="2">
-        <v>595</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -12197,27 +12361,25 @@
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>540</v>
+        <v>141</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>597</v>
+        <v>142</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>598</v>
+        <v>185</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>599</v>
+        <v>144</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q77" t="s" s="2">
-        <v>600</v>
-      </c>
+      <c r="Q77" s="2"/>
       <c r="R77" t="s" s="2">
         <v>82</v>
       </c>
@@ -12261,19 +12423,19 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>601</v>
+        <v>188</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>592</v>
+        <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -12282,7 +12444,7 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>602</v>
+        <v>182</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>82</v>
@@ -12291,56 +12453,60 @@
         <v>82</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>603</v>
+        <v>82</v>
       </c>
       <c r="AQ77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR77" t="s" s="2">
-        <v>604</v>
+        <v>82</v>
       </c>
       <c r="AS77" t="s" s="2">
-        <v>604</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>82</v>
+        <v>469</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>606</v>
+        <v>470</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
       </c>
@@ -12364,13 +12530,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>309</v>
+        <v>82</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>608</v>
+        <v>82</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>609</v>
+        <v>82</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -12388,31 +12554,31 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>605</v>
+        <v>472</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>610</v>
+        <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>611</v>
+        <v>138</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>612</v>
+        <v>82</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -12421,7 +12587,7 @@
         <v>82</v>
       </c>
       <c r="AQ78" t="s" s="2">
-        <v>613</v>
+        <v>82</v>
       </c>
       <c r="AR78" t="s" s="2">
         <v>82</v>
@@ -12432,10 +12598,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12449,7 +12615,7 @@
         <v>83</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>82</v>
@@ -12458,7 +12624,7 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>203</v>
+        <v>614</v>
       </c>
       <c r="L79" t="s" s="2">
         <v>615</v>
@@ -12466,12 +12632,8 @@
       <c r="M79" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="N79" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>618</v>
-      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>82</v>
       </c>
@@ -12495,13 +12657,13 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>309</v>
+        <v>82</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>619</v>
+        <v>82</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>620</v>
+        <v>82</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -12519,13 +12681,13 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>82</v>
@@ -12534,25 +12696,25 @@
         <v>107</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>82</v>
+        <v>617</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>610</v>
+        <v>82</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>82</v>
+        <v>620</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AQ79" t="s" s="2">
-        <v>621</v>
+        <v>82</v>
       </c>
       <c r="AR79" t="s" s="2">
         <v>82</v>
@@ -12563,10 +12725,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12589,15 +12751,17 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="M80" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -12622,13 +12786,13 @@
         <v>82</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>82</v>
+        <v>360</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>82</v>
+        <v>625</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>82</v>
+        <v>626</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12646,13 +12810,13 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>82</v>
@@ -12664,13 +12828,13 @@
         <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>327</v>
+        <v>627</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>328</v>
+        <v>628</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -12679,7 +12843,7 @@
         <v>82</v>
       </c>
       <c r="AQ80" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="AR80" t="s" s="2">
         <v>82</v>
@@ -12690,10 +12854,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12704,7 +12868,7 @@
         <v>83</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>96</v>
@@ -12713,20 +12877,18 @@
         <v>82</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>628</v>
+        <v>235</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>631</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12775,13 +12937,13 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>82</v>
@@ -12793,13 +12955,13 @@
         <v>82</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12808,17 +12970,1047 @@
         <v>82</v>
       </c>
       <c r="AQ81" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AR81" t="s" s="2">
-        <v>636</v>
+        <v>82</v>
       </c>
       <c r="AS81" t="s" s="2">
-        <v>636</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AR82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AS82" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AR83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AS83" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP84" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AQ84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AR84" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AS84" t="s" s="2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q85" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP85" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AQ85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AR85" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AS85" t="s" s="2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ86" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AR86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AS86" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ87" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AR87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AS87" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ88" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AR88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AS88" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ89" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="AR89" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="AS89" t="s" s="2">
+        <v>688</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS81">
+  <autoFilter ref="A1:AS89">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12828,7 +14020,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI80">
+  <conditionalFormatting sqref="A2:AI88">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T11:04:10-06:00</t>
+    <t>2024-01-29T11:03:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:03:46-06:00</t>
+    <t>2024-01-29T11:44:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:44:59-06:00</t>
+    <t>2024-02-26T14:52:47-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T14:52:47-06:00</t>
+    <t>2024-03-18T14:58:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3688" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3689" uniqueCount="690">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T14:58:21-05:00</t>
+    <t>2024-03-29T15:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,6 +237,12 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: VIA to mhv-fhir-phr</t>
+  </si>
+  <si>
+    <t>Mapping: eVault-PHR to mhv-fhir-phr</t>
+  </si>
+  <si>
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
@@ -256,12 +262,6 @@
   </si>
   <si>
     <t>Mapping: XDS metadata equivalent</t>
-  </si>
-  <si>
-    <t>Mapping: VIA to mhv-fhir-phr</t>
-  </si>
-  <si>
-    <t>Mapping: eVault-PHR to mhv-fhir-phr</t>
   </si>
   <si>
     <t/>
@@ -287,6 +287,9 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
+    <t>NoteTO</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -297,9 +300,6 @@
   </si>
   <si>
     <t>when describing a CDA</t>
-  </si>
-  <si>
-    <t>NoteTO</t>
   </si>
   <si>
     <t>DocumentReference.id</t>
@@ -545,6 +545,9 @@
     <t>open</t>
   </si>
   <si>
+    <t>NoteTO.id</t>
+  </si>
+  <si>
     <t>.id / .setId</t>
   </si>
   <si>
@@ -552,9 +555,6 @@
   </si>
   <si>
     <t>DocumentEntry.entryUUID</t>
-  </si>
-  <si>
-    <t>NoteTO.id</t>
   </si>
   <si>
     <t>DocumentReference.identifier:TOid</t>
@@ -807,6 +807,12 @@
     <t>http://hl7.org/fhir/ValueSet/document-reference-status</t>
   </si>
   <si>
+    <t>`current` if not `entered-in-error`</t>
+  </si>
+  <si>
+    <t>`current`</t>
+  </si>
+  <si>
     <t>Event.status</t>
   </si>
   <si>
@@ -822,12 +828,6 @@
     <t>DocumentEntry.availabilityStatus</t>
   </si>
   <si>
-    <t>`current` if not `entered-in-error`</t>
-  </si>
-  <si>
-    <t>`current`</t>
-  </si>
-  <si>
     <t>DocumentReference.docStatus</t>
   </si>
   <si>
@@ -867,7 +867,10 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/ValueSet/NoteTypeVS</t>
+    <t>All LOINC  values whose SCALE is DOC in the LOINC database and the HL7 v3 Code System NullFlavor concept 'unknown'</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-type</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -924,22 +927,22 @@
     <t>CodeableConcept.coding</t>
   </si>
   <si>
+    <t>NoteTO.type{PN, DS, CR, ?}</t>
+  </si>
+  <si>
     <t>union(., ./translation)</t>
   </si>
   <si>
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
-    <t>NoteTO.type{PN, DS, CR, ?}</t>
-  </si>
-  <si>
     <t>DocumentReference.type.coding:LO</t>
   </si>
   <si>
     <t>LO</t>
   </si>
   <si>
-    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/ValueSet/DocumentReferenceTypeVS</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/ValueSet/NoteTypeVS</t>
   </si>
   <si>
     <t>DocumentReference.type.coding:LO.id</t>
@@ -1102,13 +1105,13 @@
     <t>CodeableConcept.text</t>
   </si>
   <si>
+    <t>NoteTO.standardTitle</t>
+  </si>
+  <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>NoteTO.standardTitle</t>
   </si>
   <si>
     <t>DocumentReference.category</t>
@@ -1140,6 +1143,9 @@
 </t>
   </si>
   <si>
+    <t>`clinical-note`</t>
+  </si>
+  <si>
     <t>Composition.class</t>
   </si>
   <si>
@@ -1150,9 +1156,6 @@
   </si>
   <si>
     <t>DocumentEntry.class</t>
-  </si>
-  <si>
-    <t>`clinical-note`</t>
   </si>
   <si>
     <t>DocumentReference.category:us-core</t>
@@ -1180,6 +1183,9 @@
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
   </si>
   <si>
+    <t>GetPatient()</t>
+  </si>
+  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -1199,9 +1205,6 @@
   </si>
   <si>
     <t>DocumentEntry.patientId</t>
-  </si>
-  <si>
-    <t>GetPatient()</t>
   </si>
   <si>
     <t>DocumentReference.date</t>
@@ -1224,6 +1227,9 @@
     <t>Referencing/indexing time is used for tracking, organizing versions and searching.</t>
   </si>
   <si>
+    <t>if timestamp is missing time, then use procTimestamp</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -1234,9 +1240,6 @@
   </si>
   <si>
     <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>if timestamp is missing time, then use procTimestamp</t>
   </si>
   <si>
     <t>DocumentReference.author</t>
@@ -1255,6 +1258,9 @@
     <t>Not necessarily who did the actual data entry (i.e. typist) or who was the source (informant).</t>
   </si>
   <si>
+    <t>GetPractitioner(NoteTO.author.[AuthorTO])</t>
+  </si>
+  <si>
     <t>Event.performer.actor</t>
   </si>
   <si>
@@ -1271,9 +1277,6 @@
   </si>
   <si>
     <t>DocumentEntry.author</t>
-  </si>
-  <si>
-    <t>GetPractitioner(NoteTO.author.[AuthorTO])</t>
   </si>
   <si>
     <t>DocumentReference.authenticator</t>
@@ -1292,6 +1295,9 @@
     <t>Represents a participant within the author institution who has legally authenticated or attested the document. Legal authentication implies that a document has been signed manually or electronically by the legal Authenticator.</t>
   </si>
   <si>
+    <t>GetPractitioner(NoteTO.approvedBy.[AuthorTO])</t>
+  </si>
+  <si>
     <t>Composition.attester</t>
   </si>
   <si>
@@ -1308,9 +1314,6 @@
   </si>
   <si>
     <t>DocumentEntry.legalAuthenticator</t>
-  </si>
-  <si>
-    <t>GetPractitioner(NoteTO.approvedBy.[AuthorTO])</t>
   </si>
   <si>
     <t>DocumentReference.authenticator.id</t>
@@ -1676,13 +1679,13 @@
     <t>Attachment.contentType</t>
   </si>
   <si>
+    <t>`text/plain`</t>
+  </si>
+  <si>
     <t>./mediaType, ./charset</t>
   </si>
   <si>
     <t>ED.2+ED.3/RP.2+RP.3. Note conversion may be needed if old style values are being used</t>
-  </si>
-  <si>
-    <t>`text/plain`</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.language</t>
@@ -1732,13 +1735,13 @@
 </t>
   </si>
   <si>
+    <t>base64(NoteTO.text)</t>
+  </si>
+  <si>
     <t>./data</t>
   </si>
   <si>
     <t>ED.5</t>
-  </si>
-  <si>
-    <t>base64(NoteTO.text)</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.url</t>
@@ -1836,10 +1839,10 @@
     <t>Attachment.title</t>
   </si>
   <si>
+    <t>NoteTO.localTitle</t>
+  </si>
+  <si>
     <t>./title/data</t>
-  </si>
-  <si>
-    <t>NoteTO.localTitle</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.creation</t>
@@ -2014,15 +2017,15 @@
 </t>
   </si>
   <si>
+    <t>ConvertDate(NoteTO.admitTimestamp)</t>
+  </si>
+  <si>
     <t>./low</t>
   </si>
   <si>
     <t>DR.1</t>
   </si>
   <si>
-    <t>ConvertDate(NoteTO.admitTimestamp)</t>
-  </si>
-  <si>
     <t>DocumentReference.context.period.end</t>
   </si>
   <si>
@@ -2041,13 +2044,13 @@
     <t>Period.end</t>
   </si>
   <si>
+    <t>ConvertDate(NoteTO.dischargeTimestamp)</t>
+  </si>
+  <si>
     <t>./high</t>
   </si>
   <si>
     <t>DR.2</t>
-  </si>
-  <si>
-    <t>ConvertDate(NoteTO.dischargeTimestamp)</t>
   </si>
   <si>
     <t>DocumentReference.context.facilityType</t>
@@ -2133,6 +2136,9 @@
     <t>May be identifiers or resources that caused the DocumentReference or referenced Document to be created.</t>
   </si>
   <si>
+    <t>GetLocation(NoteTO.location.[HospitalLocationTO])</t>
+  </si>
+  <si>
     <t>Composition.event.detail</t>
   </si>
   <si>
@@ -2143,9 +2149,6 @@
   </si>
   <si>
     <t>DocumentEntry.referenceIdList</t>
-  </si>
-  <si>
-    <t>GetLocation(NoteTO.location.[HospitalLocationTO])</t>
   </si>
 </sst>
 </file>
@@ -2507,7 +2510,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="125.34375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="99.78515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="85.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -2517,15 +2520,15 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="50.96484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="82.05078125" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="157.95703125" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="49.30078125" customWidth="true" bestFit="true"/>
-    <col min="45" max="45" width="49.30078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="49.30078125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="49.30078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="50.96484375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="82.05078125" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" width="157.95703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2770,28 +2773,28 @@
         <v>89</v>
       </c>
       <c r="AL2" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AN2" t="s" s="2">
+      <c r="AO2" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AO2" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AP2" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AQ2" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR2" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AS2" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -3416,13 +3419,13 @@
         <v>82</v>
       </c>
       <c r="AM7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO7" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO7" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP7" t="s" s="2">
         <v>82</v>
@@ -3545,13 +3548,13 @@
         <v>82</v>
       </c>
       <c r="AM8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO8" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO8" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP8" t="s" s="2">
         <v>82</v>
@@ -3674,13 +3677,13 @@
         <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN9" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO9" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP9" t="s" s="2">
         <v>82</v>
@@ -3805,13 +3808,13 @@
         <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO10" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>82</v>
@@ -3930,31 +3933,31 @@
         <v>107</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AP11" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AO11" t="s" s="2">
+      <c r="AQ11" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AP11" t="s" s="2">
+      <c r="AR11" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AQ11" t="s" s="2">
+      <c r="AS11" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AR11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AS11" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="12" hidden="true">
@@ -4055,28 +4058,28 @@
         <v>107</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>170</v>
-      </c>
       <c r="AN12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO12" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AP12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AP12" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AQ12" t="s" s="2">
+      <c r="AR12" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AR12" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AS12" t="s" s="2">
         <v>173</v>
@@ -4184,31 +4187,31 @@
         <v>107</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>170</v>
-      </c>
       <c r="AN13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AP13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AP13" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AQ13" t="s" s="2">
+      <c r="AR13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AR13" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AS13" t="s" s="2">
-        <v>82</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" hidden="true">
@@ -4317,13 +4320,13 @@
         <v>82</v>
       </c>
       <c r="AM14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO14" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>82</v>
@@ -4446,13 +4449,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -4577,22 +4580,22 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AN16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AP16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AR16" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AQ16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AR16" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AS16" t="s" s="2">
         <v>82</v>
@@ -4708,22 +4711,22 @@
         <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AN17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AP17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AR17" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AQ17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AR17" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AS17" t="s" s="2">
         <v>82</v>
@@ -4839,22 +4842,22 @@
         <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO18" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AN18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AP18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AR18" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AQ18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AR18" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AS18" t="s" s="2">
         <v>82</v>
@@ -4968,22 +4971,22 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AN19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AP19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AR19" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AQ19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AR19" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AS19" t="s" s="2">
         <v>82</v>
@@ -5095,22 +5098,22 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AN20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AP20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AR20" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AQ20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AR20" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AS20" t="s" s="2">
         <v>82</v>
@@ -5224,22 +5227,22 @@
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AN21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AP21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AR21" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AQ21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AR21" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AS21" t="s" s="2">
         <v>82</v>
@@ -5348,19 +5351,19 @@
         <v>255</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>82</v>
+        <v>256</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>258</v>
+        <v>82</v>
       </c>
       <c r="AQ22" t="s" s="2">
         <v>259</v>
@@ -5477,25 +5480,25 @@
         <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AN23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="AP23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ23" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AR23" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AQ23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AR23" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AS23" t="s" s="2">
         <v>82</v>
@@ -5566,9 +5569,11 @@
       <c r="X24" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Y24" s="2"/>
+      <c r="Y24" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5601,39 +5606,39 @@
         <v>107</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>276</v>
+        <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AO24" t="s" s="2">
+      <c r="AP24" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AP24" t="s" s="2">
+      <c r="AQ24" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AQ24" t="s" s="2">
+      <c r="AR24" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AR24" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AS24" t="s" s="2">
-        <v>82</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5734,13 +5739,13 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>82</v>
@@ -5757,10 +5762,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5863,13 +5868,13 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>82</v>
@@ -5886,10 +5891,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5912,19 +5917,19 @@
         <v>96</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5961,7 +5966,7 @@
         <v>82</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
@@ -5971,7 +5976,7 @@
         <v>169</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>83</v>
@@ -5986,42 +5991,42 @@
         <v>107</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AS27" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -6043,19 +6048,19 @@
         <v>96</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -6084,7 +6089,7 @@
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -6102,7 +6107,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>83</v>
@@ -6123,22 +6128,22 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR28" t="s" s="2">
-        <v>82</v>
+        <v>296</v>
       </c>
       <c r="AS28" t="s" s="2">
         <v>82</v>
@@ -6146,10 +6151,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6250,13 +6255,13 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -6273,10 +6278,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6379,13 +6384,13 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>82</v>
@@ -6402,10 +6407,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6431,16 +6436,16 @@
         <v>109</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6450,7 +6455,7 @@
         <v>82</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>82</v>
@@ -6489,7 +6494,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>83</v>
@@ -6510,22 +6515,22 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>311</v>
+        <v>82</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>82</v>
+        <v>312</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>312</v>
+        <v>82</v>
       </c>
       <c r="AQ31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR31" t="s" s="2">
-        <v>82</v>
+        <v>313</v>
       </c>
       <c r="AS31" t="s" s="2">
         <v>82</v>
@@ -6533,10 +6538,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6562,13 +6567,13 @@
         <v>178</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6618,7 +6623,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>83</v>
@@ -6639,22 +6644,22 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR32" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="AS32" t="s" s="2">
         <v>82</v>
@@ -6662,10 +6667,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6691,14 +6696,14 @@
         <v>115</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6747,7 +6752,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>83</v>
@@ -6768,22 +6773,22 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>278</v>
+        <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>82</v>
+        <v>279</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>327</v>
+        <v>82</v>
       </c>
       <c r="AQ33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR33" t="s" s="2">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="AS33" t="s" s="2">
         <v>82</v>
@@ -6791,10 +6796,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6820,14 +6825,14 @@
         <v>178</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6876,7 +6881,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>83</v>
@@ -6897,22 +6902,22 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>82</v>
+        <v>335</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR34" t="s" s="2">
-        <v>82</v>
+        <v>336</v>
       </c>
       <c r="AS34" t="s" s="2">
         <v>82</v>
@@ -6920,10 +6925,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6946,19 +6951,19 @@
         <v>96</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -7007,7 +7012,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>83</v>
@@ -7028,22 +7033,22 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>345</v>
+        <v>82</v>
       </c>
       <c r="AQ35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR35" t="s" s="2">
-        <v>82</v>
+        <v>346</v>
       </c>
       <c r="AS35" t="s" s="2">
         <v>82</v>
@@ -7051,10 +7056,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -7080,16 +7085,16 @@
         <v>178</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -7138,7 +7143,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>83</v>
@@ -7153,43 +7158,43 @@
         <v>107</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>82</v>
+        <v>353</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>82</v>
+        <v>353</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>352</v>
+        <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>82</v>
+        <v>354</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>353</v>
+        <v>82</v>
       </c>
       <c r="AQ36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR36" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AS36" t="s" s="2">
-        <v>354</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -7211,13 +7216,13 @@
         <v>203</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -7243,19 +7248,19 @@
         <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
@@ -7265,7 +7270,7 @@
         <v>169</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>83</v>
@@ -7280,45 +7285,45 @@
         <v>107</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>82</v>
+        <v>365</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>365</v>
+        <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>366</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>280</v>
+        <v>367</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>82</v>
+        <v>368</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>367</v>
+        <v>281</v>
       </c>
       <c r="AR37" t="s" s="2">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="AS37" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -7340,13 +7345,13 @@
         <v>203</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -7375,10 +7380,10 @@
         <v>196</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -7396,7 +7401,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>83</v>
@@ -7414,36 +7419,36 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>364</v>
+        <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>365</v>
+        <v>82</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>366</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>280</v>
+        <v>367</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>82</v>
+        <v>368</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>367</v>
+        <v>281</v>
       </c>
       <c r="AR38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AS38" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7466,13 +7471,13 @@
         <v>96</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7523,7 +7528,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>83</v>
@@ -7538,7 +7543,7 @@
         <v>107</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>378</v>
@@ -7562,19 +7567,19 @@
         <v>384</v>
       </c>
       <c r="AS39" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7593,16 +7598,16 @@
         <v>96</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7652,7 +7657,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>83</v>
@@ -7667,7 +7672,7 @@
         <v>107</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>392</v>
@@ -7676,30 +7681,30 @@
         <v>393</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>82</v>
+        <v>396</v>
       </c>
       <c r="AR40" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="AS40" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7722,16 +7727,16 @@
         <v>96</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7781,7 +7786,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>83</v>
@@ -7796,7 +7801,7 @@
         <v>107</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>402</v>
@@ -7808,27 +7813,27 @@
         <v>404</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>82</v>
+        <v>405</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>406</v>
+        <v>82</v>
       </c>
       <c r="AR41" t="s" s="2">
         <v>407</v>
       </c>
       <c r="AS41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7851,16 +7856,16 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7910,7 +7915,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>83</v>
@@ -7925,13 +7930,13 @@
         <v>107</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>415</v>
@@ -7949,15 +7954,15 @@
         <v>419</v>
       </c>
       <c r="AS42" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -8058,13 +8063,13 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO43" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>82</v>
@@ -8081,10 +8086,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -8187,13 +8192,13 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>82</v>
@@ -8210,13 +8215,13 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="B45" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="C45" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>82</v>
@@ -8238,13 +8243,13 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -8310,10 +8315,10 @@
         <v>146</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>82</v>
+        <v>428</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>82</v>
+        <v>428</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>82</v>
@@ -8331,18 +8336,18 @@
         <v>82</v>
       </c>
       <c r="AR45" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="AS45" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8368,13 +8373,13 @@
         <v>178</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -8424,7 +8429,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>83</v>
@@ -8433,7 +8438,7 @@
         <v>95</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>107</v>
@@ -8445,13 +8450,13 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>82</v>
@@ -8468,10 +8473,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8497,13 +8502,13 @@
         <v>109</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8532,10 +8537,10 @@
         <v>208</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
@@ -8553,7 +8558,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>83</v>
@@ -8574,13 +8579,13 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>82</v>
@@ -8597,10 +8602,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8626,13 +8631,13 @@
         <v>153</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8682,7 +8687,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>83</v>
@@ -8703,13 +8708,13 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>446</v>
+        <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>82</v>
+        <v>447</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>82</v>
@@ -8726,10 +8731,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8755,13 +8760,13 @@
         <v>178</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8811,7 +8816,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>83</v>
@@ -8832,13 +8837,13 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -8855,10 +8860,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8884,13 +8889,13 @@
         <v>243</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8940,7 +8945,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>83</v>
@@ -8955,19 +8960,19 @@
         <v>107</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>456</v>
+        <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AN50" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AO50" t="s" s="2">
-        <v>82</v>
+        <v>458</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>82</v>
@@ -8984,10 +8989,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -9010,16 +9015,16 @@
         <v>96</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -9069,7 +9074,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>83</v>
@@ -9087,36 +9092,36 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>463</v>
+        <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AN51" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AO51" t="s" s="2">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AQ51" t="s" s="2">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="AR51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AS51" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -9217,13 +9222,13 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -9240,10 +9245,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9346,13 +9351,13 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>82</v>
@@ -9369,14 +9374,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -9398,10 +9403,10 @@
         <v>141</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>144</v>
@@ -9456,7 +9461,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>83</v>
@@ -9477,13 +9482,13 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>82</v>
@@ -9500,10 +9505,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9529,13 +9534,13 @@
         <v>115</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9564,10 +9569,10 @@
         <v>196</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
@@ -9585,7 +9590,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>95</v>
@@ -9603,36 +9608,36 @@
         <v>82</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AN55" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AO55" t="s" s="2">
-        <v>82</v>
+        <v>481</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AQ55" t="s" s="2">
-        <v>481</v>
+        <v>82</v>
       </c>
       <c r="AR55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AS55" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9655,13 +9660,13 @@
         <v>96</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9712,7 +9717,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>95</v>
@@ -9730,36 +9735,36 @@
         <v>82</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>486</v>
+        <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AN56" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AO56" t="s" s="2">
-        <v>82</v>
+        <v>488</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>488</v>
+        <v>82</v>
       </c>
       <c r="AR56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AS56" t="s" s="2">
-        <v>82</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9785,16 +9790,16 @@
         <v>178</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9843,7 +9848,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>83</v>
@@ -9864,33 +9869,33 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>494</v>
+        <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>82</v>
+        <v>495</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>495</v>
+        <v>82</v>
       </c>
       <c r="AQ57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AR57" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="AR57" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AS57" t="s" s="2">
-        <v>82</v>
+        <v>497</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9916,16 +9921,16 @@
         <v>203</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9953,10 +9958,10 @@
         <v>208</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
@@ -9974,7 +9979,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>83</v>
@@ -9992,36 +9997,36 @@
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>504</v>
+        <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>507</v>
       </c>
       <c r="AQ58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AR58" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="AR58" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AS58" t="s" s="2">
-        <v>82</v>
+        <v>509</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -10044,13 +10049,13 @@
         <v>96</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -10101,7 +10106,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>95</v>
@@ -10119,16 +10124,16 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>512</v>
+        <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="AN59" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AO59" t="s" s="2">
-        <v>82</v>
+        <v>514</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>82</v>
@@ -10145,10 +10150,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -10249,13 +10254,13 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>82</v>
@@ -10272,10 +10277,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10378,13 +10383,13 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO61" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>82</v>
@@ -10401,14 +10406,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -10430,10 +10435,10 @@
         <v>141</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>144</v>
@@ -10488,7 +10493,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>83</v>
@@ -10509,13 +10514,13 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>82</v>
@@ -10532,10 +10537,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10558,13 +10563,13 @@
         <v>96</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -10615,7 +10620,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>95</v>
@@ -10627,42 +10632,42 @@
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>522</v>
+        <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>513</v>
+        <v>82</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>523</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>82</v>
+        <v>514</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>524</v>
       </c>
       <c r="AQ63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AR63" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AR63" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AS63" t="s" s="2">
-        <v>82</v>
+        <v>526</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10763,13 +10768,13 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>82</v>
@@ -10786,10 +10791,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10892,13 +10897,13 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO65" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>82</v>
@@ -10915,10 +10920,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10944,14 +10949,14 @@
         <v>115</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10964,7 +10969,7 @@
         <v>82</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>82</v>
@@ -10979,10 +10984,10 @@
         <v>196</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -11000,7 +11005,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>83</v>
@@ -11015,39 +11020,39 @@
         <v>107</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>82</v>
+        <v>537</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>82</v>
+        <v>537</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>536</v>
+        <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>82</v>
+        <v>538</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>537</v>
+        <v>82</v>
       </c>
       <c r="AQ66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR66" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AS66" t="s" s="2">
-        <v>538</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -11073,14 +11078,14 @@
         <v>115</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -11093,7 +11098,7 @@
         <v>82</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="U67" t="s" s="2">
         <v>82</v>
@@ -11129,7 +11134,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>83</v>
@@ -11150,13 +11155,13 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>545</v>
+        <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>82</v>
+        <v>546</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>82</v>
@@ -11173,10 +11178,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -11199,19 +11204,19 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -11260,7 +11265,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>83</v>
@@ -11269,45 +11274,45 @@
         <v>95</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>82</v>
+        <v>555</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>82</v>
+        <v>555</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>554</v>
+        <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>82</v>
+        <v>556</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>555</v>
+        <v>82</v>
       </c>
       <c r="AQ68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR68" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AS68" t="s" s="2">
-        <v>556</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11330,19 +11335,19 @@
         <v>96</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -11355,7 +11360,7 @@
         <v>82</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>82</v>
@@ -11391,7 +11396,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>83</v>
@@ -11400,7 +11405,7 @@
         <v>95</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>107</v>
@@ -11412,22 +11417,22 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>565</v>
+        <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>82</v>
+        <v>566</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>566</v>
+        <v>82</v>
       </c>
       <c r="AQ69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR69" t="s" s="2">
-        <v>82</v>
+        <v>567</v>
       </c>
       <c r="AS69" t="s" s="2">
         <v>82</v>
@@ -11435,10 +11440,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11461,19 +11466,19 @@
         <v>96</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -11522,7 +11527,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>83</v>
@@ -11543,13 +11548,13 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>574</v>
+        <v>82</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>82</v>
@@ -11566,10 +11571,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11592,19 +11597,19 @@
         <v>96</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -11653,7 +11658,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>83</v>
@@ -11674,13 +11679,13 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>581</v>
+        <v>82</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>82</v>
+        <v>582</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>82</v>
@@ -11697,10 +11702,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11726,14 +11731,14 @@
         <v>178</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -11746,7 +11751,7 @@
         <v>82</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="U72" t="s" s="2">
         <v>82</v>
@@ -11782,7 +11787,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>83</v>
@@ -11797,19 +11802,19 @@
         <v>107</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>82</v>
+        <v>589</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>82</v>
+        <v>589</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>588</v>
+        <v>82</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>82</v>
+        <v>590</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>82</v>
@@ -11818,18 +11823,18 @@
         <v>82</v>
       </c>
       <c r="AR72" t="s" s="2">
-        <v>589</v>
+        <v>82</v>
       </c>
       <c r="AS72" t="s" s="2">
-        <v>589</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11852,17 +11857,17 @@
         <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11911,7 +11916,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>83</v>
@@ -11926,19 +11931,19 @@
         <v>107</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>82</v>
+        <v>597</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>82</v>
+        <v>597</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>574</v>
+        <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>82</v>
@@ -11947,18 +11952,18 @@
         <v>82</v>
       </c>
       <c r="AR73" t="s" s="2">
-        <v>596</v>
+        <v>82</v>
       </c>
       <c r="AS73" t="s" s="2">
-        <v>596</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11981,16 +11986,16 @@
         <v>96</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -12020,7 +12025,7 @@
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>82</v>
@@ -12038,7 +12043,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>83</v>
@@ -12056,36 +12061,36 @@
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>602</v>
+        <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>513</v>
+        <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>603</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>82</v>
+        <v>514</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>82</v>
+        <v>604</v>
       </c>
       <c r="AQ74" t="s" s="2">
-        <v>604</v>
+        <v>82</v>
       </c>
       <c r="AR74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AS74" t="s" s="2">
-        <v>82</v>
+        <v>605</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -12108,16 +12113,16 @@
         <v>96</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -12167,7 +12172,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>83</v>
@@ -12188,13 +12193,13 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>609</v>
+        <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>82</v>
+        <v>610</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>82</v>
@@ -12211,10 +12216,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -12315,13 +12320,13 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO76" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -12338,10 +12343,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12444,13 +12449,13 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>82</v>
@@ -12467,14 +12472,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -12496,10 +12501,10 @@
         <v>141</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>144</v>
@@ -12554,7 +12559,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>83</v>
@@ -12575,13 +12580,13 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>82</v>
@@ -12598,10 +12603,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12624,13 +12629,13 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -12681,7 +12686,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>83</v>
@@ -12696,16 +12701,16 @@
         <v>107</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>617</v>
+        <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="AM79" t="s" s="2">
+      <c r="AN79" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>620</v>
@@ -12714,7 +12719,7 @@
         <v>82</v>
       </c>
       <c r="AQ79" t="s" s="2">
-        <v>82</v>
+        <v>621</v>
       </c>
       <c r="AR79" t="s" s="2">
         <v>82</v>
@@ -12725,10 +12730,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12754,13 +12759,13 @@
         <v>203</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12786,13 +12791,13 @@
         <v>82</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12810,7 +12815,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>83</v>
@@ -12828,36 +12833,36 @@
         <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>627</v>
+        <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="AN80" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AO80" t="s" s="2">
-        <v>82</v>
+        <v>629</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AQ80" t="s" s="2">
-        <v>629</v>
+        <v>82</v>
       </c>
       <c r="AR80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AS80" t="s" s="2">
-        <v>82</v>
+        <v>630</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12883,10 +12888,10 @@
         <v>235</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12937,7 +12942,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>83</v>
@@ -12955,36 +12960,36 @@
         <v>82</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>633</v>
+        <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="AN81" t="s" s="2">
+      <c r="AO81" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="AO81" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AP81" t="s" s="2">
-        <v>82</v>
+        <v>636</v>
       </c>
       <c r="AQ81" t="s" s="2">
-        <v>636</v>
+        <v>82</v>
       </c>
       <c r="AR81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AS81" t="s" s="2">
-        <v>82</v>
+        <v>637</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -13085,13 +13090,13 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO82" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>82</v>
@@ -13108,10 +13113,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -13214,13 +13219,13 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>82</v>
@@ -13237,10 +13242,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13263,16 +13268,16 @@
         <v>96</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -13322,7 +13327,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>83</v>
@@ -13331,45 +13336,45 @@
         <v>95</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>82</v>
+        <v>646</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>82</v>
+        <v>646</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>645</v>
+        <v>82</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>82</v>
+        <v>647</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>646</v>
+        <v>82</v>
       </c>
       <c r="AQ84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR84" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AS84" t="s" s="2">
-        <v>647</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13392,23 +13397,23 @@
         <v>96</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q85" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="R85" t="s" s="2">
         <v>82</v>
@@ -13453,7 +13458,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>83</v>
@@ -13462,45 +13467,45 @@
         <v>95</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>82</v>
+        <v>655</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>82</v>
+        <v>655</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>654</v>
+        <v>82</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>82</v>
+        <v>656</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>655</v>
+        <v>82</v>
       </c>
       <c r="AQ85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AR85" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AS85" t="s" s="2">
-        <v>656</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13526,10 +13531,10 @@
         <v>203</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -13556,13 +13561,13 @@
         <v>82</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>82</v>
@@ -13580,7 +13585,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>83</v>
@@ -13598,36 +13603,36 @@
         <v>82</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>662</v>
+        <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="AN86" t="s" s="2">
+      <c r="AO86" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="AO86" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AP86" t="s" s="2">
-        <v>82</v>
+        <v>665</v>
       </c>
       <c r="AQ86" t="s" s="2">
-        <v>665</v>
+        <v>82</v>
       </c>
       <c r="AR86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AS86" t="s" s="2">
-        <v>82</v>
+        <v>666</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13653,16 +13658,16 @@
         <v>203</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -13687,13 +13692,13 @@
         <v>82</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -13711,7 +13716,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>83</v>
@@ -13729,36 +13734,36 @@
         <v>82</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>662</v>
+        <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="AN87" t="s" s="2">
-        <v>662</v>
-      </c>
       <c r="AO87" t="s" s="2">
-        <v>82</v>
+        <v>664</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>82</v>
+        <v>663</v>
       </c>
       <c r="AQ87" t="s" s="2">
-        <v>673</v>
+        <v>82</v>
       </c>
       <c r="AR87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AS87" t="s" s="2">
-        <v>82</v>
+        <v>674</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13781,13 +13786,13 @@
         <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -13838,7 +13843,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>83</v>
@@ -13856,36 +13861,36 @@
         <v>82</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>379</v>
+        <v>82</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>380</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>82</v>
+        <v>381</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>82</v>
+        <v>382</v>
       </c>
       <c r="AQ88" t="s" s="2">
-        <v>678</v>
+        <v>82</v>
       </c>
       <c r="AR88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AS88" t="s" s="2">
-        <v>82</v>
+        <v>679</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13908,16 +13913,16 @@
         <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13967,7 +13972,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>83</v>
@@ -13982,31 +13987,31 @@
         <v>107</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>82</v>
+        <v>685</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>685</v>
+        <v>82</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>686</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>82</v>
+        <v>687</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>82</v>
+        <v>688</v>
       </c>
       <c r="AQ89" t="s" s="2">
-        <v>687</v>
+        <v>82</v>
       </c>
       <c r="AR89" t="s" s="2">
-        <v>688</v>
+        <v>82</v>
       </c>
       <c r="AS89" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T11:51:10-05:00</t>
+    <t>2024-06-10T12:47:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -8880,7 +8880,7 @@
         <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>83</v>
@@ -9781,7 +9781,7 @@
         <v>84</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>83</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.note.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
